--- a/CIERRE GASTOS ADMINISTRATIVOS ENERO 2026.xlsx
+++ b/CIERRE GASTOS ADMINISTRATIVOS ENERO 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\PAGOS ENERO 2026\CIERRE-PAGOS-ENERO-2026\CIERRE-PAGOS-ENERO-2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE21AA2-E58A-4B8A-B05B-03373CC4EEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88066B7F-E858-48A6-BE01-0B24096801F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D111AC9-F4B5-4EE1-9519-BE4E4E92E24D}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$Q$170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$Q$173</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="515">
   <si>
     <t>ID_OBLIGACION</t>
   </si>
@@ -1362,9 +1362,6 @@
     <t>F001-00037032</t>
   </si>
   <si>
-    <t>planilla.montacargas.aliaga@gmail.com / alquiler@montacargasaliaga.com</t>
-  </si>
-  <si>
     <t>F001-00037040</t>
   </si>
   <si>
@@ -1461,9 +1458,6 @@
     <t>doctorstephenquiroz@gmail.com / conisalu1@yahoo.es / contacto.yja@jacontadores.pe / contacto.mg@jaco</t>
   </si>
   <si>
-    <t>MARIA DAVILA</t>
-  </si>
-  <si>
     <t>202505|202506|202507|202508|202509|202510|202511</t>
   </si>
   <si>
@@ -1482,10 +1476,115 @@
     <t>VILLEGAS ROSALES KATHIA MELISSA</t>
   </si>
   <si>
-    <t>ARAUJO GAMARRA MARITZA ROSARIO</t>
-  </si>
-  <si>
-    <t>ARAUJO GAMARRA MARITZA DEL ROSARIO</t>
+    <t>CARITAS DIOCESANA DEL CALLAO</t>
+  </si>
+  <si>
+    <t>INSTITUTO DEL RIÑON E.I.R.L.</t>
+  </si>
+  <si>
+    <t>GRUPO VANILU S.A.C.</t>
+  </si>
+  <si>
+    <t>AVILA ARTEAGA SEBASTIAN ALEXANDER</t>
+  </si>
+  <si>
+    <t>CHOCOMUSEO SOCIEDAD ANÓNIMA CERRADA - CHOCOMUSEO S.A.C.</t>
+  </si>
+  <si>
+    <t>200807|201011|201110|201111|201201|201202|201203</t>
+  </si>
+  <si>
+    <t>200709|200711|200712|200801|200802|200803|200805|200806|200807|200808|200809|200811|200812|200901|200902|200903|200905|200906|200907|200908|200909|200</t>
+  </si>
+  <si>
+    <t>F001-00036578</t>
+  </si>
+  <si>
+    <t>F001-00037094</t>
+  </si>
+  <si>
+    <t>F001-00037096</t>
+  </si>
+  <si>
+    <t>F001-00037098</t>
+  </si>
+  <si>
+    <t>F001-00037103</t>
+  </si>
+  <si>
+    <t>F001-00037105</t>
+  </si>
+  <si>
+    <t>F001-00037107</t>
+  </si>
+  <si>
+    <t>F001-00037099</t>
+  </si>
+  <si>
+    <t>F001-00037151</t>
+  </si>
+  <si>
+    <t>F001-00037152</t>
+  </si>
+  <si>
+    <t>F001-00037153</t>
+  </si>
+  <si>
+    <t>F001-00037116</t>
+  </si>
+  <si>
+    <t>ESPINAL MALAVER MARIA DAYSI</t>
+  </si>
+  <si>
+    <t>F001-00037087</t>
+  </si>
+  <si>
+    <t>F001-00037154</t>
+  </si>
+  <si>
+    <t>F001-00037155</t>
+  </si>
+  <si>
+    <t>F001-00037125</t>
+  </si>
+  <si>
+    <t>F001-00037128</t>
+  </si>
+  <si>
+    <t>F001-00037129</t>
+  </si>
+  <si>
+    <t>F001-00037156</t>
+  </si>
+  <si>
+    <t>F001-00037131</t>
+  </si>
+  <si>
+    <t>F001-00037132</t>
+  </si>
+  <si>
+    <t>estudiovydabogados@gmail.com; enrique.marquina@formavenaconsergen.com; estudiovydabogados@gmail.com</t>
+  </si>
+  <si>
+    <t>F001-00037136</t>
+  </si>
+  <si>
+    <t>F001-00036990</t>
+  </si>
+  <si>
+    <t>F001-00037144</t>
+  </si>
+  <si>
+    <t>F001-00037146</t>
+  </si>
+  <si>
+    <t>facturacion@grupovanilu.com</t>
+  </si>
+  <si>
+    <t>rakelita2309@hotmail.com</t>
+  </si>
+  <si>
+    <t>glorifl@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -1917,20 +2016,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620BD549-6BD9-4566-86B2-4950053DB95E}">
-  <dimension ref="A1:Q171"/>
+  <dimension ref="A1:Q174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="M131" sqref="M131"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="L173" sqref="L173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="11" width="11.5703125" style="9"/>
-    <col min="12" max="12" width="11.5703125" style="10"/>
-    <col min="13" max="16384" width="11.5703125" style="9"/>
+    <col min="1" max="11" width="11.5546875" style="9"/>
+    <col min="12" max="12" width="11.5546875" style="10"/>
+    <col min="13" max="16384" width="11.5546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1983,7 +2082,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>76477545</v>
       </c>
@@ -2036,7 +2135,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>76500851</v>
       </c>
@@ -2089,7 +2188,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>76476629</v>
       </c>
@@ -2142,7 +2241,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>76493243</v>
       </c>
@@ -2195,7 +2294,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>76514002</v>
       </c>
@@ -2248,7 +2347,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>76478985</v>
       </c>
@@ -2301,7 +2400,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>76476169</v>
       </c>
@@ -2354,7 +2453,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>76667745</v>
       </c>
@@ -2405,7 +2504,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>76666746</v>
       </c>
@@ -2458,7 +2557,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>76666613</v>
       </c>
@@ -2511,7 +2610,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>76668331</v>
       </c>
@@ -2564,7 +2663,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>76496120</v>
       </c>
@@ -2615,7 +2714,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>76666634</v>
       </c>
@@ -2668,7 +2767,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>76670444</v>
       </c>
@@ -2721,7 +2820,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>76671371</v>
       </c>
@@ -2774,7 +2873,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>76668067</v>
       </c>
@@ -2827,7 +2926,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>76666258</v>
       </c>
@@ -2880,7 +2979,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>76670897</v>
       </c>
@@ -2933,7 +3032,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>76671088</v>
       </c>
@@ -2986,7 +3085,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>76670806</v>
       </c>
@@ -3039,7 +3138,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>76668565</v>
       </c>
@@ -3090,7 +3189,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>76667407</v>
       </c>
@@ -3143,7 +3242,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>76666224</v>
       </c>
@@ -3196,7 +3295,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>76670589</v>
       </c>
@@ -3249,7 +3348,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>76669642</v>
       </c>
@@ -3302,7 +3401,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>76669733</v>
       </c>
@@ -3355,7 +3454,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>76666619</v>
       </c>
@@ -3408,7 +3507,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>76667518</v>
       </c>
@@ -3461,7 +3560,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>76669961</v>
       </c>
@@ -3514,7 +3613,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>76676455</v>
       </c>
@@ -3554,16 +3653,18 @@
         <v>656.56</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N31" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>483</v>
+      </c>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="32" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>76667683</v>
       </c>
@@ -3616,7 +3717,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="33" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>76670603</v>
       </c>
@@ -3669,7 +3770,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>76671930</v>
       </c>
@@ -3722,7 +3823,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>76676857</v>
       </c>
@@ -3762,16 +3863,18 @@
         <v>755</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N35" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>484</v>
+      </c>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>76671905</v>
       </c>
@@ -3824,7 +3927,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>76669539</v>
       </c>
@@ -3877,12 +3980,12 @@
         <v>196</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>76667597</v>
+        <v>76666749</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>42</v>
@@ -3894,45 +3997,43 @@
         <v>17</v>
       </c>
       <c r="F38" s="3">
-        <v>20520598449</v>
+        <v>20206345536</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>72</v>
+        <v>478</v>
       </c>
       <c r="H38" s="3">
-        <v>20520598449</v>
+        <v>20206345536</v>
       </c>
       <c r="I38" s="4">
         <v>46037</v>
       </c>
       <c r="J38" s="7">
         <f t="shared" si="0"/>
-        <v>56.016949152542374</v>
+        <v>68.288135593220346</v>
       </c>
       <c r="K38" s="7">
         <f t="shared" si="1"/>
-        <v>10.083050847457628</v>
+        <v>12.291864406779663</v>
       </c>
       <c r="L38" s="8">
-        <v>66.099999999999994</v>
+        <v>80.58</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N38" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3" t="s">
-        <v>197</v>
-      </c>
+      <c r="P38" s="3"/>
       <c r="Q38" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>76666854</v>
+        <v>76667597</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>24</v>
@@ -3947,13 +4048,13 @@
         <v>17</v>
       </c>
       <c r="F39" s="3">
-        <v>20393018730</v>
+        <v>20520598449</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H39" s="3">
-        <v>20393018730</v>
+        <v>20520598449</v>
       </c>
       <c r="I39" s="4">
         <v>46037</v>
@@ -3972,20 +4073,20 @@
       <c r="M39" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N39" s="3">
-        <v>202510</v>
+      <c r="N39" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="O39" s="3"/>
       <c r="P39" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>76678981</v>
+        <v>76666854</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>24</v>
@@ -3994,105 +4095,107 @@
         <v>42</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F40" s="3">
-        <v>40433452</v>
+        <v>20393018730</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H40" s="3">
-        <v>10404334528</v>
+        <v>20393018730</v>
       </c>
       <c r="I40" s="4">
         <v>46037</v>
       </c>
       <c r="J40" s="7">
         <f t="shared" si="0"/>
-        <v>143.89830508474577</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K40" s="7">
         <f t="shared" si="1"/>
-        <v>25.90169491525424</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L40" s="8">
-        <v>169.8</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M40" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N40" s="3" t="s">
-        <v>201</v>
+      <c r="N40" s="3">
+        <v>202510</v>
       </c>
       <c r="O40" s="3"/>
       <c r="P40" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>76666773</v>
+        <v>76678981</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F41" s="3">
-        <v>20266779985</v>
+        <v>40433452</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H41" s="3">
-        <v>20266779985</v>
+        <v>10404334528</v>
       </c>
       <c r="I41" s="4">
         <v>46037</v>
       </c>
       <c r="J41" s="7">
         <f t="shared" si="0"/>
-        <v>85.449152542372886</v>
+        <v>143.89830508474577</v>
       </c>
       <c r="K41" s="7">
         <f t="shared" si="1"/>
-        <v>15.380847457627119</v>
+        <v>25.90169491525424</v>
       </c>
       <c r="L41" s="8">
-        <v>100.83</v>
+        <v>169.8</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N41" s="3">
-        <v>202511</v>
+      <c r="N41" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
+      <c r="P41" s="3" t="s">
+        <v>202</v>
+      </c>
       <c r="Q41" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>76670605</v>
+        <v>76666773</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>42</v>
@@ -4104,27 +4207,27 @@
         <v>17</v>
       </c>
       <c r="F42" s="3">
-        <v>20608246411</v>
+        <v>20266779985</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H42" s="3">
-        <v>20608246411</v>
+        <v>20266779985</v>
       </c>
       <c r="I42" s="4">
         <v>46037</v>
       </c>
       <c r="J42" s="7">
         <f t="shared" si="0"/>
-        <v>56.016949152542374</v>
+        <v>85.449152542372886</v>
       </c>
       <c r="K42" s="7">
         <f t="shared" si="1"/>
-        <v>10.083050847457628</v>
+        <v>15.380847457627119</v>
       </c>
       <c r="L42" s="8">
-        <v>66.099999999999994</v>
+        <v>100.83</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>19</v>
@@ -4133,40 +4236,38 @@
         <v>202511</v>
       </c>
       <c r="O42" s="3"/>
-      <c r="P42" s="3" t="s">
-        <v>205</v>
-      </c>
+      <c r="P42" s="3"/>
       <c r="Q42" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>76701653</v>
+        <v>76670605</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>258</v>
+        <v>24</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F43" s="3">
-        <v>20502182529</v>
+        <v>20608246411</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H43" s="3">
-        <v>20502182529</v>
+        <v>20608246411</v>
       </c>
       <c r="I43" s="4">
-        <v>46038</v>
+        <v>46037</v>
       </c>
       <c r="J43" s="7">
         <f t="shared" si="0"/>
@@ -4187,50 +4288,50 @@
       </c>
       <c r="O43" s="3"/>
       <c r="P43" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>76669865</v>
+        <v>76701653</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F44" s="3">
-        <v>20604939713</v>
+        <v>20502182529</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H44" s="3">
-        <v>20604939713</v>
+        <v>20502182529</v>
       </c>
       <c r="I44" s="4">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="J44" s="7">
         <f t="shared" si="0"/>
-        <v>85.449152542372886</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K44" s="7">
         <f t="shared" si="1"/>
-        <v>15.380847457627119</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L44" s="8">
-        <v>100.83</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>19</v>
@@ -4240,18 +4341,18 @@
       </c>
       <c r="O44" s="3"/>
       <c r="P44" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>76671295</v>
+        <v>76669865</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>42</v>
@@ -4263,48 +4364,48 @@
         <v>17</v>
       </c>
       <c r="F45" s="3">
-        <v>20610871951</v>
+        <v>20604939713</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H45" s="3">
-        <v>20610871951</v>
+        <v>20604939713</v>
       </c>
       <c r="I45" s="4">
         <v>46037</v>
       </c>
       <c r="J45" s="7">
         <f t="shared" si="0"/>
-        <v>56.016949152542374</v>
+        <v>85.449152542372886</v>
       </c>
       <c r="K45" s="7">
         <f t="shared" si="1"/>
-        <v>10.083050847457628</v>
+        <v>15.380847457627119</v>
       </c>
       <c r="L45" s="8">
-        <v>66.099999999999994</v>
+        <v>100.83</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>142</v>
+      <c r="N45" s="3">
+        <v>202511</v>
       </c>
       <c r="O45" s="3"/>
       <c r="P45" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Q45" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>76668146</v>
+        <v>76671295</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>42</v>
@@ -4316,13 +4417,13 @@
         <v>17</v>
       </c>
       <c r="F46" s="3">
-        <v>20550479363</v>
+        <v>20610871951</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H46" s="3">
-        <v>20550479363</v>
+        <v>20610871951</v>
       </c>
       <c r="I46" s="4">
         <v>46037</v>
@@ -4341,23 +4442,23 @@
       <c r="M46" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N46" s="3">
-        <v>202510</v>
+      <c r="N46" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="O46" s="3"/>
       <c r="P46" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>76666419</v>
+        <v>76668146</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>42</v>
@@ -4369,43 +4470,45 @@
         <v>17</v>
       </c>
       <c r="F47" s="3">
-        <v>29244743</v>
+        <v>20550479363</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" s="3">
-        <v>10292447430</v>
+        <v>20550479363</v>
       </c>
       <c r="I47" s="4">
         <v>46037</v>
       </c>
       <c r="J47" s="7">
         <f t="shared" si="0"/>
-        <v>42.372881355932208</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K47" s="7">
         <f t="shared" si="1"/>
-        <v>7.6271186440677967</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L47" s="8">
-        <v>50</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>19</v>
       </c>
       <c r="N47" s="3">
-        <v>202511</v>
+        <v>202510</v>
       </c>
       <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
+      <c r="P47" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="Q47" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>76666428</v>
+        <v>76666419</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>24</v>
@@ -4420,27 +4523,27 @@
         <v>17</v>
       </c>
       <c r="F48" s="3">
-        <v>29686180</v>
+        <v>29244743</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H48" s="3">
-        <v>10296861800</v>
+        <v>10292447430</v>
       </c>
       <c r="I48" s="4">
-        <v>46038</v>
+        <v>46037</v>
       </c>
       <c r="J48" s="7">
         <f t="shared" si="0"/>
-        <v>56.016949152542374</v>
+        <v>42.372881355932208</v>
       </c>
       <c r="K48" s="7">
         <f t="shared" si="1"/>
-        <v>10.083050847457628</v>
+        <v>7.6271186440677967</v>
       </c>
       <c r="L48" s="8">
-        <v>66.099999999999994</v>
+        <v>50</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>19</v>
@@ -4449,19 +4552,17 @@
         <v>202511</v>
       </c>
       <c r="O48" s="3"/>
-      <c r="P48" s="3" t="s">
-        <v>215</v>
-      </c>
+      <c r="P48" s="3"/>
       <c r="Q48" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>76668123</v>
+        <v>76666428</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>42</v>
@@ -4473,13 +4574,13 @@
         <v>17</v>
       </c>
       <c r="F49" s="3">
-        <v>20549404911</v>
+        <v>29686180</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H49" s="3">
-        <v>20549404911</v>
+        <v>10296861800</v>
       </c>
       <c r="I49" s="4">
         <v>46038</v>
@@ -4502,14 +4603,16 @@
         <v>202511</v>
       </c>
       <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
+      <c r="P49" s="3" t="s">
+        <v>215</v>
+      </c>
       <c r="Q49" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>76668507</v>
+        <v>76668123</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>15</v>
@@ -4524,16 +4627,16 @@
         <v>17</v>
       </c>
       <c r="F50" s="3">
-        <v>20569283753</v>
+        <v>20549404911</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H50" s="3">
-        <v>20569283753</v>
+        <v>20549404911</v>
       </c>
       <c r="I50" s="4">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="J50" s="7">
         <f t="shared" si="0"/>
@@ -4553,19 +4656,17 @@
         <v>202511</v>
       </c>
       <c r="O50" s="3"/>
-      <c r="P50" s="3" t="s">
-        <v>218</v>
-      </c>
+      <c r="P50" s="3"/>
       <c r="Q50" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>76668094</v>
+        <v>76668507</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>42</v>
@@ -4577,27 +4678,27 @@
         <v>17</v>
       </c>
       <c r="F51" s="3">
-        <v>20548290784</v>
+        <v>20569283753</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H51" s="3">
-        <v>20548290784</v>
+        <v>20569283753</v>
       </c>
       <c r="I51" s="4">
-        <v>46038</v>
+        <v>46037</v>
       </c>
       <c r="J51" s="7">
         <f t="shared" si="0"/>
-        <v>140.72033898305085</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K51" s="7">
         <f t="shared" si="1"/>
-        <v>25.329661016949153</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L51" s="8">
-        <v>166.05</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M51" s="3" t="s">
         <v>19</v>
@@ -4607,18 +4708,18 @@
       </c>
       <c r="O51" s="3"/>
       <c r="P51" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>76672071</v>
+        <v>76668094</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>42</v>
@@ -4630,27 +4731,27 @@
         <v>17</v>
       </c>
       <c r="F52" s="3">
-        <v>20614087448</v>
+        <v>20548290784</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H52" s="3">
-        <v>20614087448</v>
+        <v>20548290784</v>
       </c>
       <c r="I52" s="4">
         <v>46038</v>
       </c>
       <c r="J52" s="7">
         <f t="shared" si="0"/>
-        <v>56.016949152542374</v>
+        <v>140.72033898305085</v>
       </c>
       <c r="K52" s="7">
         <f t="shared" si="1"/>
-        <v>10.083050847457628</v>
+        <v>25.329661016949153</v>
       </c>
       <c r="L52" s="8">
-        <v>66.099999999999994</v>
+        <v>166.05</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>19</v>
@@ -4660,18 +4761,18 @@
       </c>
       <c r="O52" s="3"/>
       <c r="P52" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q52" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>76668410</v>
+        <v>76672071</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>42</v>
@@ -4683,13 +4784,13 @@
         <v>17</v>
       </c>
       <c r="F53" s="3">
-        <v>20563278511</v>
+        <v>20614087448</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H53" s="3">
-        <v>20563278511</v>
+        <v>20614087448</v>
       </c>
       <c r="I53" s="4">
         <v>46038</v>
@@ -4713,18 +4814,18 @@
       </c>
       <c r="O53" s="3"/>
       <c r="P53" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>76667641</v>
+        <v>76668410</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>42</v>
@@ -4736,16 +4837,16 @@
         <v>17</v>
       </c>
       <c r="F54" s="3">
-        <v>20522811131</v>
+        <v>20563278511</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H54" s="3">
-        <v>20522811131</v>
+        <v>20563278511</v>
       </c>
       <c r="I54" s="4">
-        <v>46039</v>
+        <v>46038</v>
       </c>
       <c r="J54" s="7">
         <f t="shared" si="0"/>
@@ -4766,18 +4867,18 @@
       </c>
       <c r="O54" s="3"/>
       <c r="P54" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>76667361</v>
+        <v>76667641</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>42</v>
@@ -4789,13 +4890,13 @@
         <v>17</v>
       </c>
       <c r="F55" s="3">
-        <v>20505562047</v>
+        <v>20522811131</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H55" s="3">
-        <v>20505562047</v>
+        <v>20522811131</v>
       </c>
       <c r="I55" s="4">
         <v>46039</v>
@@ -4815,22 +4916,22 @@
         <v>19</v>
       </c>
       <c r="N55" s="3">
-        <v>202510</v>
+        <v>202511</v>
       </c>
       <c r="O55" s="3"/>
       <c r="P55" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>76669549</v>
+        <v>76667361</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>42</v>
@@ -4842,13 +4943,13 @@
         <v>17</v>
       </c>
       <c r="F56" s="3">
-        <v>20603418892</v>
+        <v>20505562047</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H56" s="3">
-        <v>20603418892</v>
+        <v>20505562047</v>
       </c>
       <c r="I56" s="4">
         <v>46039</v>
@@ -4868,22 +4969,22 @@
         <v>19</v>
       </c>
       <c r="N56" s="3">
-        <v>202511</v>
+        <v>202510</v>
       </c>
       <c r="O56" s="3"/>
       <c r="P56" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>76669048</v>
+        <v>76669549</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>42</v>
@@ -4895,16 +4996,16 @@
         <v>17</v>
       </c>
       <c r="F57" s="3">
-        <v>20601700329</v>
+        <v>20603418892</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H57" s="3">
-        <v>20601700329</v>
+        <v>20603418892</v>
       </c>
       <c r="I57" s="4">
-        <v>46036</v>
+        <v>46039</v>
       </c>
       <c r="J57" s="7">
         <f t="shared" si="0"/>
@@ -4925,18 +5026,18 @@
       </c>
       <c r="O57" s="3"/>
       <c r="P57" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
-        <v>76667563</v>
+        <v>76669048</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>42</v>
@@ -4948,27 +5049,27 @@
         <v>17</v>
       </c>
       <c r="F58" s="3">
-        <v>20517740781</v>
+        <v>20601700329</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="3">
-        <v>20517740781</v>
+        <v>20601700329</v>
       </c>
       <c r="I58" s="4">
-        <v>46041</v>
+        <v>46036</v>
       </c>
       <c r="J58" s="7">
         <f t="shared" si="0"/>
-        <v>131.77966101694915</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K58" s="7">
         <f t="shared" si="1"/>
-        <v>23.720338983050844</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L58" s="8">
-        <v>155.5</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>19</v>
@@ -4978,15 +5079,15 @@
       </c>
       <c r="O58" s="3"/>
       <c r="P58" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q58" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>76671778</v>
+        <v>76667563</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>24</v>
@@ -5001,48 +5102,48 @@
         <v>17</v>
       </c>
       <c r="F59" s="3">
-        <v>20612796182</v>
+        <v>20517740781</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H59" s="3">
-        <v>20612796182</v>
+        <v>20517740781</v>
       </c>
       <c r="I59" s="4">
         <v>46041</v>
       </c>
       <c r="J59" s="7">
         <f t="shared" si="0"/>
-        <v>57.067796610169495</v>
+        <v>131.77966101694915</v>
       </c>
       <c r="K59" s="7">
         <f t="shared" si="1"/>
-        <v>10.272203389830509</v>
+        <v>23.720338983050844</v>
       </c>
       <c r="L59" s="8">
-        <v>67.34</v>
+        <v>155.5</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N59" s="3">
-        <v>202510</v>
-      </c>
-      <c r="O59" s="3">
         <v>202511</v>
       </c>
-      <c r="P59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3" t="s">
+        <v>232</v>
+      </c>
       <c r="Q59" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <v>76670893</v>
+        <v>76671778</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>42</v>
@@ -5054,45 +5155,45 @@
         <v>17</v>
       </c>
       <c r="F60" s="3">
-        <v>20609409453</v>
+        <v>20612796182</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H60" s="3">
-        <v>20609409453</v>
+        <v>20612796182</v>
       </c>
       <c r="I60" s="4">
         <v>46041</v>
       </c>
       <c r="J60" s="7">
         <f t="shared" si="0"/>
-        <v>46.610169491525426</v>
+        <v>57.067796610169495</v>
       </c>
       <c r="K60" s="7">
         <f t="shared" si="1"/>
-        <v>8.3898305084745761</v>
+        <v>10.272203389830509</v>
       </c>
       <c r="L60" s="8">
-        <v>55</v>
+        <v>67.34</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N60" s="3">
+        <v>202510</v>
+      </c>
+      <c r="O60" s="3">
         <v>202511</v>
       </c>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3" t="s">
-        <v>233</v>
-      </c>
+      <c r="P60" s="3"/>
       <c r="Q60" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>76670205</v>
+        <v>76670893</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>15</v>
@@ -5107,27 +5208,27 @@
         <v>17</v>
       </c>
       <c r="F61" s="3">
-        <v>20606257733</v>
+        <v>20609409453</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H61" s="3">
-        <v>20606257733</v>
+        <v>20609409453</v>
       </c>
       <c r="I61" s="4">
         <v>46041</v>
       </c>
       <c r="J61" s="7">
         <f t="shared" si="0"/>
-        <v>56.016949152542374</v>
+        <v>46.610169491525426</v>
       </c>
       <c r="K61" s="7">
         <f t="shared" si="1"/>
-        <v>10.083050847457628</v>
+        <v>8.3898305084745761</v>
       </c>
       <c r="L61" s="8">
-        <v>66.099999999999994</v>
+        <v>55</v>
       </c>
       <c r="M61" s="3" t="s">
         <v>19</v>
@@ -5137,18 +5238,18 @@
       </c>
       <c r="O61" s="3"/>
       <c r="P61" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
-        <v>76668864</v>
+        <v>76670205</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>42</v>
@@ -5160,13 +5261,13 @@
         <v>17</v>
       </c>
       <c r="F62" s="3">
-        <v>20601136067</v>
+        <v>20606257733</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H62" s="3">
-        <v>20601136067</v>
+        <v>20606257733</v>
       </c>
       <c r="I62" s="4">
         <v>46041</v>
@@ -5190,15 +5291,15 @@
       </c>
       <c r="O62" s="3"/>
       <c r="P62" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
-        <v>76670802</v>
+        <v>76668864</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>24</v>
@@ -5213,27 +5314,27 @@
         <v>17</v>
       </c>
       <c r="F63" s="3">
-        <v>20609031728</v>
+        <v>20601136067</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H63" s="3">
-        <v>20609031728</v>
+        <v>20601136067</v>
       </c>
       <c r="I63" s="4">
         <v>46041</v>
       </c>
       <c r="J63" s="7">
         <f t="shared" si="0"/>
-        <v>103.66101694915254</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K63" s="7">
         <f t="shared" si="1"/>
-        <v>18.658983050847457</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L63" s="8">
-        <v>122.32</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M63" s="3" t="s">
         <v>19</v>
@@ -5243,18 +5344,18 @@
       </c>
       <c r="O63" s="3"/>
       <c r="P63" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Q63" s="3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
-        <v>76671447</v>
+        <v>76670802</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>42</v>
@@ -5266,27 +5367,27 @@
         <v>17</v>
       </c>
       <c r="F64" s="3">
-        <v>20611480611</v>
+        <v>20609031728</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H64" s="3">
-        <v>20611480611</v>
+        <v>20609031728</v>
       </c>
       <c r="I64" s="4">
         <v>46041</v>
       </c>
       <c r="J64" s="7">
         <f t="shared" si="0"/>
-        <v>59.703389830508478</v>
+        <v>103.66101694915254</v>
       </c>
       <c r="K64" s="7">
         <f t="shared" si="1"/>
-        <v>10.746610169491525</v>
+        <v>18.658983050847457</v>
       </c>
       <c r="L64" s="8">
-        <v>70.45</v>
+        <v>122.32</v>
       </c>
       <c r="M64" s="3" t="s">
         <v>19</v>
@@ -5296,66 +5397,68 @@
       </c>
       <c r="O64" s="3"/>
       <c r="P64" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
-        <v>76702324</v>
+        <v>76671447</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F65" s="3">
-        <v>20512090878</v>
+        <v>20611480611</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H65" s="3">
-        <v>20512090878</v>
+        <v>20611480611</v>
       </c>
       <c r="I65" s="4">
         <v>46041</v>
       </c>
       <c r="J65" s="7">
         <f t="shared" si="0"/>
-        <v>58.627118644067806</v>
+        <v>59.703389830508478</v>
       </c>
       <c r="K65" s="7">
         <f t="shared" si="1"/>
-        <v>10.552881355932204</v>
+        <v>10.746610169491525</v>
       </c>
       <c r="L65" s="8">
-        <v>69.180000000000007</v>
+        <v>70.45</v>
       </c>
       <c r="M65" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N65" s="3" t="s">
-        <v>238</v>
+      <c r="N65" s="3">
+        <v>202511</v>
       </c>
       <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
+      <c r="P65" s="3" t="s">
+        <v>237</v>
+      </c>
       <c r="Q65" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
-        <v>76667847</v>
+        <v>76702324</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>259</v>
@@ -5364,49 +5467,49 @@
         <v>42</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F66" s="3">
-        <v>20536391861</v>
+        <v>20512090878</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H66" s="3">
-        <v>20536391861</v>
+        <v>20512090878</v>
       </c>
       <c r="I66" s="4">
-        <v>46042</v>
+        <v>46041</v>
       </c>
       <c r="J66" s="7">
         <f t="shared" ref="J66:J165" si="2">+L66/1.18</f>
-        <v>56.016949152542374</v>
+        <v>58.627118644067806</v>
       </c>
       <c r="K66" s="7">
         <f t="shared" ref="K66:K165" si="3">J66*0.18</f>
-        <v>10.083050847457628</v>
+        <v>10.552881355932204</v>
       </c>
       <c r="L66" s="8">
-        <v>66.099999999999994</v>
+        <v>69.180000000000007</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N66" s="3">
-        <v>202511</v>
+      <c r="N66" s="3" t="s">
+        <v>238</v>
       </c>
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
       <c r="Q66" s="3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>76667362</v>
+        <v>76667847</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>259</v>
@@ -5421,13 +5524,13 @@
         <v>17</v>
       </c>
       <c r="F67" s="3">
-        <v>20505605463</v>
+        <v>20536391861</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H67" s="3">
-        <v>20505605463</v>
+        <v>20536391861</v>
       </c>
       <c r="I67" s="4">
         <v>46042</v>
@@ -5452,15 +5555,15 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
-        <v>76670624</v>
+        <v>76667362</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>42</v>
@@ -5472,27 +5575,27 @@
         <v>17</v>
       </c>
       <c r="F68" s="3">
-        <v>20608311727</v>
+        <v>20505605463</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H68" s="3">
-        <v>20608311727</v>
+        <v>20505605463</v>
       </c>
       <c r="I68" s="4">
-        <v>46041</v>
+        <v>46042</v>
       </c>
       <c r="J68" s="7">
         <f t="shared" si="2"/>
-        <v>89.305084745762713</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K68" s="7">
         <f t="shared" si="3"/>
-        <v>16.074915254237286</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L68" s="8">
-        <v>105.38</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M68" s="3" t="s">
         <v>19</v>
@@ -5501,19 +5604,17 @@
         <v>202511</v>
       </c>
       <c r="O68" s="3"/>
-      <c r="P68" s="3" t="s">
-        <v>239</v>
-      </c>
+      <c r="P68" s="3"/>
       <c r="Q68" s="3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>76669801</v>
+        <v>76670624</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>42</v>
@@ -5525,48 +5626,48 @@
         <v>17</v>
       </c>
       <c r="F69" s="3">
-        <v>20604632090</v>
+        <v>20608311727</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H69" s="3">
-        <v>20604632090</v>
+        <v>20608311727</v>
       </c>
       <c r="I69" s="4">
-        <v>46042</v>
+        <v>46041</v>
       </c>
       <c r="J69" s="7">
         <f t="shared" si="2"/>
-        <v>91.525423728813564</v>
+        <v>89.305084745762713</v>
       </c>
       <c r="K69" s="7">
         <f t="shared" si="3"/>
-        <v>16.474576271186439</v>
+        <v>16.074915254237286</v>
       </c>
       <c r="L69" s="8">
-        <v>108</v>
+        <v>105.38</v>
       </c>
       <c r="M69" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N69" s="3" t="s">
-        <v>167</v>
+      <c r="N69" s="3">
+        <v>202511</v>
       </c>
       <c r="O69" s="3"/>
       <c r="P69" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q69" s="3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
-        <v>76671274</v>
+        <v>76669801</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>42</v>
@@ -5578,46 +5679,48 @@
         <v>17</v>
       </c>
       <c r="F70" s="3">
-        <v>20610782770</v>
+        <v>20604632090</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H70" s="3">
-        <v>20610782770</v>
+        <v>20604632090</v>
       </c>
       <c r="I70" s="4">
         <v>46042</v>
       </c>
       <c r="J70" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>91.525423728813564</v>
       </c>
       <c r="K70" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>16.474576271186439</v>
       </c>
       <c r="L70" s="8">
-        <v>66.099999999999994</v>
+        <v>108</v>
       </c>
       <c r="M70" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N70" s="3">
-        <v>202511</v>
+      <c r="N70" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="O70" s="3"/>
-      <c r="P70" s="3"/>
+      <c r="P70" s="3" t="s">
+        <v>240</v>
+      </c>
       <c r="Q70" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <v>76671385</v>
+        <v>76671274</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>15</v>
+        <v>259</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>42</v>
@@ -5629,13 +5732,13 @@
         <v>17</v>
       </c>
       <c r="F71" s="3">
-        <v>20611212721</v>
+        <v>20610782770</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H71" s="3">
-        <v>20611212721</v>
+        <v>20610782770</v>
       </c>
       <c r="I71" s="4">
         <v>46042</v>
@@ -5658,16 +5761,14 @@
         <v>202511</v>
       </c>
       <c r="O71" s="3"/>
-      <c r="P71" s="3" t="s">
-        <v>241</v>
-      </c>
+      <c r="P71" s="3"/>
       <c r="Q71" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <v>76666597</v>
+        <v>76671385</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>15</v>
@@ -5682,13 +5783,13 @@
         <v>17</v>
       </c>
       <c r="F72" s="3">
-        <v>46303014</v>
+        <v>20611212721</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H72" s="3">
-        <v>10463030141</v>
+        <v>20611212721</v>
       </c>
       <c r="I72" s="4">
         <v>46042</v>
@@ -5712,18 +5813,18 @@
       </c>
       <c r="O72" s="3"/>
       <c r="P72" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
-        <v>76670759</v>
+        <v>76666597</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>42</v>
@@ -5735,13 +5836,13 @@
         <v>17</v>
       </c>
       <c r="F73" s="3">
-        <v>20608882503</v>
+        <v>46303014</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H73" s="3">
-        <v>20608882503</v>
+        <v>10463030141</v>
       </c>
       <c r="I73" s="4">
         <v>46042</v>
@@ -5760,18 +5861,20 @@
       <c r="M73" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N73" s="3" t="s">
-        <v>142</v>
+      <c r="N73" s="3">
+        <v>202511</v>
       </c>
       <c r="O73" s="3"/>
-      <c r="P73" s="3"/>
+      <c r="P73" s="3" t="s">
+        <v>242</v>
+      </c>
       <c r="Q73" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
-        <v>76672196</v>
+        <v>76670759</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>259</v>
@@ -5786,13 +5889,13 @@
         <v>17</v>
       </c>
       <c r="F74" s="3">
-        <v>20614810000</v>
+        <v>20608882503</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H74" s="3">
-        <v>20614810000</v>
+        <v>20608882503</v>
       </c>
       <c r="I74" s="4">
         <v>46042</v>
@@ -5811,21 +5914,21 @@
       <c r="M74" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N74" s="3">
-        <v>202511</v>
+      <c r="N74" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
       <c r="Q74" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
-        <v>76670301</v>
+        <v>76672196</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>15</v>
+        <v>259</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>42</v>
@@ -5837,27 +5940,27 @@
         <v>17</v>
       </c>
       <c r="F75" s="3">
-        <v>20606657537</v>
+        <v>20614810000</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H75" s="3">
-        <v>20606657537</v>
+        <v>20614810000</v>
       </c>
       <c r="I75" s="4">
         <v>46042</v>
       </c>
       <c r="J75" s="7">
         <f t="shared" si="2"/>
-        <v>116.94915254237289</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K75" s="7">
         <f t="shared" si="3"/>
-        <v>21.050847457627118</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L75" s="8">
-        <v>138</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M75" s="3" t="s">
         <v>19</v>
@@ -5866,16 +5969,14 @@
         <v>202511</v>
       </c>
       <c r="O75" s="3"/>
-      <c r="P75" s="3" t="s">
-        <v>243</v>
-      </c>
+      <c r="P75" s="3"/>
       <c r="Q75" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
-        <v>76669487</v>
+        <v>76670301</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>15</v>
@@ -5890,27 +5991,27 @@
         <v>17</v>
       </c>
       <c r="F76" s="3">
-        <v>20603163622</v>
+        <v>20606657537</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H76" s="3">
-        <v>20603163622</v>
+        <v>20606657537</v>
       </c>
       <c r="I76" s="4">
         <v>46042</v>
       </c>
       <c r="J76" s="7">
         <f t="shared" si="2"/>
-        <v>65.855932203389827</v>
+        <v>116.94915254237289</v>
       </c>
       <c r="K76" s="7">
         <f t="shared" si="3"/>
-        <v>11.854067796610169</v>
+        <v>21.050847457627118</v>
       </c>
       <c r="L76" s="8">
-        <v>77.709999999999994</v>
+        <v>138</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>19</v>
@@ -5920,18 +6021,18 @@
       </c>
       <c r="O76" s="3"/>
       <c r="P76" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q76" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
-        <v>76669345</v>
+        <v>76669487</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>258</v>
+        <v>15</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>42</v>
@@ -5943,48 +6044,48 @@
         <v>17</v>
       </c>
       <c r="F77" s="3">
-        <v>20602620787</v>
+        <v>20603163622</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H77" s="3">
-        <v>20602620787</v>
+        <v>20603163622</v>
       </c>
       <c r="I77" s="4">
         <v>46042</v>
       </c>
       <c r="J77" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>65.855932203389827</v>
       </c>
       <c r="K77" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>11.854067796610169</v>
       </c>
       <c r="L77" s="8">
-        <v>66.099999999999994</v>
+        <v>77.709999999999994</v>
       </c>
       <c r="M77" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N77" s="3" t="s">
-        <v>142</v>
+      <c r="N77" s="3">
+        <v>202511</v>
       </c>
       <c r="O77" s="3"/>
       <c r="P77" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q77" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
-        <v>76670397</v>
+        <v>76669345</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>24</v>
+        <v>258</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>42</v>
@@ -5996,46 +6097,48 @@
         <v>17</v>
       </c>
       <c r="F78" s="3">
-        <v>20607244686</v>
+        <v>20602620787</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H78" s="3">
-        <v>20607244686</v>
+        <v>20602620787</v>
       </c>
       <c r="I78" s="4">
         <v>46042</v>
       </c>
       <c r="J78" s="7">
         <f t="shared" si="2"/>
-        <v>125.31355932203391</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K78" s="7">
         <f t="shared" si="3"/>
-        <v>22.556440677966101</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L78" s="8">
-        <v>147.87</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M78" s="3" t="s">
         <v>19</v>
       </c>
       <c r="N78" s="3" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="O78" s="3"/>
-      <c r="P78" s="3"/>
+      <c r="P78" s="3" t="s">
+        <v>245</v>
+      </c>
       <c r="Q78" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
-        <v>76671255</v>
+        <v>76670397</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>258</v>
+        <v>24</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>42</v>
@@ -6047,48 +6150,46 @@
         <v>17</v>
       </c>
       <c r="F79" s="3">
-        <v>20610702423</v>
+        <v>20607244686</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H79" s="3">
-        <v>20610702423</v>
+        <v>20607244686</v>
       </c>
       <c r="I79" s="4">
         <v>46042</v>
       </c>
       <c r="J79" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>125.31355932203391</v>
       </c>
       <c r="K79" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>22.556440677966101</v>
       </c>
       <c r="L79" s="8">
-        <v>66.099999999999994</v>
+        <v>147.87</v>
       </c>
       <c r="M79" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N79" s="3">
-        <v>202511</v>
+      <c r="N79" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="O79" s="3"/>
-      <c r="P79" s="3" t="s">
-        <v>246</v>
-      </c>
+      <c r="P79" s="3"/>
       <c r="Q79" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
-        <v>76670904</v>
+        <v>76671255</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>42</v>
@@ -6100,16 +6201,16 @@
         <v>17</v>
       </c>
       <c r="F80" s="3">
-        <v>20609447665</v>
+        <v>20610702423</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H80" s="3">
-        <v>20609447665</v>
+        <v>20610702423</v>
       </c>
       <c r="I80" s="4">
-        <v>46043</v>
+        <v>46042</v>
       </c>
       <c r="J80" s="7">
         <f t="shared" si="2"/>
@@ -6126,20 +6227,22 @@
         <v>19</v>
       </c>
       <c r="N80" s="3">
-        <v>202510</v>
+        <v>202511</v>
       </c>
       <c r="O80" s="3"/>
-      <c r="P80" s="3"/>
+      <c r="P80" s="3" t="s">
+        <v>246</v>
+      </c>
       <c r="Q80" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
-        <v>76669898</v>
+        <v>76670904</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>15</v>
+        <v>259</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>42</v>
@@ -6151,45 +6254,43 @@
         <v>17</v>
       </c>
       <c r="F81" s="3">
-        <v>20605108955</v>
+        <v>20609447665</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H81" s="3">
-        <v>20605108955</v>
+        <v>20609447665</v>
       </c>
       <c r="I81" s="4">
-        <v>46035</v>
+        <v>46043</v>
       </c>
       <c r="J81" s="7">
         <f t="shared" si="2"/>
-        <v>57.872881355932215</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K81" s="7">
         <f t="shared" si="3"/>
-        <v>10.417118644067799</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L81" s="8">
-        <v>68.290000000000006</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>167</v>
+      <c r="N81" s="3">
+        <v>202510</v>
       </c>
       <c r="O81" s="3"/>
-      <c r="P81" s="3" t="s">
-        <v>247</v>
-      </c>
+      <c r="P81" s="3"/>
       <c r="Q81" s="3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
-        <v>76669647</v>
+        <v>76669898</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>15</v>
@@ -6204,45 +6305,45 @@
         <v>17</v>
       </c>
       <c r="F82" s="3">
-        <v>20603847424</v>
+        <v>20605108955</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H82" s="3">
-        <v>20603847424</v>
+        <v>20605108955</v>
       </c>
       <c r="I82" s="4">
-        <v>46042</v>
+        <v>46035</v>
       </c>
       <c r="J82" s="7">
         <f t="shared" si="2"/>
-        <v>118.64406779661017</v>
+        <v>57.872881355932215</v>
       </c>
       <c r="K82" s="7">
         <f t="shared" si="3"/>
-        <v>21.35593220338983</v>
+        <v>10.417118644067799</v>
       </c>
       <c r="L82" s="8">
-        <v>140</v>
+        <v>68.290000000000006</v>
       </c>
       <c r="M82" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N82" s="3">
-        <v>202511</v>
+      <c r="N82" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="O82" s="3"/>
       <c r="P82" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q82" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
-        <v>76666783</v>
+        <v>76669647</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>15</v>
@@ -6257,27 +6358,27 @@
         <v>17</v>
       </c>
       <c r="F83" s="3">
-        <v>20294112805</v>
+        <v>20603847424</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H83" s="3">
-        <v>20294112805</v>
+        <v>20603847424</v>
       </c>
       <c r="I83" s="4">
-        <v>46043</v>
+        <v>46042</v>
       </c>
       <c r="J83" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>118.64406779661017</v>
       </c>
       <c r="K83" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>21.35593220338983</v>
       </c>
       <c r="L83" s="8">
-        <v>66.099999999999994</v>
+        <v>140</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>19</v>
@@ -6287,18 +6388,18 @@
       </c>
       <c r="O83" s="3"/>
       <c r="P83" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q83" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
-        <v>76669795</v>
+        <v>76666783</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>42</v>
@@ -6310,13 +6411,13 @@
         <v>17</v>
       </c>
       <c r="F84" s="3">
-        <v>20604582050</v>
+        <v>20294112805</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H84" s="3">
-        <v>20604582050</v>
+        <v>20294112805</v>
       </c>
       <c r="I84" s="4">
         <v>46043</v>
@@ -6335,23 +6436,23 @@
       <c r="M84" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N84" s="3" t="s">
-        <v>167</v>
+      <c r="N84" s="3">
+        <v>202511</v>
       </c>
       <c r="O84" s="3"/>
       <c r="P84" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q84" s="3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
-        <v>76672051</v>
+        <v>76669795</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>42</v>
@@ -6363,48 +6464,48 @@
         <v>17</v>
       </c>
       <c r="F85" s="3">
-        <v>20613984608</v>
+        <v>20604582050</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H85" s="3">
-        <v>20613984608</v>
+        <v>20604582050</v>
       </c>
       <c r="I85" s="4">
         <v>46043</v>
       </c>
       <c r="J85" s="7">
         <f t="shared" si="2"/>
-        <v>69.491525423728817</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K85" s="7">
         <f t="shared" si="3"/>
-        <v>12.508474576271187</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L85" s="8">
-        <v>82</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M85" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N85" s="3">
-        <v>202511</v>
+      <c r="N85" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="O85" s="3"/>
       <c r="P85" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q85" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
-        <v>76667292</v>
+        <v>76672051</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>42</v>
@@ -6416,27 +6517,27 @@
         <v>17</v>
       </c>
       <c r="F86" s="3">
-        <v>20495014551</v>
+        <v>20613984608</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H86" s="3">
-        <v>20495014551</v>
+        <v>20613984608</v>
       </c>
       <c r="I86" s="4">
         <v>46043</v>
       </c>
       <c r="J86" s="7">
         <f t="shared" si="2"/>
-        <v>153.76271186440678</v>
+        <v>69.491525423728817</v>
       </c>
       <c r="K86" s="7">
         <f t="shared" si="3"/>
-        <v>27.677288135593219</v>
+        <v>12.508474576271187</v>
       </c>
       <c r="L86" s="8">
-        <v>181.44</v>
+        <v>82</v>
       </c>
       <c r="M86" s="3" t="s">
         <v>19</v>
@@ -6445,17 +6546,19 @@
         <v>202511</v>
       </c>
       <c r="O86" s="3"/>
-      <c r="P86" s="3"/>
+      <c r="P86" s="3" t="s">
+        <v>251</v>
+      </c>
       <c r="Q86" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
-        <v>76671216</v>
+        <v>76667292</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>42</v>
@@ -6467,27 +6570,27 @@
         <v>17</v>
       </c>
       <c r="F87" s="3">
-        <v>20610550984</v>
+        <v>20495014551</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H87" s="3">
-        <v>20610550984</v>
+        <v>20495014551</v>
       </c>
       <c r="I87" s="4">
         <v>46043</v>
       </c>
       <c r="J87" s="7">
         <f t="shared" si="2"/>
-        <v>72.881355932203391</v>
+        <v>153.76271186440678</v>
       </c>
       <c r="K87" s="7">
         <f t="shared" si="3"/>
-        <v>13.118644067796611</v>
+        <v>27.677288135593219</v>
       </c>
       <c r="L87" s="8">
-        <v>86</v>
+        <v>181.44</v>
       </c>
       <c r="M87" s="3" t="s">
         <v>19</v>
@@ -6496,19 +6599,17 @@
         <v>202511</v>
       </c>
       <c r="O87" s="3"/>
-      <c r="P87" s="3" t="s">
-        <v>252</v>
-      </c>
+      <c r="P87" s="3"/>
       <c r="Q87" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
-        <v>76668295</v>
+        <v>76671216</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>258</v>
+        <v>15</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>42</v>
@@ -6520,50 +6621,48 @@
         <v>17</v>
       </c>
       <c r="F88" s="3">
-        <v>20555831294</v>
+        <v>20610550984</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H88" s="3">
-        <v>20555831294</v>
+        <v>20610550984</v>
       </c>
       <c r="I88" s="4">
         <v>46043</v>
       </c>
       <c r="J88" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>72.881355932203391</v>
       </c>
       <c r="K88" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>13.118644067796611</v>
       </c>
       <c r="L88" s="8">
-        <v>66.099999999999994</v>
+        <v>86</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N88" s="3">
-        <v>202510</v>
-      </c>
-      <c r="O88" s="3">
         <v>202511</v>
       </c>
+      <c r="O88" s="3"/>
       <c r="P88" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q88" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
-        <v>76670849</v>
+        <v>76668295</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>42</v>
@@ -6575,45 +6674,47 @@
         <v>17</v>
       </c>
       <c r="F89" s="3">
-        <v>20609234157</v>
+        <v>20555831294</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H89" s="3">
-        <v>20609234157</v>
+        <v>20555831294</v>
       </c>
       <c r="I89" s="4">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="J89" s="7">
         <f t="shared" si="2"/>
-        <v>98.305084745762713</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K89" s="7">
         <f t="shared" si="3"/>
-        <v>17.694915254237287</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L89" s="8">
-        <v>116</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="O89" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="N89" s="3">
+        <v>202510</v>
+      </c>
+      <c r="O89" s="3">
+        <v>202511</v>
+      </c>
       <c r="P89" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="Q89" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
-        <v>76671712</v>
+        <v>76670849</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>15</v>
@@ -6628,45 +6729,45 @@
         <v>17</v>
       </c>
       <c r="F90" s="3">
-        <v>20612494127</v>
+        <v>20609234157</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H90" s="3">
-        <v>20612494127</v>
+        <v>20609234157</v>
       </c>
       <c r="I90" s="4">
-        <v>46043</v>
+        <v>46042</v>
       </c>
       <c r="J90" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>98.305084745762713</v>
       </c>
       <c r="K90" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>17.694915254237287</v>
       </c>
       <c r="L90" s="8">
-        <v>66.099999999999994</v>
+        <v>116</v>
       </c>
       <c r="M90" s="3" t="s">
         <v>19</v>
       </c>
       <c r="N90" s="3" t="s">
-        <v>142</v>
+        <v>254</v>
       </c>
       <c r="O90" s="3"/>
       <c r="P90" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q90" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
-        <v>76667875</v>
+        <v>76671712</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>15</v>
@@ -6681,48 +6782,48 @@
         <v>17</v>
       </c>
       <c r="F91" s="3">
-        <v>20537572273</v>
+        <v>20612494127</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H91" s="3">
-        <v>20537572273</v>
+        <v>20612494127</v>
       </c>
       <c r="I91" s="4">
         <v>46043</v>
       </c>
       <c r="J91" s="7">
         <f t="shared" si="2"/>
-        <v>142.37288135593221</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K91" s="7">
         <f t="shared" si="3"/>
-        <v>25.627118644067796</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L91" s="8">
-        <v>168</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N91" s="3">
-        <v>202511</v>
+      <c r="N91" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="O91" s="3"/>
       <c r="P91" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q91" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
-        <v>76671214</v>
+        <v>76667875</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>258</v>
+        <v>15</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>42</v>
@@ -6734,27 +6835,27 @@
         <v>17</v>
       </c>
       <c r="F92" s="3">
-        <v>20610550429</v>
+        <v>20537572273</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>260</v>
+        <v>125</v>
       </c>
       <c r="H92" s="3">
-        <v>20610550429</v>
+        <v>20537572273</v>
       </c>
       <c r="I92" s="4">
-        <v>46044</v>
+        <v>46043</v>
       </c>
       <c r="J92" s="7">
         <f t="shared" si="2"/>
-        <v>56.779661016949156</v>
+        <v>142.37288135593221</v>
       </c>
       <c r="K92" s="7">
         <f t="shared" si="3"/>
-        <v>10.220338983050848</v>
+        <v>25.627118644067796</v>
       </c>
       <c r="L92" s="8">
-        <v>67</v>
+        <v>168</v>
       </c>
       <c r="M92" s="3" t="s">
         <v>19</v>
@@ -6764,15 +6865,15 @@
       </c>
       <c r="O92" s="3"/>
       <c r="P92" s="3" t="s">
-        <v>372</v>
+        <v>257</v>
       </c>
       <c r="Q92" s="3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
-        <v>76666654</v>
+        <v>76671214</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>258</v>
@@ -6787,46 +6888,48 @@
         <v>17</v>
       </c>
       <c r="F93" s="3">
-        <v>73421054</v>
+        <v>20610550429</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H93" s="3">
-        <v>10734210540</v>
+        <v>20610550429</v>
       </c>
       <c r="I93" s="4">
         <v>46044</v>
       </c>
       <c r="J93" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>56.779661016949156</v>
       </c>
       <c r="K93" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>10.220338983050848</v>
       </c>
       <c r="L93" s="8">
-        <v>66.099999999999994</v>
+        <v>67</v>
       </c>
       <c r="M93" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N93" s="3" t="s">
-        <v>142</v>
+      <c r="N93" s="3">
+        <v>202511</v>
       </c>
       <c r="O93" s="3"/>
-      <c r="P93" s="3"/>
+      <c r="P93" s="3" t="s">
+        <v>372</v>
+      </c>
       <c r="Q93" s="3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
-        <v>76669233</v>
+        <v>76666654</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>24</v>
+        <v>258</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>42</v>
@@ -6838,27 +6941,27 @@
         <v>17</v>
       </c>
       <c r="F94" s="3">
-        <v>20602296581</v>
+        <v>73421054</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H94" s="3">
-        <v>20602296581</v>
+        <v>10734210540</v>
       </c>
       <c r="I94" s="4">
         <v>46044</v>
       </c>
       <c r="J94" s="7">
         <f t="shared" si="2"/>
-        <v>105.29661016949153</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K94" s="7">
         <f t="shared" si="3"/>
-        <v>18.953389830508474</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L94" s="8">
-        <v>124.25</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>19</v>
@@ -6867,19 +6970,17 @@
         <v>142</v>
       </c>
       <c r="O94" s="3"/>
-      <c r="P94" s="3" t="s">
-        <v>375</v>
-      </c>
+      <c r="P94" s="3"/>
       <c r="Q94" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
-        <v>76669022</v>
+        <v>76669233</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>259</v>
+        <v>24</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>42</v>
@@ -6891,46 +6992,48 @@
         <v>17</v>
       </c>
       <c r="F95" s="3">
-        <v>20601592771</v>
+        <v>20602296581</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H95" s="3">
-        <v>20601592771</v>
+        <v>20602296581</v>
       </c>
       <c r="I95" s="4">
         <v>46044</v>
       </c>
       <c r="J95" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>105.29661016949153</v>
       </c>
       <c r="K95" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>18.953389830508474</v>
       </c>
       <c r="L95" s="8">
-        <v>66.099999999999994</v>
+        <v>124.25</v>
       </c>
       <c r="M95" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N95" s="3">
-        <v>202511</v>
+      <c r="N95" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="O95" s="3"/>
-      <c r="P95" s="3"/>
+      <c r="P95" s="3" t="s">
+        <v>375</v>
+      </c>
       <c r="Q95" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
-        <v>76667695</v>
+        <v>76669022</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>42</v>
@@ -6942,48 +7045,46 @@
         <v>17</v>
       </c>
       <c r="F96" s="3">
-        <v>20525845070</v>
+        <v>20601592771</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H96" s="3">
-        <v>20525845070</v>
+        <v>20601592771</v>
       </c>
       <c r="I96" s="4">
         <v>46044</v>
       </c>
       <c r="J96" s="7">
         <f t="shared" si="2"/>
-        <v>70.508474576271198</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K96" s="7">
         <f t="shared" si="3"/>
-        <v>12.691525423728814</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L96" s="8">
-        <v>83.2</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M96" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N96" s="3" t="s">
-        <v>142</v>
+      <c r="N96" s="3">
+        <v>202511</v>
       </c>
       <c r="O96" s="3"/>
-      <c r="P96" s="3" t="s">
-        <v>378</v>
-      </c>
+      <c r="P96" s="3"/>
       <c r="Q96" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
-        <v>76667501</v>
+        <v>76667695</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>42</v>
@@ -6995,45 +7096,45 @@
         <v>17</v>
       </c>
       <c r="F97" s="3">
-        <v>20514380270</v>
+        <v>20525845070</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H97" s="3">
-        <v>20514380270</v>
+        <v>20525845070</v>
       </c>
       <c r="I97" s="4">
         <v>46044</v>
       </c>
       <c r="J97" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>70.508474576271198</v>
       </c>
       <c r="K97" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>12.691525423728814</v>
       </c>
       <c r="L97" s="8">
-        <v>66.099999999999994</v>
+        <v>83.2</v>
       </c>
       <c r="M97" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N97" s="3">
-        <v>202511</v>
+      <c r="N97" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="O97" s="3"/>
       <c r="P97" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="Q97" s="3" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
-        <v>76667372</v>
+        <v>76667501</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>15</v>
@@ -7048,13 +7149,13 @@
         <v>17</v>
       </c>
       <c r="F98" s="3">
-        <v>20506613001</v>
+        <v>20514380270</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H98" s="3">
-        <v>20506613001</v>
+        <v>20514380270</v>
       </c>
       <c r="I98" s="4">
         <v>46044</v>
@@ -7078,15 +7179,15 @@
       </c>
       <c r="O98" s="3"/>
       <c r="P98" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="Q98" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
-        <v>76668481</v>
+        <v>76667372</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>15</v>
@@ -7101,48 +7202,48 @@
         <v>17</v>
       </c>
       <c r="F99" s="3">
-        <v>20567257178</v>
+        <v>20506613001</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H99" s="3">
-        <v>20567257178</v>
+        <v>20506613001</v>
       </c>
       <c r="I99" s="4">
         <v>46044</v>
       </c>
       <c r="J99" s="7">
         <f t="shared" si="2"/>
-        <v>72.033898305084747</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K99" s="7">
         <f t="shared" si="3"/>
-        <v>12.966101694915254</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L99" s="8">
-        <v>85</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M99" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N99" s="3" t="s">
-        <v>142</v>
+      <c r="N99" s="3">
+        <v>202511</v>
       </c>
       <c r="O99" s="3"/>
       <c r="P99" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="Q99" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
-        <v>76670868</v>
+        <v>76668481</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>42</v>
@@ -7154,48 +7255,48 @@
         <v>17</v>
       </c>
       <c r="F100" s="3">
-        <v>20609309823</v>
+        <v>20567257178</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H100" s="3">
-        <v>20609309823</v>
+        <v>20567257178</v>
       </c>
       <c r="I100" s="4">
         <v>46044</v>
       </c>
       <c r="J100" s="7">
         <f t="shared" si="2"/>
-        <v>63.788135593220339</v>
+        <v>72.033898305084747</v>
       </c>
       <c r="K100" s="7">
         <f t="shared" si="3"/>
-        <v>11.48186440677966</v>
+        <v>12.966101694915254</v>
       </c>
       <c r="L100" s="8">
-        <v>75.27</v>
+        <v>85</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>19</v>
       </c>
       <c r="N100" s="3" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="O100" s="3"/>
       <c r="P100" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="Q100" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
-        <v>76671534</v>
+        <v>76670868</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>259</v>
+        <v>24</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>42</v>
@@ -7207,43 +7308,45 @@
         <v>17</v>
       </c>
       <c r="F101" s="3">
-        <v>20611826509</v>
+        <v>20609309823</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H101" s="3">
-        <v>20611826509</v>
+        <v>20609309823</v>
       </c>
       <c r="I101" s="4">
         <v>46044</v>
       </c>
       <c r="J101" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>63.788135593220339</v>
       </c>
       <c r="K101" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>11.48186440677966</v>
       </c>
       <c r="L101" s="8">
-        <v>66.099999999999994</v>
+        <v>75.27</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N101" s="3">
-        <v>202511</v>
+      <c r="N101" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="O101" s="3"/>
-      <c r="P101" s="3"/>
+      <c r="P101" s="3" t="s">
+        <v>386</v>
+      </c>
       <c r="Q101" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
-        <v>76667806</v>
+        <v>76671534</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>259</v>
@@ -7258,13 +7361,13 @@
         <v>17</v>
       </c>
       <c r="F102" s="3">
-        <v>20534796855</v>
+        <v>20611826509</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H102" s="3">
-        <v>20534796855</v>
+        <v>20611826509</v>
       </c>
       <c r="I102" s="4">
         <v>46044</v>
@@ -7289,12 +7392,12 @@
       <c r="O102" s="3"/>
       <c r="P102" s="3"/>
       <c r="Q102" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
-        <v>76666856</v>
+        <v>76667806</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>259</v>
@@ -7309,16 +7412,16 @@
         <v>17</v>
       </c>
       <c r="F103" s="3">
-        <v>20393042100</v>
+        <v>20534796855</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H103" s="3">
-        <v>20393042100</v>
+        <v>20534796855</v>
       </c>
       <c r="I103" s="4">
-        <v>46045</v>
+        <v>46044</v>
       </c>
       <c r="J103" s="7">
         <f t="shared" si="2"/>
@@ -7340,12 +7443,12 @@
       <c r="O103" s="3"/>
       <c r="P103" s="3"/>
       <c r="Q103" s="3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
-        <v>76668286</v>
+        <v>76666856</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>259</v>
@@ -7360,13 +7463,13 @@
         <v>17</v>
       </c>
       <c r="F104" s="3">
-        <v>20555612142</v>
+        <v>20393042100</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H104" s="3">
-        <v>20555612142</v>
+        <v>20393042100</v>
       </c>
       <c r="I104" s="4">
         <v>46045</v>
@@ -7391,15 +7494,15 @@
       <c r="O104" s="3"/>
       <c r="P104" s="3"/>
       <c r="Q104" s="3" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
-        <v>76666407</v>
+        <v>76668286</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>15</v>
+        <v>259</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>42</v>
@@ -7411,13 +7514,13 @@
         <v>17</v>
       </c>
       <c r="F105" s="3">
-        <v>25753474</v>
+        <v>20555612142</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H105" s="3">
-        <v>10257534745</v>
+        <v>20555612142</v>
       </c>
       <c r="I105" s="4">
         <v>46045</v>
@@ -7436,44 +7539,42 @@
       <c r="M105" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N105" s="3" t="s">
-        <v>142</v>
+      <c r="N105" s="3">
+        <v>202511</v>
       </c>
       <c r="O105" s="3"/>
-      <c r="P105" s="3" t="s">
-        <v>392</v>
-      </c>
+      <c r="P105" s="3"/>
       <c r="Q105" s="3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
-        <v>76697684</v>
+        <v>76666407</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>258</v>
+        <v>15</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F106" s="3">
-        <v>20106873900</v>
+        <v>25753474</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H106" s="3">
-        <v>20106873900</v>
+        <v>10257534745</v>
       </c>
       <c r="I106" s="4">
-        <v>46041</v>
+        <v>46045</v>
       </c>
       <c r="J106" s="7">
         <f t="shared" si="2"/>
@@ -7489,44 +7590,44 @@
       <c r="M106" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N106" s="3">
-        <v>202511</v>
+      <c r="N106" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="O106" s="3"/>
       <c r="P106" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="Q106" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
-        <v>76669832</v>
+        <v>76697684</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F107" s="3">
-        <v>20604803625</v>
+        <v>20106873900</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H107" s="3">
-        <v>20604803625</v>
+        <v>20106873900</v>
       </c>
       <c r="I107" s="4">
-        <v>46045</v>
+        <v>46041</v>
       </c>
       <c r="J107" s="7">
         <f t="shared" si="2"/>
@@ -7547,36 +7648,36 @@
       </c>
       <c r="O107" s="3"/>
       <c r="P107" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="Q107" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
-        <v>76680507</v>
+        <v>76669832</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F108" s="3">
-        <v>20549168923</v>
+        <v>20604803625</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H108" s="3">
-        <v>20549168923</v>
+        <v>20604803625</v>
       </c>
       <c r="I108" s="4">
         <v>46045</v>
@@ -7596,43 +7697,43 @@
         <v>19</v>
       </c>
       <c r="N108" s="3">
-        <v>201705</v>
+        <v>202511</v>
       </c>
       <c r="O108" s="3"/>
       <c r="P108" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q108" s="3" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
-        <v>76668439</v>
+        <v>76680507</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F109" s="3">
-        <v>20564338215</v>
+        <v>20549168923</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H109" s="3">
-        <v>20564338215</v>
+        <v>20549168923</v>
       </c>
       <c r="I109" s="4">
-        <v>46041</v>
+        <v>46045</v>
       </c>
       <c r="J109" s="7">
         <f t="shared" si="2"/>
@@ -7648,20 +7749,20 @@
       <c r="M109" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N109" s="3" t="s">
-        <v>142</v>
+      <c r="N109" s="3">
+        <v>201705</v>
       </c>
       <c r="O109" s="3"/>
       <c r="P109" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="Q109" s="3" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
-        <v>76668272</v>
+        <v>76668439</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>15</v>
@@ -7676,48 +7777,48 @@
         <v>17</v>
       </c>
       <c r="F110" s="3">
-        <v>20555041722</v>
+        <v>20564338215</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H110" s="3">
-        <v>20555041722</v>
+        <v>20564338215</v>
       </c>
       <c r="I110" s="4">
-        <v>46045</v>
+        <v>46041</v>
       </c>
       <c r="J110" s="7">
         <f t="shared" si="2"/>
-        <v>254.23728813559325</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K110" s="7">
         <f t="shared" si="3"/>
-        <v>45.762711864406782</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L110" s="8">
-        <v>300</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M110" s="3" t="s">
         <v>19</v>
       </c>
       <c r="N110" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O110" s="3"/>
       <c r="P110" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Q110" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
-        <v>76669009</v>
+        <v>76668272</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>258</v>
+        <v>15</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>42</v>
@@ -7729,48 +7830,48 @@
         <v>17</v>
       </c>
       <c r="F111" s="3">
-        <v>20601550335</v>
+        <v>20555041722</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H111" s="3">
-        <v>20601550335</v>
+        <v>20555041722</v>
       </c>
       <c r="I111" s="4">
-        <v>46037</v>
+        <v>46045</v>
       </c>
       <c r="J111" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>254.23728813559325</v>
       </c>
       <c r="K111" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>45.762711864406782</v>
       </c>
       <c r="L111" s="8">
-        <v>66.099999999999994</v>
+        <v>300</v>
       </c>
       <c r="M111" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N111" s="3">
-        <v>202511</v>
+      <c r="N111" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="O111" s="3"/>
       <c r="P111" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q111" s="3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
-        <v>76671328</v>
+        <v>76669009</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>42</v>
@@ -7782,16 +7883,16 @@
         <v>17</v>
       </c>
       <c r="F112" s="3">
-        <v>20611010690</v>
+        <v>20601550335</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H112" s="3">
-        <v>20611010690</v>
+        <v>20601550335</v>
       </c>
       <c r="I112" s="4">
-        <v>46045</v>
+        <v>46037</v>
       </c>
       <c r="J112" s="7">
         <f t="shared" si="2"/>
@@ -7811,17 +7912,19 @@
         <v>202511</v>
       </c>
       <c r="O112" s="3"/>
-      <c r="P112" s="3"/>
+      <c r="P112" s="3" t="s">
+        <v>404</v>
+      </c>
       <c r="Q112" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
-        <v>76667358</v>
+        <v>76671328</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>42</v>
@@ -7833,27 +7936,27 @@
         <v>17</v>
       </c>
       <c r="F113" s="3">
-        <v>20505392702</v>
+        <v>20611010690</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H113" s="3">
-        <v>20505392702</v>
+        <v>20611010690</v>
       </c>
       <c r="I113" s="4">
         <v>46045</v>
       </c>
       <c r="J113" s="7">
         <f t="shared" si="2"/>
-        <v>67.79661016949153</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K113" s="7">
         <f t="shared" si="3"/>
-        <v>12.203389830508474</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L113" s="8">
-        <v>80</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M113" s="3" t="s">
         <v>19</v>
@@ -7862,19 +7965,17 @@
         <v>202511</v>
       </c>
       <c r="O113" s="3"/>
-      <c r="P113" s="3" t="s">
-        <v>407</v>
-      </c>
+      <c r="P113" s="3"/>
       <c r="Q113" s="3" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
-        <v>76667636</v>
+        <v>76667358</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>42</v>
@@ -7886,48 +7987,48 @@
         <v>17</v>
       </c>
       <c r="F114" s="3">
-        <v>20522359441</v>
+        <v>20505392702</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H114" s="3">
-        <v>20522359441</v>
+        <v>20505392702</v>
       </c>
       <c r="I114" s="4">
-        <v>46046</v>
+        <v>46045</v>
       </c>
       <c r="J114" s="7">
         <f t="shared" si="2"/>
-        <v>58.101694915254242</v>
+        <v>67.79661016949153</v>
       </c>
       <c r="K114" s="7">
         <f t="shared" si="3"/>
-        <v>10.458305084745763</v>
+        <v>12.203389830508474</v>
       </c>
       <c r="L114" s="8">
-        <v>68.56</v>
+        <v>80</v>
       </c>
       <c r="M114" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N114" s="3" t="s">
-        <v>167</v>
+      <c r="N114" s="3">
+        <v>202511</v>
       </c>
       <c r="O114" s="3"/>
       <c r="P114" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="Q114" s="3" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
-        <v>76671715</v>
+        <v>76667636</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>42</v>
@@ -7939,46 +8040,48 @@
         <v>17</v>
       </c>
       <c r="F115" s="3">
-        <v>20612506087</v>
+        <v>20522359441</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H115" s="3">
-        <v>20612506087</v>
+        <v>20522359441</v>
       </c>
       <c r="I115" s="4">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="J115" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>58.101694915254242</v>
       </c>
       <c r="K115" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>10.458305084745763</v>
       </c>
       <c r="L115" s="8">
-        <v>66.099999999999994</v>
+        <v>68.56</v>
       </c>
       <c r="M115" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N115" s="3">
-        <v>202511</v>
+      <c r="N115" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="O115" s="3"/>
-      <c r="P115" s="3"/>
+      <c r="P115" s="3" t="s">
+        <v>409</v>
+      </c>
       <c r="Q115" s="3" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
-        <v>76670210</v>
+        <v>76671715</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>15</v>
+        <v>259</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>42</v>
@@ -7990,27 +8093,27 @@
         <v>17</v>
       </c>
       <c r="F116" s="3">
-        <v>20606261471</v>
+        <v>20612506087</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H116" s="3">
-        <v>20606261471</v>
+        <v>20612506087</v>
       </c>
       <c r="I116" s="4">
-        <v>46048</v>
+        <v>46045</v>
       </c>
       <c r="J116" s="7">
         <f t="shared" si="2"/>
-        <v>63.559322033898312</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K116" s="7">
         <f t="shared" si="3"/>
-        <v>11.440677966101696</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L116" s="8">
-        <v>75</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M116" s="3" t="s">
         <v>19</v>
@@ -8019,19 +8122,17 @@
         <v>202511</v>
       </c>
       <c r="O116" s="3"/>
-      <c r="P116" s="3" t="s">
-        <v>412</v>
-      </c>
+      <c r="P116" s="3"/>
       <c r="Q116" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
-        <v>76666707</v>
+        <v>76670210</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>42</v>
@@ -8043,27 +8144,27 @@
         <v>17</v>
       </c>
       <c r="F117" s="3">
-        <v>20107086995</v>
+        <v>20606261471</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H117" s="3">
-        <v>20107086995</v>
+        <v>20606261471</v>
       </c>
       <c r="I117" s="4">
         <v>46048</v>
       </c>
       <c r="J117" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>63.559322033898312</v>
       </c>
       <c r="K117" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>11.440677966101696</v>
       </c>
       <c r="L117" s="8">
-        <v>66.099999999999994</v>
+        <v>75</v>
       </c>
       <c r="M117" s="3" t="s">
         <v>19</v>
@@ -8072,14 +8173,16 @@
         <v>202511</v>
       </c>
       <c r="O117" s="3"/>
-      <c r="P117" s="3"/>
+      <c r="P117" s="3" t="s">
+        <v>412</v>
+      </c>
       <c r="Q117" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
-        <v>76666245</v>
+        <v>76666707</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>259</v>
@@ -8094,16 +8197,16 @@
         <v>17</v>
       </c>
       <c r="F118" s="3">
-        <v>4822038</v>
+        <v>20107086995</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H118" s="3">
-        <v>10048220385</v>
+        <v>20107086995</v>
       </c>
       <c r="I118" s="4">
-        <v>46044</v>
+        <v>46048</v>
       </c>
       <c r="J118" s="7">
         <f t="shared" si="2"/>
@@ -8125,15 +8228,15 @@
       <c r="O118" s="3"/>
       <c r="P118" s="3"/>
       <c r="Q118" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
-        <v>76671029</v>
+        <v>76666245</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>15</v>
+        <v>259</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>42</v>
@@ -8145,27 +8248,27 @@
         <v>17</v>
       </c>
       <c r="F119" s="3">
-        <v>20609870151</v>
+        <v>4822038</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H119" s="3">
-        <v>20609870151</v>
+        <v>10048220385</v>
       </c>
       <c r="I119" s="4">
-        <v>46048</v>
+        <v>46044</v>
       </c>
       <c r="J119" s="7">
         <f t="shared" si="2"/>
-        <v>79.66101694915254</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K119" s="7">
         <f t="shared" si="3"/>
-        <v>14.338983050847457</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L119" s="8">
-        <v>94</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M119" s="3" t="s">
         <v>19</v>
@@ -8174,16 +8277,14 @@
         <v>202511</v>
       </c>
       <c r="O119" s="3"/>
-      <c r="P119" s="3" t="s">
-        <v>416</v>
-      </c>
+      <c r="P119" s="3"/>
       <c r="Q119" s="3" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
-        <v>76667757</v>
+        <v>76671029</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>15</v>
@@ -8198,48 +8299,48 @@
         <v>17</v>
       </c>
       <c r="F120" s="3">
-        <v>20529997583</v>
+        <v>20609870151</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H120" s="3">
-        <v>20529997583</v>
+        <v>20609870151</v>
       </c>
       <c r="I120" s="4">
         <v>46048</v>
       </c>
       <c r="J120" s="7">
         <f t="shared" si="2"/>
-        <v>78.813559322033896</v>
+        <v>79.66101694915254</v>
       </c>
       <c r="K120" s="7">
         <f t="shared" si="3"/>
-        <v>14.1864406779661</v>
+        <v>14.338983050847457</v>
       </c>
       <c r="L120" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M120" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N120" s="3" t="s">
-        <v>142</v>
+      <c r="N120" s="3">
+        <v>202511</v>
       </c>
       <c r="O120" s="3"/>
       <c r="P120" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="Q120" s="3" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
-        <v>76671859</v>
+        <v>76667757</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>258</v>
+        <v>15</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>42</v>
@@ -8251,98 +8352,98 @@
         <v>17</v>
       </c>
       <c r="F121" s="3">
-        <v>20613065912</v>
+        <v>20529997583</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H121" s="3">
-        <v>20613065912</v>
+        <v>20529997583</v>
       </c>
       <c r="I121" s="4">
         <v>46048</v>
       </c>
       <c r="J121" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>78.813559322033896</v>
       </c>
       <c r="K121" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>14.1864406779661</v>
       </c>
       <c r="L121" s="8">
-        <v>66.099999999999994</v>
+        <v>93</v>
       </c>
       <c r="M121" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N121" s="3">
-        <v>202511</v>
+      <c r="N121" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="O121" s="3"/>
       <c r="P121" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="Q121" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
-        <v>76680532</v>
+        <v>76671859</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F122" s="3">
-        <v>20568004681</v>
+        <v>20613065912</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H122" s="3">
-        <v>20568004681</v>
+        <v>20613065912</v>
       </c>
       <c r="I122" s="4">
         <v>46048</v>
       </c>
       <c r="J122" s="7">
         <f t="shared" si="2"/>
-        <v>338.98305084745766</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K122" s="7">
         <f t="shared" si="3"/>
-        <v>61.016949152542374</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L122" s="8">
-        <v>400</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M122" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N122" s="3" t="s">
-        <v>422</v>
+      <c r="N122" s="3">
+        <v>202511</v>
       </c>
       <c r="O122" s="3"/>
       <c r="P122" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="Q122" s="3" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="123" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
-        <v>76671483</v>
+        <v>76680532</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>15</v>
@@ -8351,54 +8452,54 @@
         <v>42</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F123" s="3">
-        <v>20611630850</v>
+        <v>20568004681</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H123" s="3">
-        <v>20611630850</v>
+        <v>20568004681</v>
       </c>
       <c r="I123" s="4">
         <v>46048</v>
       </c>
       <c r="J123" s="7">
         <f t="shared" si="2"/>
-        <v>56.779661016949156</v>
+        <v>338.98305084745766</v>
       </c>
       <c r="K123" s="7">
         <f t="shared" si="3"/>
-        <v>10.220338983050848</v>
+        <v>61.016949152542374</v>
       </c>
       <c r="L123" s="8">
-        <v>67</v>
+        <v>400</v>
       </c>
       <c r="M123" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N123" s="3">
-        <v>202510</v>
+      <c r="N123" s="3" t="s">
+        <v>422</v>
       </c>
       <c r="O123" s="3"/>
       <c r="P123" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="Q123" s="3" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="124" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
-        <v>76667083</v>
+        <v>76671483</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>42</v>
@@ -8410,45 +8511,45 @@
         <v>17</v>
       </c>
       <c r="F124" s="3">
-        <v>20477592342</v>
+        <v>20611630850</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H124" s="3">
-        <v>20477592342</v>
+        <v>20611630850</v>
       </c>
       <c r="I124" s="4">
         <v>46048</v>
       </c>
       <c r="J124" s="7">
         <f t="shared" si="2"/>
-        <v>80.694915254237287</v>
+        <v>56.779661016949156</v>
       </c>
       <c r="K124" s="7">
         <f t="shared" si="3"/>
-        <v>14.525084745762712</v>
+        <v>10.220338983050848</v>
       </c>
       <c r="L124" s="8">
-        <v>95.22</v>
+        <v>67</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N124" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="O124" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="P124" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="N124" s="3">
+        <v>202510</v>
+      </c>
+      <c r="O124" s="3"/>
+      <c r="P124" s="3" t="s">
+        <v>425</v>
+      </c>
       <c r="Q124" s="3" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="125" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
-        <v>76667022</v>
+        <v>76667083</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>259</v>
@@ -8463,43 +8564,45 @@
         <v>17</v>
       </c>
       <c r="F125" s="3">
-        <v>20454837038</v>
+        <v>20477592342</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H125" s="3">
-        <v>20454837038</v>
+        <v>20477592342</v>
       </c>
       <c r="I125" s="4">
-        <v>46049</v>
+        <v>46048</v>
       </c>
       <c r="J125" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>80.694915254237287</v>
       </c>
       <c r="K125" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>14.525084745762712</v>
       </c>
       <c r="L125" s="8">
-        <v>66.099999999999994</v>
+        <v>95.22</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N125" s="3">
-        <v>202511</v>
-      </c>
-      <c r="O125" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="N125" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="O125" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="P125" s="3"/>
       <c r="Q125" s="3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="126" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
-        <v>76671315</v>
+        <v>76667022</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>259</v>
@@ -8514,13 +8617,13 @@
         <v>17</v>
       </c>
       <c r="F126" s="3">
-        <v>20610959106</v>
+        <v>20454837038</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H126" s="3">
-        <v>20610959106</v>
+        <v>20454837038</v>
       </c>
       <c r="I126" s="4">
         <v>46049</v>
@@ -8543,16 +8646,14 @@
         <v>202511</v>
       </c>
       <c r="O126" s="3"/>
-      <c r="P126" s="3" t="s">
-        <v>429</v>
-      </c>
+      <c r="P126" s="3"/>
       <c r="Q126" s="3" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
-        <v>76668701</v>
+        <v>76671315</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>259</v>
@@ -8567,27 +8668,27 @@
         <v>17</v>
       </c>
       <c r="F127" s="3">
-        <v>20600530136</v>
+        <v>20610959106</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H127" s="3">
-        <v>20600530136</v>
+        <v>20610959106</v>
       </c>
       <c r="I127" s="4">
         <v>46049</v>
       </c>
       <c r="J127" s="7">
         <f t="shared" si="2"/>
-        <v>112.61864406779661</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K127" s="7">
         <f t="shared" si="3"/>
-        <v>20.271355932203388</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L127" s="8">
-        <v>132.88999999999999</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M127" s="3" t="s">
         <v>19</v>
@@ -8596,17 +8697,19 @@
         <v>202511</v>
       </c>
       <c r="O127" s="3"/>
-      <c r="P127" s="3"/>
+      <c r="P127" s="3" t="s">
+        <v>429</v>
+      </c>
       <c r="Q127" s="3" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="128" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
-        <v>76671246</v>
+        <v>76668701</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>15</v>
+        <v>259</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>42</v>
@@ -8618,27 +8721,27 @@
         <v>17</v>
       </c>
       <c r="F128" s="3">
-        <v>20610663100</v>
+        <v>20600530136</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H128" s="3">
-        <v>20610663100</v>
+        <v>20600530136</v>
       </c>
       <c r="I128" s="4">
         <v>46049</v>
       </c>
       <c r="J128" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>112.61864406779661</v>
       </c>
       <c r="K128" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>20.271355932203388</v>
       </c>
       <c r="L128" s="8">
-        <v>66.099999999999994</v>
+        <v>132.88999999999999</v>
       </c>
       <c r="M128" s="3" t="s">
         <v>19</v>
@@ -8647,16 +8750,14 @@
         <v>202511</v>
       </c>
       <c r="O128" s="3"/>
-      <c r="P128" s="3" t="s">
-        <v>432</v>
-      </c>
+      <c r="P128" s="3"/>
       <c r="Q128" s="3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="129" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
-        <v>76669045</v>
+        <v>76671246</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>15</v>
@@ -8671,13 +8772,13 @@
         <v>17</v>
       </c>
       <c r="F129" s="3">
-        <v>20601686822</v>
+        <v>20610663100</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H129" s="3">
-        <v>20601686822</v>
+        <v>20610663100</v>
       </c>
       <c r="I129" s="4">
         <v>46049</v>
@@ -8696,20 +8797,20 @@
       <c r="M129" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N129" s="3" t="s">
-        <v>142</v>
+      <c r="N129" s="3">
+        <v>202511</v>
       </c>
       <c r="O129" s="3"/>
       <c r="P129" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Q129" s="3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="130" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
-        <v>76667919</v>
+        <v>76669045</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>15</v>
@@ -8724,13 +8825,13 @@
         <v>17</v>
       </c>
       <c r="F130" s="3">
-        <v>20539801636</v>
+        <v>20601686822</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H130" s="3">
-        <v>20539801636</v>
+        <v>20601686822</v>
       </c>
       <c r="I130" s="4">
         <v>46049</v>
@@ -8749,23 +8850,23 @@
       <c r="M130" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N130" s="3">
-        <v>202511</v>
+      <c r="N130" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="O130" s="3"/>
       <c r="P130" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="Q130" s="3" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="131" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
-        <v>76671912</v>
+        <v>76667919</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>42</v>
@@ -8777,13 +8878,13 @@
         <v>17</v>
       </c>
       <c r="F131" s="3">
-        <v>20613265172</v>
+        <v>20539801636</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H131" s="3">
-        <v>20613265172</v>
+        <v>20539801636</v>
       </c>
       <c r="I131" s="4">
         <v>46049</v>
@@ -8802,71 +8903,73 @@
       <c r="M131" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N131" s="3" t="s">
-        <v>142</v>
+      <c r="N131" s="3">
+        <v>202511</v>
       </c>
       <c r="O131" s="3"/>
       <c r="P131" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="Q131" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="132" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
-        <v>76677161</v>
+        <v>76671912</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F132" s="3">
-        <v>20514258474</v>
+        <v>20613265172</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H132" s="3">
-        <v>20514258474</v>
+        <v>20613265172</v>
       </c>
       <c r="I132" s="4">
         <v>46049</v>
       </c>
       <c r="J132" s="7">
         <f t="shared" si="2"/>
-        <v>1822.0338983050849</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K132" s="7">
         <f t="shared" si="3"/>
-        <v>327.96610169491527</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L132" s="8">
-        <v>2150</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M132" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N132" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="N132" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="O132" s="3"/>
       <c r="P132" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="Q132" s="3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="133" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
-        <v>76669223</v>
+        <v>76677161</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>258</v>
@@ -8875,54 +8978,50 @@
         <v>42</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F133" s="3">
-        <v>20602248331</v>
+        <v>20514258474</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H133" s="3">
-        <v>20602248331</v>
+        <v>20514258474</v>
       </c>
       <c r="I133" s="4">
         <v>46049</v>
       </c>
       <c r="J133" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>1822.0338983050849</v>
       </c>
       <c r="K133" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>327.96610169491527</v>
       </c>
       <c r="L133" s="8">
-        <v>66.099999999999994</v>
+        <v>2150</v>
       </c>
       <c r="M133" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N133" s="3">
-        <v>202511</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="N133" s="3"/>
       <c r="O133" s="3"/>
-      <c r="P133" s="3" t="s">
-        <v>442</v>
-      </c>
+      <c r="P133" s="3"/>
       <c r="Q133" s="3" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="134" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
-        <v>76672106</v>
+        <v>76669223</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>42</v>
@@ -8934,46 +9033,48 @@
         <v>17</v>
       </c>
       <c r="F134" s="3">
-        <v>20614226944</v>
+        <v>20602248331</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H134" s="3">
-        <v>20614226944</v>
+        <v>20602248331</v>
       </c>
       <c r="I134" s="4">
         <v>46049</v>
       </c>
       <c r="J134" s="7">
         <f t="shared" si="2"/>
-        <v>144.06779661016949</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K134" s="7">
         <f t="shared" si="3"/>
-        <v>25.932203389830509</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L134" s="8">
-        <v>170</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M134" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N134" s="3" t="s">
-        <v>167</v>
+      <c r="N134" s="3">
+        <v>202511</v>
       </c>
       <c r="O134" s="3"/>
       <c r="P134" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="Q134" s="3"/>
-    </row>
-    <row r="135" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>441</v>
+      </c>
+      <c r="Q134" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
-        <v>76669599</v>
+        <v>76672106</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>258</v>
+        <v>15</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>42</v>
@@ -8985,46 +9086,48 @@
         <v>17</v>
       </c>
       <c r="F135" s="3">
-        <v>20603628617</v>
+        <v>20614226944</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H135" s="3">
-        <v>20603628617</v>
+        <v>20614226944</v>
       </c>
       <c r="I135" s="4">
-        <v>46050</v>
+        <v>46049</v>
       </c>
       <c r="J135" s="7">
         <f t="shared" si="2"/>
-        <v>65.983050847457633</v>
+        <v>144.06779661016949</v>
       </c>
       <c r="K135" s="7">
         <f t="shared" si="3"/>
-        <v>11.876949152542373</v>
+        <v>25.932203389830509</v>
       </c>
       <c r="L135" s="8">
-        <v>77.86</v>
+        <v>170</v>
       </c>
       <c r="M135" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N135" s="3">
-        <v>202511</v>
-      </c>
-      <c r="O135" s="3">
-        <v>202511</v>
-      </c>
-      <c r="P135" s="3"/>
-      <c r="Q135" s="3"/>
-    </row>
-    <row r="136" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="N135" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="O135" s="3"/>
+      <c r="P135" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q135" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
-        <v>76667060</v>
+        <v>76669599</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>42</v>
@@ -9036,48 +9139,48 @@
         <v>17</v>
       </c>
       <c r="F136" s="3">
-        <v>20467222130</v>
+        <v>20603628617</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H136" s="3">
-        <v>20467222130</v>
+        <v>20603628617</v>
       </c>
       <c r="I136" s="4">
         <v>46050</v>
       </c>
       <c r="J136" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>65.983050847457633</v>
       </c>
       <c r="K136" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>11.876949152542373</v>
       </c>
       <c r="L136" s="8">
-        <v>66.099999999999994</v>
+        <v>77.86</v>
       </c>
       <c r="M136" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N136" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="O136" s="3"/>
-      <c r="P136" s="3" t="s">
-        <v>445</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="N136" s="3">
+        <v>202511</v>
+      </c>
+      <c r="O136" s="3">
+        <v>202511</v>
+      </c>
+      <c r="P136" s="3"/>
       <c r="Q136" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="137" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
-        <v>76671573</v>
+        <v>76667060</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>42</v>
@@ -9089,45 +9192,45 @@
         <v>17</v>
       </c>
       <c r="F137" s="3">
-        <v>20611963999</v>
+        <v>20467222130</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H137" s="3">
-        <v>20611963999</v>
+        <v>20467222130</v>
       </c>
       <c r="I137" s="4">
         <v>46050</v>
       </c>
       <c r="J137" s="7">
         <f t="shared" si="2"/>
-        <v>96.110169491525426</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K137" s="7">
         <f t="shared" si="3"/>
-        <v>17.299830508474574</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L137" s="8">
-        <v>113.41</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M137" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N137" s="3">
-        <v>202511</v>
+      <c r="N137" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="O137" s="3"/>
       <c r="P137" s="3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="Q137" s="3" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="138" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
-        <v>76667481</v>
+        <v>76671573</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>24</v>
@@ -9142,27 +9245,27 @@
         <v>17</v>
       </c>
       <c r="F138" s="3">
-        <v>20513203871</v>
+        <v>20611963999</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H138" s="3">
-        <v>20513203871</v>
+        <v>20611963999</v>
       </c>
       <c r="I138" s="4">
         <v>46050</v>
       </c>
       <c r="J138" s="7">
         <f t="shared" si="2"/>
-        <v>65.254237288135599</v>
+        <v>96.110169491525426</v>
       </c>
       <c r="K138" s="7">
         <f t="shared" si="3"/>
-        <v>11.745762711864407</v>
+        <v>17.299830508474574</v>
       </c>
       <c r="L138" s="8">
-        <v>77</v>
+        <v>113.41</v>
       </c>
       <c r="M138" s="3" t="s">
         <v>19</v>
@@ -9172,15 +9275,15 @@
       </c>
       <c r="O138" s="3"/>
       <c r="P138" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="Q138" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="139" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
-        <v>76670299</v>
+        <v>76667481</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>24</v>
@@ -9195,27 +9298,27 @@
         <v>17</v>
       </c>
       <c r="F139" s="3">
-        <v>20606648341</v>
+        <v>20513203871</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H139" s="3">
-        <v>20606648341</v>
+        <v>20513203871</v>
       </c>
       <c r="I139" s="4">
         <v>46050</v>
       </c>
       <c r="J139" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>65.254237288135599</v>
       </c>
       <c r="K139" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>11.745762711864407</v>
       </c>
       <c r="L139" s="8">
-        <v>66.099999999999994</v>
+        <v>77</v>
       </c>
       <c r="M139" s="3" t="s">
         <v>19</v>
@@ -9225,18 +9328,18 @@
       </c>
       <c r="O139" s="3"/>
       <c r="P139" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="Q139" s="3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="140" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
-        <v>76666790</v>
+        <v>76670299</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>259</v>
+        <v>24</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>42</v>
@@ -9248,13 +9351,13 @@
         <v>17</v>
       </c>
       <c r="F140" s="3">
-        <v>20301356952</v>
+        <v>20606648341</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H140" s="3">
-        <v>20301356952</v>
+        <v>20606648341</v>
       </c>
       <c r="I140" s="4">
         <v>46050</v>
@@ -9277,14 +9380,16 @@
         <v>202511</v>
       </c>
       <c r="O140" s="3"/>
-      <c r="P140" s="3"/>
+      <c r="P140" s="3" t="s">
+        <v>450</v>
+      </c>
       <c r="Q140" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="141" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
-        <v>76666521</v>
+        <v>76666790</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>259</v>
@@ -9299,13 +9404,13 @@
         <v>17</v>
       </c>
       <c r="F141" s="3">
-        <v>43302890</v>
+        <v>20301356952</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H141" s="3">
-        <v>10433028908</v>
+        <v>20301356952</v>
       </c>
       <c r="I141" s="4">
         <v>46050</v>
@@ -9330,12 +9435,12 @@
       <c r="O141" s="3"/>
       <c r="P141" s="3"/>
       <c r="Q141" s="3" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="142" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
-        <v>76670454</v>
+        <v>76666521</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>259</v>
@@ -9350,13 +9455,13 @@
         <v>17</v>
       </c>
       <c r="F142" s="3">
-        <v>20607583600</v>
+        <v>43302890</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H142" s="3">
-        <v>20607583600</v>
+        <v>10433028908</v>
       </c>
       <c r="I142" s="4">
         <v>46050</v>
@@ -9379,19 +9484,17 @@
         <v>202511</v>
       </c>
       <c r="O142" s="3"/>
-      <c r="P142" s="3" t="s">
-        <v>455</v>
-      </c>
+      <c r="P142" s="3"/>
       <c r="Q142" s="3" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="143" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
-        <v>76672151</v>
+        <v>76670454</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>42</v>
@@ -9403,46 +9506,48 @@
         <v>17</v>
       </c>
       <c r="F143" s="3">
-        <v>20614458896</v>
+        <v>20607583600</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H143" s="3">
-        <v>20614458896</v>
+        <v>20607583600</v>
       </c>
       <c r="I143" s="4">
         <v>46050</v>
       </c>
       <c r="J143" s="7">
         <f t="shared" si="2"/>
-        <v>75.762711864406782</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K143" s="7">
         <f t="shared" si="3"/>
-        <v>13.63728813559322</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L143" s="8">
-        <v>89.4</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M143" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N143" s="3" t="s">
-        <v>142</v>
+      <c r="N143" s="3">
+        <v>202511</v>
       </c>
       <c r="O143" s="3"/>
       <c r="P143" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="Q143" s="3"/>
-    </row>
-    <row r="144" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+      <c r="Q143" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
-        <v>76671287</v>
+        <v>76672151</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>259</v>
+        <v>24</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>42</v>
@@ -9454,27 +9559,27 @@
         <v>17</v>
       </c>
       <c r="F144" s="3">
-        <v>20610827731</v>
+        <v>20614458896</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H144" s="3">
-        <v>20610827731</v>
+        <v>20614458896</v>
       </c>
       <c r="I144" s="4">
-        <v>46051</v>
+        <v>46050</v>
       </c>
       <c r="J144" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>75.762711864406782</v>
       </c>
       <c r="K144" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>13.63728813559322</v>
       </c>
       <c r="L144" s="8">
-        <v>66.099999999999994</v>
+        <v>89.4</v>
       </c>
       <c r="M144" s="3" t="s">
         <v>19</v>
@@ -9483,12 +9588,16 @@
         <v>142</v>
       </c>
       <c r="O144" s="3"/>
-      <c r="P144" s="3"/>
-      <c r="Q144" s="3"/>
-    </row>
-    <row r="145" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P144" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q144" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
-        <v>76670581</v>
+        <v>76671287</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>259</v>
@@ -9503,13 +9612,13 @@
         <v>17</v>
       </c>
       <c r="F145" s="3">
-        <v>20608157051</v>
+        <v>20610827731</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H145" s="3">
-        <v>20608157051</v>
+        <v>20610827731</v>
       </c>
       <c r="I145" s="4">
         <v>46051</v>
@@ -9532,14 +9641,14 @@
         <v>142</v>
       </c>
       <c r="O145" s="3"/>
-      <c r="P145" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="Q145" s="3"/>
-    </row>
-    <row r="146" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P145" s="3"/>
+      <c r="Q145" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
-        <v>76670507</v>
+        <v>76670581</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>259</v>
@@ -9554,13 +9663,13 @@
         <v>17</v>
       </c>
       <c r="F146" s="3">
-        <v>20607861570</v>
+        <v>20608157051</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H146" s="3">
-        <v>20607861570</v>
+        <v>20608157051</v>
       </c>
       <c r="I146" s="4">
         <v>46051</v>
@@ -9583,15 +9692,19 @@
         <v>142</v>
       </c>
       <c r="O146" s="3"/>
-      <c r="P146" s="3"/>
-      <c r="Q146" s="3"/>
-    </row>
-    <row r="147" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P146" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q146" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
-        <v>76671146</v>
+        <v>76670507</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>42</v>
@@ -9603,94 +9716,96 @@
         <v>17</v>
       </c>
       <c r="F147" s="3">
-        <v>20610270272</v>
+        <v>20607861570</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H147" s="3">
-        <v>20610270272</v>
+        <v>20607861570</v>
       </c>
       <c r="I147" s="4">
-        <v>46050</v>
+        <v>46051</v>
       </c>
       <c r="J147" s="7">
         <f t="shared" si="2"/>
-        <v>59.322033898305087</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K147" s="7">
         <f t="shared" si="3"/>
-        <v>10.677966101694915</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L147" s="8">
-        <v>70</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M147" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N147" s="3">
-        <v>202511</v>
+      <c r="N147" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="O147" s="3"/>
-      <c r="P147" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q147" s="3"/>
-    </row>
-    <row r="148" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P147" s="3"/>
+      <c r="Q147" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
-        <v>76680520</v>
+        <v>76671146</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F148" s="3">
-        <v>20558063069</v>
+        <v>20610270272</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H148" s="3">
-        <v>20558063069</v>
+        <v>20610270272</v>
       </c>
       <c r="I148" s="4">
-        <v>46051</v>
+        <v>46050</v>
       </c>
       <c r="J148" s="7">
         <f t="shared" si="2"/>
-        <v>56.779661016949156</v>
+        <v>59.322033898305087</v>
       </c>
       <c r="K148" s="7">
         <f t="shared" si="3"/>
-        <v>10.220338983050848</v>
+        <v>10.677966101694915</v>
       </c>
       <c r="L148" s="8">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M148" s="3" t="s">
         <v>19</v>
       </c>
       <c r="N148" s="3">
-        <v>202506</v>
+        <v>202511</v>
       </c>
       <c r="O148" s="3"/>
       <c r="P148" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="Q148" s="3"/>
-    </row>
-    <row r="149" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+      <c r="Q148" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
-        <v>76671945</v>
+        <v>76680520</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>15</v>
@@ -9699,49 +9814,51 @@
         <v>42</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F149" s="3">
-        <v>20613443097</v>
+        <v>20558063069</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H149" s="3">
-        <v>20613443097</v>
+        <v>20558063069</v>
       </c>
       <c r="I149" s="4">
         <v>46051</v>
       </c>
       <c r="J149" s="7">
         <f t="shared" si="2"/>
-        <v>84.745762711864415</v>
+        <v>56.779661016949156</v>
       </c>
       <c r="K149" s="7">
         <f t="shared" si="3"/>
-        <v>15.254237288135593</v>
+        <v>10.220338983050848</v>
       </c>
       <c r="L149" s="8">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="M149" s="3" t="s">
         <v>19</v>
       </c>
       <c r="N149" s="3">
-        <v>202511</v>
+        <v>202506</v>
       </c>
       <c r="O149" s="3"/>
       <c r="P149" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q149" s="3"/>
-    </row>
-    <row r="150" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>459</v>
+      </c>
+      <c r="Q149" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
-        <v>76670928</v>
+        <v>76671945</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>15</v>
@@ -9756,27 +9873,27 @@
         <v>17</v>
       </c>
       <c r="F150" s="3">
-        <v>20609525861</v>
+        <v>20613443097</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H150" s="3">
-        <v>20609525861</v>
+        <v>20613443097</v>
       </c>
       <c r="I150" s="4">
         <v>46051</v>
       </c>
       <c r="J150" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>84.745762711864415</v>
       </c>
       <c r="K150" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>15.254237288135593</v>
       </c>
       <c r="L150" s="8">
-        <v>66.099999999999994</v>
+        <v>100</v>
       </c>
       <c r="M150" s="3" t="s">
         <v>19</v>
@@ -9786,16 +9903,18 @@
       </c>
       <c r="O150" s="3"/>
       <c r="P150" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q150" s="3"/>
-    </row>
-    <row r="151" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="Q150" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
-        <v>76667876</v>
+        <v>76670928</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>42</v>
@@ -9807,27 +9926,27 @@
         <v>17</v>
       </c>
       <c r="F151" s="3">
-        <v>20537582741</v>
+        <v>20609525861</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H151" s="3">
-        <v>20537582741</v>
+        <v>20609525861</v>
       </c>
       <c r="I151" s="4">
         <v>46051</v>
       </c>
       <c r="J151" s="7">
         <f t="shared" si="2"/>
-        <v>67.79661016949153</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K151" s="7">
         <f t="shared" si="3"/>
-        <v>12.203389830508474</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L151" s="8">
-        <v>80</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M151" s="3" t="s">
         <v>19</v>
@@ -9837,16 +9956,18 @@
       </c>
       <c r="O151" s="3"/>
       <c r="P151" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="Q151" s="3"/>
-    </row>
-    <row r="152" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+      <c r="Q151" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
-        <v>76669052</v>
+        <v>76667876</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>42</v>
@@ -9858,27 +9979,27 @@
         <v>17</v>
       </c>
       <c r="F152" s="3">
-        <v>20601715687</v>
+        <v>20537582741</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H152" s="3">
-        <v>20601715687</v>
+        <v>20537582741</v>
       </c>
       <c r="I152" s="4">
         <v>46051</v>
       </c>
       <c r="J152" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>67.79661016949153</v>
       </c>
       <c r="K152" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>12.203389830508474</v>
       </c>
       <c r="L152" s="8">
-        <v>66.099999999999994</v>
+        <v>80</v>
       </c>
       <c r="M152" s="3" t="s">
         <v>19</v>
@@ -9888,13 +10009,15 @@
       </c>
       <c r="O152" s="3"/>
       <c r="P152" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="Q152" s="3"/>
-    </row>
-    <row r="153" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>462</v>
+      </c>
+      <c r="Q152" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
-        <v>76680152</v>
+        <v>76679970</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>15</v>
@@ -9909,46 +10032,48 @@
         <v>27</v>
       </c>
       <c r="F153" s="3">
-        <v>20505888741</v>
+        <v>20479758167</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>321</v>
+        <v>479</v>
       </c>
       <c r="H153" s="3">
-        <v>20505888741</v>
+        <v>20479758167</v>
       </c>
       <c r="I153" s="4">
-        <v>46051</v>
+        <v>46049</v>
       </c>
       <c r="J153" s="7">
         <f t="shared" si="2"/>
-        <v>46.610169491525426</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K153" s="7">
         <f t="shared" si="3"/>
-        <v>8.3898305084745761</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L153" s="8">
-        <v>55</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M153" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N153" s="3">
-        <v>200812</v>
-      </c>
-      <c r="O153" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="N153" s="3"/>
+      <c r="O153" s="3">
+        <v>201001</v>
+      </c>
       <c r="P153" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q153" s="3"/>
-    </row>
-    <row r="154" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>497</v>
+      </c>
+      <c r="Q153" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
-        <v>76666541</v>
+        <v>76669052</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>258</v>
+        <v>15</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>42</v>
@@ -9960,94 +10085,98 @@
         <v>17</v>
       </c>
       <c r="F154" s="3">
-        <v>43971334</v>
+        <v>20601715687</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H154" s="3">
-        <v>10439713343</v>
+        <v>20601715687</v>
       </c>
       <c r="I154" s="4">
         <v>46051</v>
       </c>
       <c r="J154" s="7">
         <f t="shared" si="2"/>
-        <v>138.61864406779662</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K154" s="7">
         <f t="shared" si="3"/>
-        <v>24.951355932203391</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L154" s="8">
-        <v>163.57</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M154" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N154" s="3" t="s">
-        <v>466</v>
+      <c r="N154" s="3">
+        <v>202511</v>
       </c>
       <c r="O154" s="3"/>
       <c r="P154" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q154" s="3"/>
-    </row>
-    <row r="155" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>463</v>
+      </c>
+      <c r="Q154" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
-        <v>76671567</v>
+        <v>76680152</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F155" s="3">
-        <v>20611952458</v>
+        <v>20505888741</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H155" s="3">
-        <v>20611952458</v>
+        <v>20505888741</v>
       </c>
       <c r="I155" s="4">
         <v>46051</v>
       </c>
       <c r="J155" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>46.610169491525426</v>
       </c>
       <c r="K155" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>8.3898305084745761</v>
       </c>
       <c r="L155" s="8">
-        <v>66.099999999999994</v>
+        <v>55</v>
       </c>
       <c r="M155" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N155" s="3" t="s">
-        <v>142</v>
+      <c r="N155" s="3">
+        <v>200812</v>
       </c>
       <c r="O155" s="3"/>
       <c r="P155" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q155" s="3"/>
-    </row>
-    <row r="156" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>464</v>
+      </c>
+      <c r="Q155" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
-        <v>76670379</v>
+        <v>76666541</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>258</v>
@@ -10062,46 +10191,48 @@
         <v>17</v>
       </c>
       <c r="F156" s="3">
-        <v>20607117382</v>
+        <v>43971334</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H156" s="3">
-        <v>20607117382</v>
+        <v>10439713343</v>
       </c>
       <c r="I156" s="4">
         <v>46051</v>
       </c>
       <c r="J156" s="7">
         <f t="shared" si="2"/>
-        <v>50.847457627118644</v>
+        <v>138.61864406779662</v>
       </c>
       <c r="K156" s="7">
         <f t="shared" si="3"/>
-        <v>9.1525423728813546</v>
+        <v>24.951355932203391</v>
       </c>
       <c r="L156" s="8">
-        <v>60</v>
+        <v>163.57</v>
       </c>
       <c r="M156" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N156" s="3">
-        <v>202511</v>
+      <c r="N156" s="3" t="s">
+        <v>465</v>
       </c>
       <c r="O156" s="3"/>
       <c r="P156" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="Q156" s="3"/>
-    </row>
-    <row r="157" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+      <c r="Q156" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
-        <v>76667531</v>
+        <v>76671567</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>15</v>
+        <v>259</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>42</v>
@@ -10113,46 +10244,48 @@
         <v>17</v>
       </c>
       <c r="F157" s="3">
-        <v>20516059428</v>
+        <v>20611952458</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H157" s="3">
-        <v>20516059428</v>
+        <v>20611952458</v>
       </c>
       <c r="I157" s="4">
         <v>46051</v>
       </c>
       <c r="J157" s="7">
         <f t="shared" si="2"/>
-        <v>88.567796610169495</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K157" s="7">
         <f t="shared" si="3"/>
-        <v>15.942203389830508</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L157" s="8">
-        <v>104.51</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M157" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N157" s="3">
-        <v>202510</v>
+      <c r="N157" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="O157" s="3"/>
       <c r="P157" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="Q157" s="3"/>
-    </row>
-    <row r="158" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>467</v>
+      </c>
+      <c r="Q157" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
-        <v>76667910</v>
+        <v>76670379</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>42</v>
@@ -10164,27 +10297,27 @@
         <v>17</v>
       </c>
       <c r="F158" s="3">
-        <v>20539073771</v>
+        <v>20607117382</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H158" s="3">
-        <v>20539073771</v>
+        <v>20607117382</v>
       </c>
       <c r="I158" s="4">
         <v>46051</v>
       </c>
       <c r="J158" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>50.847457627118644</v>
       </c>
       <c r="K158" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>9.1525423728813546</v>
       </c>
       <c r="L158" s="8">
-        <v>66.099999999999994</v>
+        <v>60</v>
       </c>
       <c r="M158" s="3" t="s">
         <v>19</v>
@@ -10194,16 +10327,18 @@
       </c>
       <c r="O158" s="3"/>
       <c r="P158" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="Q158" s="3"/>
-    </row>
-    <row r="159" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+      <c r="Q158" s="3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
-        <v>76667432</v>
+        <v>76667531</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>258</v>
+        <v>15</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>42</v>
@@ -10215,97 +10350,101 @@
         <v>17</v>
       </c>
       <c r="F159" s="3">
-        <v>20510497482</v>
+        <v>20516059428</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H159" s="3">
-        <v>20510497482</v>
+        <v>20516059428</v>
       </c>
       <c r="I159" s="4">
         <v>46051</v>
       </c>
       <c r="J159" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>88.567796610169495</v>
       </c>
       <c r="K159" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>15.942203389830508</v>
       </c>
       <c r="L159" s="8">
-        <v>66.099999999999994</v>
+        <v>104.51</v>
       </c>
       <c r="M159" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N159" s="3">
-        <v>202511</v>
-      </c>
-      <c r="O159" s="3">
-        <v>201309</v>
-      </c>
+        <v>202510</v>
+      </c>
+      <c r="O159" s="3"/>
       <c r="P159" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="Q159" s="3"/>
-    </row>
-    <row r="160" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+      <c r="Q159" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
-        <v>76675592</v>
+        <v>76667910</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F160" s="3">
-        <v>20440444394</v>
+        <v>20539073771</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H160" s="3">
-        <v>20440444394</v>
+        <v>20539073771</v>
       </c>
       <c r="I160" s="4">
-        <v>46052</v>
+        <v>46051</v>
       </c>
       <c r="J160" s="7">
         <f t="shared" si="2"/>
-        <v>338.05932203389835</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K160" s="7">
         <f t="shared" si="3"/>
-        <v>60.850677966101699</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L160" s="8">
-        <v>398.91</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M160" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N160" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="N160" s="3">
+        <v>202511</v>
+      </c>
       <c r="O160" s="3"/>
       <c r="P160" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="Q160" s="3"/>
-    </row>
-    <row r="161" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>470</v>
+      </c>
+      <c r="Q160" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
-        <v>76672178</v>
+        <v>76667432</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>42</v>
@@ -10317,16 +10456,16 @@
         <v>17</v>
       </c>
       <c r="F161" s="3">
-        <v>20614607298</v>
+        <v>20510497482</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H161" s="3">
-        <v>20614607298</v>
+        <v>20510497482</v>
       </c>
       <c r="I161" s="4">
-        <v>46052</v>
+        <v>46051</v>
       </c>
       <c r="J161" s="7">
         <f t="shared" si="2"/>
@@ -10340,72 +10479,78 @@
         <v>66.099999999999994</v>
       </c>
       <c r="M161" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N161" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="O161" s="3"/>
-      <c r="P161" s="3"/>
-      <c r="Q161" s="3"/>
-    </row>
-    <row r="162" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="N161" s="3">
+        <v>202511</v>
+      </c>
+      <c r="O161" s="3">
+        <v>201309</v>
+      </c>
+      <c r="P161" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q161" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
-        <v>76669637</v>
+        <v>76675592</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F162" s="3">
-        <v>20603792107</v>
+        <v>20440444394</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H162" s="3">
-        <v>20603792107</v>
+        <v>20440444394</v>
       </c>
       <c r="I162" s="4">
         <v>46052</v>
       </c>
       <c r="J162" s="7">
         <f t="shared" si="2"/>
-        <v>381.35593220338984</v>
+        <v>338.05932203389835</v>
       </c>
       <c r="K162" s="7">
         <f t="shared" si="3"/>
-        <v>68.644067796610173</v>
+        <v>60.850677966101699</v>
       </c>
       <c r="L162" s="8">
-        <v>450</v>
+        <v>398.91</v>
       </c>
       <c r="M162" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N162" s="3" t="s">
-        <v>474</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="N162" s="3"/>
       <c r="O162" s="3"/>
       <c r="P162" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="Q162" s="3"/>
-    </row>
-    <row r="163" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>507</v>
+      </c>
+      <c r="Q162" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
-        <v>76666702</v>
+        <v>76672178</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>42</v>
@@ -10417,13 +10562,13 @@
         <v>17</v>
       </c>
       <c r="F163" s="3">
-        <v>20103320951</v>
+        <v>20614607298</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H163" s="3">
-        <v>20103320951</v>
+        <v>20614607298</v>
       </c>
       <c r="I163" s="4">
         <v>46052</v>
@@ -10442,21 +10587,19 @@
       <c r="M163" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N163" s="3">
-        <v>202511</v>
+      <c r="N163" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="O163" s="3"/>
-      <c r="P163" s="3" t="s">
-        <v>476</v>
-      </c>
+      <c r="P163" s="3"/>
       <c r="Q163" s="3"/>
     </row>
-    <row r="164" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
-        <v>76668359</v>
+        <v>76669637</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>42</v>
@@ -10468,46 +10611,48 @@
         <v>17</v>
       </c>
       <c r="F164" s="3">
-        <v>20558712644</v>
+        <v>20603792107</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H164" s="3">
-        <v>20558712644</v>
+        <v>20603792107</v>
       </c>
       <c r="I164" s="4">
         <v>46052</v>
       </c>
       <c r="J164" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>381.35593220338984</v>
       </c>
       <c r="K164" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>68.644067796610173</v>
       </c>
       <c r="L164" s="8">
-        <v>66.099999999999994</v>
+        <v>450</v>
       </c>
       <c r="M164" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N164" s="3">
-        <v>202511</v>
+      <c r="N164" s="3" t="s">
+        <v>472</v>
       </c>
       <c r="O164" s="3"/>
       <c r="P164" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="Q164" s="3"/>
-    </row>
-    <row r="165" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>473</v>
+      </c>
+      <c r="Q164" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
-        <v>76668383</v>
+        <v>76666702</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>42</v>
@@ -10519,27 +10664,27 @@
         <v>17</v>
       </c>
       <c r="F165" s="3">
-        <v>20559906116</v>
+        <v>20103320951</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H165" s="3">
-        <v>20559906116</v>
+        <v>20103320951</v>
       </c>
       <c r="I165" s="4">
         <v>46052</v>
       </c>
       <c r="J165" s="7">
         <f t="shared" si="2"/>
-        <v>94.915254237288138</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K165" s="7">
         <f t="shared" si="3"/>
-        <v>17.084745762711865</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L165" s="8">
-        <v>112</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M165" s="3" t="s">
         <v>19</v>
@@ -10549,16 +10694,18 @@
       </c>
       <c r="O165" s="3"/>
       <c r="P165" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="Q165" s="3"/>
-    </row>
-    <row r="166" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>474</v>
+      </c>
+      <c r="Q165" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
-        <v>76672099</v>
+        <v>76668359</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>15</v>
+        <v>259</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>42</v>
@@ -10570,23 +10717,23 @@
         <v>17</v>
       </c>
       <c r="F166" s="3">
-        <v>20614200287</v>
+        <v>20558712644</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H166" s="3">
-        <v>20614200287</v>
+        <v>20558712644</v>
       </c>
       <c r="I166" s="4">
         <v>46052</v>
       </c>
       <c r="J166" s="7">
-        <f t="shared" ref="J166:J170" si="4">+L166/1.18</f>
+        <f t="shared" ref="J166:J173" si="4">+L166/1.18</f>
         <v>56.016949152542374</v>
       </c>
       <c r="K166" s="7">
-        <f t="shared" ref="K166:K170" si="5">J166*0.18</f>
+        <f t="shared" ref="K166:K173" si="5">J166*0.18</f>
         <v>10.083050847457628</v>
       </c>
       <c r="L166" s="8">
@@ -10600,13 +10747,15 @@
       </c>
       <c r="O166" s="3"/>
       <c r="P166" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="Q166" s="3"/>
-    </row>
-    <row r="167" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+      <c r="Q166" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
-        <v>76666259</v>
+        <v>76668383</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>15</v>
@@ -10621,127 +10770,306 @@
         <v>17</v>
       </c>
       <c r="F167" s="3">
-        <v>6938061</v>
+        <v>20559906116</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>480</v>
+        <v>333</v>
       </c>
       <c r="H167" s="3">
-        <v>10069380617</v>
+        <v>20559906116</v>
       </c>
       <c r="I167" s="4">
-        <v>46055</v>
+        <v>46052</v>
       </c>
       <c r="J167" s="7">
         <f t="shared" si="4"/>
-        <v>56.016949152542374</v>
+        <v>94.915254237288138</v>
       </c>
       <c r="K167" s="7">
         <f t="shared" si="5"/>
-        <v>10.083050847457628</v>
+        <v>17.084745762711865</v>
       </c>
       <c r="L167" s="8">
-        <v>66.099999999999994</v>
+        <v>112</v>
       </c>
       <c r="M167" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N167" s="3" t="s">
-        <v>142</v>
+      <c r="N167" s="3">
+        <v>202511</v>
       </c>
       <c r="O167" s="3"/>
       <c r="P167" s="3" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="Q167" s="3"/>
     </row>
-    <row r="168" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="3"/>
-      <c r="B168" s="3"/>
-      <c r="C168" s="3"/>
-      <c r="D168" s="3"/>
-      <c r="E168" s="3"/>
-      <c r="F168" s="3"/>
-      <c r="G168" s="3"/>
-      <c r="H168" s="3"/>
-      <c r="I168" s="4"/>
+    <row r="168" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="3">
+        <v>76672099</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F168" s="3">
+        <v>20614200287</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="H168" s="3">
+        <v>20614200287</v>
+      </c>
+      <c r="I168" s="4">
+        <v>46052</v>
+      </c>
       <c r="J168" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K168" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L168" s="8"/>
-      <c r="M168" s="3"/>
-      <c r="N168" s="3"/>
+        <v>10.083050847457628</v>
+      </c>
+      <c r="L168" s="8">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="M168" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N168" s="3">
+        <v>202511</v>
+      </c>
       <c r="O168" s="3"/>
-      <c r="P168" s="3"/>
+      <c r="P168" s="3" t="s">
+        <v>477</v>
+      </c>
       <c r="Q168" s="3"/>
     </row>
-    <row r="169" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="3"/>
-      <c r="B169" s="3"/>
-      <c r="C169" s="3"/>
-      <c r="D169" s="3"/>
-      <c r="E169" s="3"/>
-      <c r="F169" s="3"/>
-      <c r="G169" s="3"/>
-      <c r="H169" s="3"/>
-      <c r="I169" s="4"/>
+    <row r="169" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="3">
+        <v>76669956</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F169" s="3">
+        <v>20605337296</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="H169" s="3">
+        <v>20605337296</v>
+      </c>
+      <c r="I169" s="4">
+        <v>46049</v>
+      </c>
       <c r="J169" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>113.63559322033899</v>
       </c>
       <c r="K169" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L169" s="8"/>
-      <c r="M169" s="3"/>
-      <c r="N169" s="3"/>
+        <v>20.454406779661017</v>
+      </c>
+      <c r="L169" s="8">
+        <v>134.09</v>
+      </c>
+      <c r="M169" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N169" s="3">
+        <v>202511</v>
+      </c>
       <c r="O169" s="3"/>
-      <c r="P169" s="3"/>
+      <c r="P169" s="3" t="s">
+        <v>512</v>
+      </c>
       <c r="Q169" s="3"/>
     </row>
-    <row r="170" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="3"/>
-      <c r="B170" s="3"/>
-      <c r="C170" s="3"/>
-      <c r="D170" s="3"/>
-      <c r="E170" s="3"/>
-      <c r="F170" s="3"/>
-      <c r="G170" s="3"/>
-      <c r="H170" s="3"/>
-      <c r="I170" s="4"/>
+    <row r="170" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="3">
+        <v>76666651</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F170" s="3">
+        <v>73216094</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="H170" s="3">
+        <v>10732160944</v>
+      </c>
+      <c r="I170" s="4">
+        <v>46045</v>
+      </c>
       <c r="J170" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K170" s="7">
         <f t="shared" si="5"/>
+        <v>10.083050847457628</v>
+      </c>
+      <c r="L170" s="8">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="M170" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N170" s="3">
+        <v>202511</v>
+      </c>
+      <c r="O170" s="3"/>
+      <c r="P170" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q170" s="3"/>
+    </row>
+    <row r="171" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="3">
+        <v>76667219</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F171" s="3">
+        <v>20490456547</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="H171" s="3">
+        <v>20490456547</v>
+      </c>
+      <c r="I171" s="4">
+        <v>46036</v>
+      </c>
+      <c r="J171" s="7">
+        <f t="shared" si="4"/>
+        <v>88.483050847457633</v>
+      </c>
+      <c r="K171" s="7">
+        <f t="shared" si="5"/>
+        <v>15.926949152542374</v>
+      </c>
+      <c r="L171" s="8">
+        <v>104.41</v>
+      </c>
+      <c r="M171" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N171" s="3">
+        <v>202511</v>
+      </c>
+      <c r="O171" s="3"/>
+      <c r="P171" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q171" s="3"/>
+    </row>
+    <row r="172" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="3"/>
+      <c r="B172" s="3"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3"/>
+      <c r="F172" s="3"/>
+      <c r="G172" s="3"/>
+      <c r="H172" s="3"/>
+      <c r="I172" s="4"/>
+      <c r="J172" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L170" s="8"/>
-      <c r="M170" s="3"/>
-      <c r="N170" s="3"/>
-      <c r="O170" s="3"/>
-      <c r="P170" s="3"/>
-      <c r="Q170" s="3"/>
-    </row>
-    <row r="171" spans="1:17" s="5" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J171" s="11">
-        <f>SUBTOTAL(9,J2:J170)</f>
-        <v>15790.144067796626</v>
-      </c>
-      <c r="K171" s="11">
-        <f>SUBTOTAL(9,K2:K170)</f>
-        <v>2842.2259322033901</v>
-      </c>
-      <c r="L171" s="11">
-        <f>SUM(L2:L170)</f>
-        <v>18632.37000000001</v>
+      <c r="K172" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L172" s="8"/>
+      <c r="M172" s="3"/>
+      <c r="N172" s="3"/>
+      <c r="O172" s="3"/>
+      <c r="P172" s="3"/>
+      <c r="Q172" s="3"/>
+    </row>
+    <row r="173" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="3"/>
+      <c r="B173" s="3"/>
+      <c r="C173" s="3"/>
+      <c r="D173" s="3"/>
+      <c r="E173" s="3"/>
+      <c r="F173" s="3"/>
+      <c r="G173" s="3"/>
+      <c r="H173" s="3"/>
+      <c r="I173" s="4"/>
+      <c r="J173" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K173" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L173" s="8"/>
+      <c r="M173" s="3"/>
+      <c r="N173" s="3"/>
+      <c r="O173" s="3"/>
+      <c r="P173" s="3"/>
+      <c r="Q173" s="3"/>
+    </row>
+    <row r="174" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J174" s="11">
+        <f>SUBTOTAL(9,J2:J173)</f>
+        <v>16116.567796610187</v>
+      </c>
+      <c r="K174" s="11">
+        <f>SUBTOTAL(9,K2:K173)</f>
+        <v>2900.9822033898308</v>
+      </c>
+      <c r="L174" s="11">
+        <f>SUM(L2:L173)</f>
+        <v>19017.550000000007</v>
       </c>
     </row>
   </sheetData>

--- a/CIERRE GASTOS ADMINISTRATIVOS ENERO 2026.xlsx
+++ b/CIERRE GASTOS ADMINISTRATIVOS ENERO 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\PAGOS ENERO 2026\CIERRE-PAGOS-ENERO-2026\CIERRE-PAGOS-ENERO-2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88066B7F-E858-48A6-BE01-0B24096801F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC9EC39-15CD-49E7-8797-8FB9A78F5876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D111AC9-F4B5-4EE1-9519-BE4E4E92E24D}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$Q$173</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$Q$208</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="554">
   <si>
     <t>ID_OBLIGACION</t>
   </si>
@@ -1585,6 +1585,123 @@
   </si>
   <si>
     <t>glorifl@hotmail.com</t>
+  </si>
+  <si>
+    <t>ARAUJO GAMARRA MARITZA ROSARIO</t>
+  </si>
+  <si>
+    <t>ESTACION DE SERVICIOS KALIMAN E.I.R.L</t>
+  </si>
+  <si>
+    <t>CODELSA PERU E.I.R.L.</t>
+  </si>
+  <si>
+    <t>IZAJES FEINMA S.A.C.</t>
+  </si>
+  <si>
+    <t>CONSTRUCCIONES METALICAS CAVAL S.A.C.</t>
+  </si>
+  <si>
+    <t>N.GRP CONSULTORIA Y CONSTRUCCION S.A.C.</t>
+  </si>
+  <si>
+    <t>PRIME SOLUTION SERVICES ASW S.A.C.</t>
+  </si>
+  <si>
+    <t>CORPORACION KATSUMOTO S.A.C.</t>
+  </si>
+  <si>
+    <t>SENDEROS S.A.C.</t>
+  </si>
+  <si>
+    <t>SERVICIOS GENERALES CRISTIAN ARCE S.A.C.</t>
+  </si>
+  <si>
+    <t>FULL AUTOMATIC SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>ELEYCE S.A.C.</t>
+  </si>
+  <si>
+    <t>NEGREIROS CAMPOS EDYNSON</t>
+  </si>
+  <si>
+    <t>INVERSIONES AGRICOLAS WIKET E.I.R.L</t>
+  </si>
+  <si>
+    <t>GRUPO PRODENTAL S.A.C.</t>
+  </si>
+  <si>
+    <t>S &amp; G INGENIERIA MECANICA E.I.R.L.</t>
+  </si>
+  <si>
+    <t>THE SUPERFOOD FACTORY S.A.C.</t>
+  </si>
+  <si>
+    <t>MIRANDA ROMERO OMAYRA ELIZABETH</t>
+  </si>
+  <si>
+    <t>ALTASALUD S.A.C.</t>
+  </si>
+  <si>
+    <t>INVERSIONES GONZALO AHUMADA S.R.L.</t>
+  </si>
+  <si>
+    <t>H.L.D CONSTRUCTORA S.A.C</t>
+  </si>
+  <si>
+    <t>ARAUJO GAMARRA MARITZA DEL ROSARIO</t>
+  </si>
+  <si>
+    <t>ventasmaniobras@gmail.com</t>
+  </si>
+  <si>
+    <t>AVALOS BOLO JOSE ANTONIO</t>
+  </si>
+  <si>
+    <t>ngrp.consultoriayconstruccion@gmail.com</t>
+  </si>
+  <si>
+    <t>katy_12_95@hotmail.com</t>
+  </si>
+  <si>
+    <t>TORO VILLALOVOS HUMBERTO</t>
+  </si>
+  <si>
+    <t>ALTAMIRANO MOCARRO IRIS MARIBEL</t>
+  </si>
+  <si>
+    <t>BOBADILLA ARANDA CRISTIAN DEYNER</t>
+  </si>
+  <si>
+    <t>lineasycurvas.gpvl@gmail.com</t>
+  </si>
+  <si>
+    <t>DANA</t>
+  </si>
+  <si>
+    <t>ADMINISTRACION</t>
+  </si>
+  <si>
+    <t>vansvanessa@hotmail.com</t>
+  </si>
+  <si>
+    <t>SGINGENIERIAMECANICA@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>MAGUIÑA VALVERDE GUSTAVO CARLOS</t>
+  </si>
+  <si>
+    <t>caortiza@hotmail.com</t>
+  </si>
+  <si>
+    <t>gerencia@altasaludperu.com; andrea.huaman@interforce.pe; sheyla.fernandez@interforce.pe; nilver.so</t>
+  </si>
+  <si>
+    <t>viosil24@hotmail.com</t>
+  </si>
+  <si>
+    <t>LINARES DIAZ HILMER</t>
   </si>
 </sst>
 </file>
@@ -2016,10 +2133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620BD549-6BD9-4566-86B2-4950053DB95E}">
-  <dimension ref="A1:Q174"/>
+  <dimension ref="A1:Q209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="L173" sqref="L173"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="L201" sqref="L201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10729,11 +10846,11 @@
         <v>46052</v>
       </c>
       <c r="J166" s="7">
-        <f t="shared" ref="J166:J173" si="4">+L166/1.18</f>
+        <f t="shared" ref="J166:J208" si="4">+L166/1.18</f>
         <v>56.016949152542374</v>
       </c>
       <c r="K166" s="7">
-        <f t="shared" ref="K166:K173" si="5">J166*0.18</f>
+        <f t="shared" ref="K166:K208" si="5">J166*0.18</f>
         <v>10.083050847457628</v>
       </c>
       <c r="L166" s="8">
@@ -11009,67 +11126,1514 @@
       <c r="Q171" s="3"/>
     </row>
     <row r="172" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="3"/>
-      <c r="B172" s="3"/>
-      <c r="C172" s="3"/>
-      <c r="D172" s="3"/>
-      <c r="E172" s="3"/>
-      <c r="F172" s="3"/>
-      <c r="G172" s="3"/>
-      <c r="H172" s="3"/>
-      <c r="I172" s="4"/>
+      <c r="A172" s="3">
+        <v>76666259</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F172" s="3">
+        <v>6938061</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="H172" s="3">
+        <v>10069380617</v>
+      </c>
+      <c r="I172" s="4">
+        <v>46055</v>
+      </c>
       <c r="J172" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K172" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L172" s="8"/>
-      <c r="M172" s="3"/>
-      <c r="N172" s="3"/>
+        <v>10.083050847457628</v>
+      </c>
+      <c r="L172" s="8">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="M172" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N172" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="O172" s="3"/>
-      <c r="P172" s="3"/>
+      <c r="P172" s="3" t="s">
+        <v>536</v>
+      </c>
       <c r="Q172" s="3"/>
     </row>
     <row r="173" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="3"/>
-      <c r="B173" s="3"/>
-      <c r="C173" s="3"/>
-      <c r="D173" s="3"/>
-      <c r="E173" s="3"/>
-      <c r="F173" s="3"/>
-      <c r="G173" s="3"/>
-      <c r="H173" s="3"/>
-      <c r="I173" s="4"/>
+      <c r="A173" s="3">
+        <v>76668928</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F173" s="3">
+        <v>20601337496</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="H173" s="3">
+        <v>20601337496</v>
+      </c>
+      <c r="I173" s="4">
+        <v>46055</v>
+      </c>
       <c r="J173" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ref="J173:J206" si="6">+L173/1.18</f>
+        <v>56.016949152542374</v>
       </c>
       <c r="K173" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L173" s="8"/>
-      <c r="M173" s="3"/>
-      <c r="N173" s="3"/>
+        <v>10.083050847457628</v>
+      </c>
+      <c r="L173" s="8">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="M173" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N173" s="3">
+        <v>202511</v>
+      </c>
       <c r="O173" s="3"/>
       <c r="P173" s="3"/>
       <c r="Q173" s="3"/>
     </row>
     <row r="174" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J174" s="11">
-        <f>SUBTOTAL(9,J2:J173)</f>
-        <v>16116.567796610187</v>
-      </c>
-      <c r="K174" s="11">
-        <f>SUBTOTAL(9,K2:K173)</f>
-        <v>2900.9822033898308</v>
-      </c>
-      <c r="L174" s="11">
-        <f>SUM(L2:L173)</f>
-        <v>19017.550000000007</v>
+      <c r="A174" s="3">
+        <v>76668562</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F174" s="3">
+        <v>20600064381</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="H174" s="3">
+        <v>20600064381</v>
+      </c>
+      <c r="I174" s="4">
+        <v>46055</v>
+      </c>
+      <c r="J174" s="7">
+        <f t="shared" si="6"/>
+        <v>56.016949152542374</v>
+      </c>
+      <c r="K174" s="7">
+        <f t="shared" si="5"/>
+        <v>10.083050847457628</v>
+      </c>
+      <c r="L174" s="8">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="M174" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N174" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="O174" s="3"/>
+      <c r="P174" s="3"/>
+      <c r="Q174" s="3"/>
+    </row>
+    <row r="175" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="3">
+        <v>76669110</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F175" s="3">
+        <v>20601857821</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="H175" s="3">
+        <v>20601857821</v>
+      </c>
+      <c r="I175" s="4">
+        <v>46056</v>
+      </c>
+      <c r="J175" s="7">
+        <f t="shared" si="6"/>
+        <v>56.016949152542374</v>
+      </c>
+      <c r="K175" s="7">
+        <f t="shared" si="5"/>
+        <v>10.083050847457628</v>
+      </c>
+      <c r="L175" s="8">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="M175" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N175" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="O175" s="3"/>
+      <c r="P175" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q175" s="3"/>
+    </row>
+    <row r="176" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="3">
+        <v>76670329</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F176" s="3">
+        <v>20606771445</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="H176" s="3">
+        <v>20606771445</v>
+      </c>
+      <c r="I176" s="4">
+        <v>46055</v>
+      </c>
+      <c r="J176" s="7">
+        <f t="shared" si="6"/>
+        <v>93.220338983050851</v>
+      </c>
+      <c r="K176" s="7">
+        <f t="shared" si="5"/>
+        <v>16.779661016949152</v>
+      </c>
+      <c r="L176" s="8">
+        <v>110</v>
+      </c>
+      <c r="M176" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N176" s="3">
+        <v>202510</v>
+      </c>
+      <c r="O176" s="3"/>
+      <c r="P176" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q176" s="3"/>
+    </row>
+    <row r="177" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="3">
+        <v>76670567</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F177" s="3">
+        <v>20608087649</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="H177" s="3">
+        <v>20608087649</v>
+      </c>
+      <c r="I177" s="4">
+        <v>46055</v>
+      </c>
+      <c r="J177" s="7">
+        <f t="shared" si="6"/>
+        <v>56.016949152542374</v>
+      </c>
+      <c r="K177" s="7">
+        <f t="shared" si="5"/>
+        <v>10.083050847457628</v>
+      </c>
+      <c r="L177" s="8">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="M177" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N177" s="3">
+        <v>202511</v>
+      </c>
+      <c r="O177" s="3"/>
+      <c r="P177" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q177" s="3"/>
+    </row>
+    <row r="178" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="3">
+        <v>76671796</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F178" s="3">
+        <v>20612856771</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="H178" s="3">
+        <v>20612856771</v>
+      </c>
+      <c r="I178" s="4">
+        <v>46056</v>
+      </c>
+      <c r="J178" s="7">
+        <f t="shared" si="6"/>
+        <v>56.016949152542374</v>
+      </c>
+      <c r="K178" s="7">
+        <f t="shared" si="5"/>
+        <v>10.083050847457628</v>
+      </c>
+      <c r="L178" s="8">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="M178" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N178" s="3">
+        <v>202511</v>
+      </c>
+      <c r="O178" s="3"/>
+      <c r="P178" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q178" s="3"/>
+    </row>
+    <row r="179" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="3">
+        <v>76675592</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F179" s="3">
+        <v>20440444394</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H179" s="3">
+        <v>20440444394</v>
+      </c>
+      <c r="I179" s="4">
+        <v>46056</v>
+      </c>
+      <c r="J179" s="7">
+        <f t="shared" si="6"/>
+        <v>1017.8728813559322</v>
+      </c>
+      <c r="K179" s="7">
+        <f t="shared" si="5"/>
+        <v>183.2171186440678</v>
+      </c>
+      <c r="L179" s="8">
+        <v>1201.0899999999999</v>
+      </c>
+      <c r="M179" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N179" s="3"/>
+      <c r="O179" s="3"/>
+      <c r="P179" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q179" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="3">
+        <v>76671342</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F180" s="3">
+        <v>20611054166</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="H180" s="3">
+        <v>20611054166</v>
+      </c>
+      <c r="I180" s="4">
+        <v>46056</v>
+      </c>
+      <c r="J180" s="7">
+        <f t="shared" si="6"/>
+        <v>156.66101694915255</v>
+      </c>
+      <c r="K180" s="7">
+        <f t="shared" si="5"/>
+        <v>28.19898305084746</v>
+      </c>
+      <c r="L180" s="8">
+        <v>184.86</v>
+      </c>
+      <c r="M180" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N180" s="3">
+        <v>202511</v>
+      </c>
+      <c r="O180" s="3"/>
+      <c r="P180" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q180" s="3"/>
+    </row>
+    <row r="181" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="3">
+        <v>76668515</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F181" s="3">
+        <v>20570718771</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="H181" s="3">
+        <v>20570718771</v>
+      </c>
+      <c r="I181" s="4">
+        <v>46056</v>
+      </c>
+      <c r="J181" s="7">
+        <f t="shared" si="6"/>
+        <v>68.220338983050851</v>
+      </c>
+      <c r="K181" s="7">
+        <f t="shared" si="5"/>
+        <v>12.279661016949152</v>
+      </c>
+      <c r="L181" s="8">
+        <v>80.5</v>
+      </c>
+      <c r="M181" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N181" s="3">
+        <v>202511</v>
+      </c>
+      <c r="O181" s="3"/>
+      <c r="P181" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q181" s="3"/>
+    </row>
+    <row r="182" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="3">
+        <v>76670908</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F182" s="3">
+        <v>20609456095</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="H182" s="3">
+        <v>20609456095</v>
+      </c>
+      <c r="I182" s="4">
+        <v>46056</v>
+      </c>
+      <c r="J182" s="7">
+        <f t="shared" si="6"/>
+        <v>56.016949152542374</v>
+      </c>
+      <c r="K182" s="7">
+        <f t="shared" si="5"/>
+        <v>10.083050847457628</v>
+      </c>
+      <c r="L182" s="8">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="M182" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N182" s="3">
+        <v>202511</v>
+      </c>
+      <c r="O182" s="3"/>
+      <c r="P182" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q182" s="3"/>
+    </row>
+    <row r="183" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="3">
+        <v>76667436</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F183" s="3">
+        <v>20510725027</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="H183" s="3">
+        <v>20510725027</v>
+      </c>
+      <c r="I183" s="4">
+        <v>46056</v>
+      </c>
+      <c r="J183" s="7">
+        <f t="shared" si="6"/>
+        <v>56.016949152542374</v>
+      </c>
+      <c r="K183" s="7">
+        <f t="shared" si="5"/>
+        <v>10.083050847457628</v>
+      </c>
+      <c r="L183" s="8">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="M183" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N183" s="3">
+        <v>202510</v>
+      </c>
+      <c r="O183" s="3"/>
+      <c r="P183" s="3"/>
+      <c r="Q183" s="3"/>
+    </row>
+    <row r="184" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="3">
+        <v>76668087</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F184" s="3">
+        <v>20547995431</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="H184" s="3">
+        <v>20547995431</v>
+      </c>
+      <c r="I184" s="4">
+        <v>46056</v>
+      </c>
+      <c r="J184" s="7">
+        <f t="shared" si="6"/>
+        <v>61.889830508474581</v>
+      </c>
+      <c r="K184" s="7">
+        <f t="shared" si="5"/>
+        <v>11.140169491525425</v>
+      </c>
+      <c r="L184" s="8">
+        <v>73.03</v>
+      </c>
+      <c r="M184" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N184" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O184" s="3">
+        <v>202511</v>
+      </c>
+      <c r="P184" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="Q184" s="3"/>
+    </row>
+    <row r="185" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="3">
+        <v>76666635</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F185" s="3">
+        <v>70445081</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="H185" s="3">
+        <v>10704450813</v>
+      </c>
+      <c r="I185" s="4">
+        <v>46056</v>
+      </c>
+      <c r="J185" s="7">
+        <f t="shared" si="6"/>
+        <v>56.016949152542374</v>
+      </c>
+      <c r="K185" s="7">
+        <f t="shared" si="5"/>
+        <v>10.083050847457628</v>
+      </c>
+      <c r="L185" s="8">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="M185" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N185" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="O185" s="3"/>
+      <c r="P185" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="Q185" s="3"/>
+    </row>
+    <row r="186" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="3">
+        <v>76670240</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F186" s="3">
+        <v>20606398094</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="H186" s="3">
+        <v>20606398094</v>
+      </c>
+      <c r="I186" s="4">
+        <v>46056</v>
+      </c>
+      <c r="J186" s="7">
+        <f t="shared" si="6"/>
+        <v>56.016949152542374</v>
+      </c>
+      <c r="K186" s="7">
+        <f t="shared" si="5"/>
+        <v>10.083050847457628</v>
+      </c>
+      <c r="L186" s="8">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="M186" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N186" s="3">
+        <v>202511</v>
+      </c>
+      <c r="O186" s="3"/>
+      <c r="P186" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q186" s="3"/>
+    </row>
+    <row r="187" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="3">
+        <v>76670664</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F187" s="3">
+        <v>20608474961</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="H187" s="3">
+        <v>20608474961</v>
+      </c>
+      <c r="I187" s="4">
+        <v>46055</v>
+      </c>
+      <c r="J187" s="7">
+        <f t="shared" si="6"/>
+        <v>56.016949152542374</v>
+      </c>
+      <c r="K187" s="7">
+        <f t="shared" si="5"/>
+        <v>10.083050847457628</v>
+      </c>
+      <c r="L187" s="8">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="M187" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N187" s="3">
+        <v>202511</v>
+      </c>
+      <c r="O187" s="3"/>
+      <c r="P187" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q187" s="3"/>
+    </row>
+    <row r="188" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="3">
+        <v>76669658</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F188" s="3">
+        <v>20603894538</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="H188" s="3">
+        <v>20603894538</v>
+      </c>
+      <c r="I188" s="4">
+        <v>46056</v>
+      </c>
+      <c r="J188" s="7">
+        <f t="shared" si="6"/>
+        <v>56.016949152542374</v>
+      </c>
+      <c r="K188" s="7">
+        <f t="shared" si="5"/>
+        <v>10.083050847457628</v>
+      </c>
+      <c r="L188" s="8">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="M188" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N188" s="3">
+        <v>202511</v>
+      </c>
+      <c r="O188" s="3"/>
+      <c r="P188" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q188" s="3"/>
+    </row>
+    <row r="189" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="3">
+        <v>76669869</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F189" s="3">
+        <v>20604947678</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="H189" s="3">
+        <v>20604947678</v>
+      </c>
+      <c r="I189" s="4">
+        <v>46057</v>
+      </c>
+      <c r="J189" s="7">
+        <f t="shared" si="6"/>
+        <v>55.084745762711869</v>
+      </c>
+      <c r="K189" s="7">
+        <f t="shared" si="5"/>
+        <v>9.9152542372881367</v>
+      </c>
+      <c r="L189" s="8">
+        <v>65</v>
+      </c>
+      <c r="M189" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N189" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O189" s="3">
+        <v>202511</v>
+      </c>
+      <c r="P189" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q189" s="3"/>
+    </row>
+    <row r="190" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="3">
+        <v>76666630</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F190" s="3">
+        <v>70254742</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="H190" s="3">
+        <v>10702547429</v>
+      </c>
+      <c r="I190" s="4">
+        <v>46055</v>
+      </c>
+      <c r="J190" s="7">
+        <f t="shared" si="6"/>
+        <v>56.016949152542374</v>
+      </c>
+      <c r="K190" s="7">
+        <f t="shared" si="5"/>
+        <v>10.083050847457628</v>
+      </c>
+      <c r="L190" s="8">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="M190" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N190" s="3">
+        <v>202510</v>
+      </c>
+      <c r="O190" s="3">
+        <v>202511</v>
+      </c>
+      <c r="P190" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q190" s="3"/>
+    </row>
+    <row r="191" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="3">
+        <v>76670924</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F191" s="3">
+        <v>20609512092</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="H191" s="3">
+        <v>20609512092</v>
+      </c>
+      <c r="I191" s="4">
+        <v>46057</v>
+      </c>
+      <c r="J191" s="7">
+        <f t="shared" si="6"/>
+        <v>56.016949152542374</v>
+      </c>
+      <c r="K191" s="7">
+        <f t="shared" si="5"/>
+        <v>10.083050847457628</v>
+      </c>
+      <c r="L191" s="8">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="M191" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N191" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="O191" s="3"/>
+      <c r="P191" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q191" s="3"/>
+    </row>
+    <row r="192" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="3">
+        <v>76668873</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F192" s="3">
+        <v>20601174384</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="H192" s="3">
+        <v>20601174384</v>
+      </c>
+      <c r="I192" s="4">
+        <v>46057</v>
+      </c>
+      <c r="J192" s="7">
+        <f t="shared" si="6"/>
+        <v>101.69491525423729</v>
+      </c>
+      <c r="K192" s="7">
+        <f t="shared" si="5"/>
+        <v>18.305084745762709</v>
+      </c>
+      <c r="L192" s="8">
+        <v>120</v>
+      </c>
+      <c r="M192" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N192" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="O192" s="3"/>
+      <c r="P192" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="Q192" s="3"/>
+    </row>
+    <row r="193" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="3">
+        <v>76668395</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F193" s="3">
+        <v>20562618938</v>
+      </c>
+      <c r="G193" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="H193" s="3">
+        <v>20562618938</v>
+      </c>
+      <c r="I193" s="4">
+        <v>46057</v>
+      </c>
+      <c r="J193" s="7">
+        <f t="shared" si="6"/>
+        <v>79.669491525423737</v>
+      </c>
+      <c r="K193" s="7">
+        <f t="shared" si="5"/>
+        <v>14.340508474576271</v>
+      </c>
+      <c r="L193" s="8">
+        <v>94.01</v>
+      </c>
+      <c r="M193" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N193" s="3">
+        <v>202511</v>
+      </c>
+      <c r="O193" s="3"/>
+      <c r="P193" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q193" s="3"/>
+    </row>
+    <row r="194" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="3"/>
+      <c r="B194" s="3"/>
+      <c r="C194" s="3"/>
+      <c r="D194" s="3"/>
+      <c r="E194" s="3"/>
+      <c r="F194" s="3"/>
+      <c r="G194" s="3"/>
+      <c r="H194" s="3"/>
+      <c r="I194" s="4"/>
+      <c r="J194" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K194" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L194" s="8"/>
+      <c r="M194" s="3"/>
+      <c r="N194" s="3"/>
+      <c r="O194" s="3"/>
+      <c r="P194" s="3"/>
+      <c r="Q194" s="3"/>
+    </row>
+    <row r="195" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="3"/>
+      <c r="B195" s="3"/>
+      <c r="C195" s="3"/>
+      <c r="D195" s="3"/>
+      <c r="E195" s="3"/>
+      <c r="F195" s="3"/>
+      <c r="G195" s="3"/>
+      <c r="H195" s="3"/>
+      <c r="I195" s="4"/>
+      <c r="J195" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K195" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L195" s="8"/>
+      <c r="M195" s="3"/>
+      <c r="N195" s="3"/>
+      <c r="O195" s="3"/>
+      <c r="P195" s="3"/>
+      <c r="Q195" s="3"/>
+    </row>
+    <row r="196" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="3"/>
+      <c r="B196" s="3"/>
+      <c r="C196" s="3"/>
+      <c r="D196" s="3"/>
+      <c r="E196" s="3"/>
+      <c r="F196" s="3"/>
+      <c r="G196" s="3"/>
+      <c r="H196" s="3"/>
+      <c r="I196" s="4"/>
+      <c r="J196" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K196" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L196" s="8"/>
+      <c r="M196" s="3"/>
+      <c r="N196" s="3"/>
+      <c r="O196" s="3"/>
+      <c r="P196" s="3"/>
+      <c r="Q196" s="3"/>
+    </row>
+    <row r="197" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="3"/>
+      <c r="B197" s="3"/>
+      <c r="C197" s="3"/>
+      <c r="D197" s="3"/>
+      <c r="E197" s="3"/>
+      <c r="F197" s="3"/>
+      <c r="G197" s="3"/>
+      <c r="H197" s="3"/>
+      <c r="I197" s="4"/>
+      <c r="J197" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K197" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L197" s="8"/>
+      <c r="M197" s="3"/>
+      <c r="N197" s="3"/>
+      <c r="O197" s="3"/>
+      <c r="P197" s="3"/>
+      <c r="Q197" s="3"/>
+    </row>
+    <row r="198" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="3"/>
+      <c r="B198" s="3"/>
+      <c r="C198" s="3"/>
+      <c r="D198" s="3"/>
+      <c r="E198" s="3"/>
+      <c r="F198" s="3"/>
+      <c r="G198" s="3"/>
+      <c r="H198" s="3"/>
+      <c r="I198" s="4"/>
+      <c r="J198" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K198" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L198" s="8"/>
+      <c r="M198" s="3"/>
+      <c r="N198" s="3"/>
+      <c r="O198" s="3"/>
+      <c r="P198" s="3"/>
+      <c r="Q198" s="3"/>
+    </row>
+    <row r="199" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="3"/>
+      <c r="B199" s="3"/>
+      <c r="C199" s="3"/>
+      <c r="D199" s="3"/>
+      <c r="E199" s="3"/>
+      <c r="F199" s="3"/>
+      <c r="G199" s="3"/>
+      <c r="H199" s="3"/>
+      <c r="I199" s="4"/>
+      <c r="J199" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K199" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L199" s="8"/>
+      <c r="M199" s="3"/>
+      <c r="N199" s="3"/>
+      <c r="O199" s="3"/>
+      <c r="P199" s="3"/>
+      <c r="Q199" s="3"/>
+    </row>
+    <row r="200" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="3"/>
+      <c r="B200" s="3"/>
+      <c r="C200" s="3"/>
+      <c r="D200" s="3"/>
+      <c r="E200" s="3"/>
+      <c r="F200" s="3"/>
+      <c r="G200" s="3"/>
+      <c r="H200" s="3"/>
+      <c r="I200" s="4"/>
+      <c r="J200" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K200" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L200" s="8"/>
+      <c r="M200" s="3"/>
+      <c r="N200" s="3"/>
+      <c r="O200" s="3"/>
+      <c r="P200" s="3"/>
+      <c r="Q200" s="3"/>
+    </row>
+    <row r="201" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="3"/>
+      <c r="B201" s="3"/>
+      <c r="C201" s="3"/>
+      <c r="D201" s="3"/>
+      <c r="E201" s="3"/>
+      <c r="F201" s="3"/>
+      <c r="G201" s="3"/>
+      <c r="H201" s="3"/>
+      <c r="I201" s="4"/>
+      <c r="J201" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K201" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L201" s="8"/>
+      <c r="M201" s="3"/>
+      <c r="N201" s="3"/>
+      <c r="O201" s="3"/>
+      <c r="P201" s="3"/>
+      <c r="Q201" s="3"/>
+    </row>
+    <row r="202" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="3"/>
+      <c r="B202" s="3"/>
+      <c r="C202" s="3"/>
+      <c r="D202" s="3"/>
+      <c r="E202" s="3"/>
+      <c r="F202" s="3"/>
+      <c r="G202" s="3"/>
+      <c r="H202" s="3"/>
+      <c r="I202" s="4"/>
+      <c r="J202" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K202" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L202" s="8"/>
+      <c r="M202" s="3"/>
+      <c r="N202" s="3"/>
+      <c r="O202" s="3"/>
+      <c r="P202" s="3"/>
+      <c r="Q202" s="3"/>
+    </row>
+    <row r="203" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="3"/>
+      <c r="B203" s="3"/>
+      <c r="C203" s="3"/>
+      <c r="D203" s="3"/>
+      <c r="E203" s="3"/>
+      <c r="F203" s="3"/>
+      <c r="G203" s="3"/>
+      <c r="H203" s="3"/>
+      <c r="I203" s="4"/>
+      <c r="J203" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K203" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L203" s="8"/>
+      <c r="M203" s="3"/>
+      <c r="N203" s="3"/>
+      <c r="O203" s="3"/>
+      <c r="P203" s="3"/>
+      <c r="Q203" s="3"/>
+    </row>
+    <row r="204" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="3"/>
+      <c r="B204" s="3"/>
+      <c r="C204" s="3"/>
+      <c r="D204" s="3"/>
+      <c r="E204" s="3"/>
+      <c r="F204" s="3"/>
+      <c r="G204" s="3"/>
+      <c r="H204" s="3"/>
+      <c r="I204" s="4"/>
+      <c r="J204" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K204" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L204" s="8"/>
+      <c r="M204" s="3"/>
+      <c r="N204" s="3"/>
+      <c r="O204" s="3"/>
+      <c r="P204" s="3"/>
+      <c r="Q204" s="3"/>
+    </row>
+    <row r="205" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="3"/>
+      <c r="B205" s="3"/>
+      <c r="C205" s="3"/>
+      <c r="D205" s="3"/>
+      <c r="E205" s="3"/>
+      <c r="F205" s="3"/>
+      <c r="G205" s="3"/>
+      <c r="H205" s="3"/>
+      <c r="I205" s="4"/>
+      <c r="J205" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K205" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L205" s="8"/>
+      <c r="M205" s="3"/>
+      <c r="N205" s="3"/>
+      <c r="O205" s="3"/>
+      <c r="P205" s="3"/>
+      <c r="Q205" s="3"/>
+    </row>
+    <row r="206" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="3"/>
+      <c r="B206" s="3"/>
+      <c r="C206" s="3"/>
+      <c r="D206" s="3"/>
+      <c r="E206" s="3"/>
+      <c r="F206" s="3"/>
+      <c r="G206" s="3"/>
+      <c r="H206" s="3"/>
+      <c r="I206" s="4"/>
+      <c r="J206" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K206" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L206" s="8"/>
+      <c r="M206" s="3"/>
+      <c r="N206" s="3"/>
+      <c r="O206" s="3"/>
+      <c r="P206" s="3"/>
+      <c r="Q206" s="3"/>
+    </row>
+    <row r="207" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="3"/>
+      <c r="B207" s="3"/>
+      <c r="C207" s="3"/>
+      <c r="D207" s="3"/>
+      <c r="E207" s="3"/>
+      <c r="F207" s="3"/>
+      <c r="G207" s="3"/>
+      <c r="H207" s="3"/>
+      <c r="I207" s="4"/>
+      <c r="J207" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K207" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L207" s="8"/>
+      <c r="M207" s="3"/>
+      <c r="N207" s="3"/>
+      <c r="O207" s="3"/>
+      <c r="P207" s="3"/>
+      <c r="Q207" s="3"/>
+    </row>
+    <row r="208" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="3"/>
+      <c r="B208" s="3"/>
+      <c r="C208" s="3"/>
+      <c r="D208" s="3"/>
+      <c r="E208" s="3"/>
+      <c r="F208" s="3"/>
+      <c r="G208" s="3"/>
+      <c r="H208" s="3"/>
+      <c r="I208" s="4"/>
+      <c r="J208" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K208" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L208" s="8"/>
+      <c r="M208" s="3"/>
+      <c r="N208" s="3"/>
+      <c r="O208" s="3"/>
+      <c r="P208" s="3"/>
+      <c r="Q208" s="3"/>
+    </row>
+    <row r="209" spans="10:12" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J209" s="11">
+        <f>SUBTOTAL(9,J2:J208)</f>
+        <v>18535.118644067803</v>
+      </c>
+      <c r="K209" s="11">
+        <f>SUBTOTAL(9,K2:K208)</f>
+        <v>3336.3213559322062</v>
+      </c>
+      <c r="L209" s="11">
+        <f>SUM(L2:L208)</f>
+        <v>21871.439999999984</v>
       </c>
     </row>
   </sheetData>

--- a/CIERRE GASTOS ADMINISTRATIVOS ENERO 2026.xlsx
+++ b/CIERRE GASTOS ADMINISTRATIVOS ENERO 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\PAGOS ENERO 2026\CIERRE-PAGOS-ENERO-2026\CIERRE-PAGOS-ENERO-2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC9EC39-15CD-49E7-8797-8FB9A78F5876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599534BA-7F18-4D81-BF36-6021EF4B74AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D111AC9-F4B5-4EE1-9519-BE4E4E92E24D}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$Q$208</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$Q$207</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="552">
   <si>
     <t>ID_OBLIGACION</t>
   </si>
@@ -1476,9 +1476,6 @@
     <t>VILLEGAS ROSALES KATHIA MELISSA</t>
   </si>
   <si>
-    <t>CARITAS DIOCESANA DEL CALLAO</t>
-  </si>
-  <si>
     <t>INSTITUTO DEL RIÑON E.I.R.L.</t>
   </si>
   <si>
@@ -1495,9 +1492,6 @@
   </si>
   <si>
     <t>200709|200711|200712|200801|200802|200803|200805|200806|200807|200808|200809|200811|200812|200901|200902|200903|200905|200906|200907|200908|200909|200</t>
-  </si>
-  <si>
-    <t>F001-00036578</t>
   </si>
   <si>
     <t>F001-00037094</t>
@@ -2133,10 +2127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620BD549-6BD9-4566-86B2-4950053DB95E}">
-  <dimension ref="A1:Q209"/>
+  <dimension ref="A1:Q208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="L201" sqref="L201"/>
+    <sheetView tabSelected="1" topLeftCell="A1048502" workbookViewId="0">
+      <selection activeCell="I1048509" sqref="I1048509"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2281,11 +2275,11 @@
         <v>46024</v>
       </c>
       <c r="J3" s="7">
-        <f t="shared" ref="J3:J65" si="0">+L3/1.18</f>
+        <f t="shared" ref="J3:J64" si="0">+L3/1.18</f>
         <v>56.016949152542374</v>
       </c>
       <c r="K3" s="7">
-        <f t="shared" ref="K3:K65" si="1">J3*0.18</f>
+        <f t="shared" ref="K3:K64" si="1">J3*0.18</f>
         <v>10.083050847457628</v>
       </c>
       <c r="L3" s="8">
@@ -3773,7 +3767,7 @@
         <v>19</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
@@ -3983,7 +3977,7 @@
         <v>19</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
@@ -4099,10 +4093,10 @@
     </row>
     <row r="38" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>76666749</v>
+        <v>76667597</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>42</v>
@@ -4114,43 +4108,45 @@
         <v>17</v>
       </c>
       <c r="F38" s="3">
-        <v>20206345536</v>
+        <v>20520598449</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>478</v>
+        <v>72</v>
       </c>
       <c r="H38" s="3">
-        <v>20206345536</v>
+        <v>20520598449</v>
       </c>
       <c r="I38" s="4">
         <v>46037</v>
       </c>
       <c r="J38" s="7">
         <f t="shared" si="0"/>
-        <v>68.288135593220346</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K38" s="7">
         <f t="shared" si="1"/>
-        <v>12.291864406779663</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L38" s="8">
-        <v>80.58</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N38" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="P38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="Q38" s="3" t="s">
-        <v>485</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>76667597</v>
+        <v>76666854</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>24</v>
@@ -4165,13 +4161,13 @@
         <v>17</v>
       </c>
       <c r="F39" s="3">
-        <v>20520598449</v>
+        <v>20393018730</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H39" s="3">
-        <v>20520598449</v>
+        <v>20393018730</v>
       </c>
       <c r="I39" s="4">
         <v>46037</v>
@@ -4190,20 +4186,20 @@
       <c r="M39" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N39" s="3" t="s">
-        <v>142</v>
+      <c r="N39" s="3">
+        <v>202510</v>
       </c>
       <c r="O39" s="3"/>
       <c r="P39" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>76666854</v>
+        <v>76678981</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>24</v>
@@ -4212,107 +4208,105 @@
         <v>42</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F40" s="3">
-        <v>20393018730</v>
+        <v>40433452</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H40" s="3">
-        <v>20393018730</v>
+        <v>10404334528</v>
       </c>
       <c r="I40" s="4">
         <v>46037</v>
       </c>
       <c r="J40" s="7">
         <f t="shared" si="0"/>
-        <v>56.016949152542374</v>
+        <v>143.89830508474577</v>
       </c>
       <c r="K40" s="7">
         <f t="shared" si="1"/>
-        <v>10.083050847457628</v>
+        <v>25.90169491525424</v>
       </c>
       <c r="L40" s="8">
-        <v>66.099999999999994</v>
+        <v>169.8</v>
       </c>
       <c r="M40" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N40" s="3">
-        <v>202510</v>
+      <c r="N40" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="O40" s="3"/>
       <c r="P40" s="3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>76678981</v>
+        <v>76666773</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F41" s="3">
-        <v>40433452</v>
+        <v>20266779985</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H41" s="3">
-        <v>10404334528</v>
+        <v>20266779985</v>
       </c>
       <c r="I41" s="4">
         <v>46037</v>
       </c>
       <c r="J41" s="7">
         <f t="shared" si="0"/>
-        <v>143.89830508474577</v>
+        <v>85.449152542372886</v>
       </c>
       <c r="K41" s="7">
         <f t="shared" si="1"/>
-        <v>25.90169491525424</v>
+        <v>15.380847457627119</v>
       </c>
       <c r="L41" s="8">
-        <v>169.8</v>
+        <v>100.83</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>201</v>
+      <c r="N41" s="3">
+        <v>202511</v>
       </c>
       <c r="O41" s="3"/>
-      <c r="P41" s="3" t="s">
-        <v>202</v>
-      </c>
+      <c r="P41" s="3"/>
       <c r="Q41" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>76666773</v>
+        <v>76670605</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>42</v>
@@ -4324,27 +4318,27 @@
         <v>17</v>
       </c>
       <c r="F42" s="3">
-        <v>20266779985</v>
+        <v>20608246411</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H42" s="3">
-        <v>20266779985</v>
+        <v>20608246411</v>
       </c>
       <c r="I42" s="4">
         <v>46037</v>
       </c>
       <c r="J42" s="7">
         <f t="shared" si="0"/>
-        <v>85.449152542372886</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K42" s="7">
         <f t="shared" si="1"/>
-        <v>15.380847457627119</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L42" s="8">
-        <v>100.83</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>19</v>
@@ -4353,38 +4347,40 @@
         <v>202511</v>
       </c>
       <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
+      <c r="P42" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="Q42" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>76670605</v>
+        <v>76701653</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>24</v>
+        <v>258</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F43" s="3">
-        <v>20608246411</v>
+        <v>20502182529</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H43" s="3">
-        <v>20608246411</v>
+        <v>20502182529</v>
       </c>
       <c r="I43" s="4">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="J43" s="7">
         <f t="shared" si="0"/>
@@ -4405,50 +4401,50 @@
       </c>
       <c r="O43" s="3"/>
       <c r="P43" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>206</v>
+        <v>335</v>
       </c>
     </row>
     <row r="44" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>76701653</v>
+        <v>76669865</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>258</v>
+        <v>15</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F44" s="3">
-        <v>20502182529</v>
+        <v>20604939713</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H44" s="3">
-        <v>20502182529</v>
+        <v>20604939713</v>
       </c>
       <c r="I44" s="4">
-        <v>46038</v>
+        <v>46037</v>
       </c>
       <c r="J44" s="7">
         <f t="shared" si="0"/>
-        <v>56.016949152542374</v>
+        <v>85.449152542372886</v>
       </c>
       <c r="K44" s="7">
         <f t="shared" si="1"/>
-        <v>10.083050847457628</v>
+        <v>15.380847457627119</v>
       </c>
       <c r="L44" s="8">
-        <v>66.099999999999994</v>
+        <v>100.83</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>19</v>
@@ -4458,18 +4454,18 @@
       </c>
       <c r="O44" s="3"/>
       <c r="P44" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>335</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>76669865</v>
+        <v>76671295</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>42</v>
@@ -4481,48 +4477,48 @@
         <v>17</v>
       </c>
       <c r="F45" s="3">
-        <v>20604939713</v>
+        <v>20610871951</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H45" s="3">
-        <v>20604939713</v>
+        <v>20610871951</v>
       </c>
       <c r="I45" s="4">
         <v>46037</v>
       </c>
       <c r="J45" s="7">
         <f t="shared" si="0"/>
-        <v>85.449152542372886</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K45" s="7">
         <f t="shared" si="1"/>
-        <v>15.380847457627119</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L45" s="8">
-        <v>100.83</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N45" s="3">
-        <v>202511</v>
+      <c r="N45" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="O45" s="3"/>
       <c r="P45" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q45" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>76671295</v>
+        <v>76668146</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>42</v>
@@ -4534,13 +4530,13 @@
         <v>17</v>
       </c>
       <c r="F46" s="3">
-        <v>20610871951</v>
+        <v>20550479363</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H46" s="3">
-        <v>20610871951</v>
+        <v>20550479363</v>
       </c>
       <c r="I46" s="4">
         <v>46037</v>
@@ -4559,23 +4555,23 @@
       <c r="M46" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>142</v>
+      <c r="N46" s="3">
+        <v>202510</v>
       </c>
       <c r="O46" s="3"/>
       <c r="P46" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>76668146</v>
+        <v>76666419</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>42</v>
@@ -4587,45 +4583,43 @@
         <v>17</v>
       </c>
       <c r="F47" s="3">
-        <v>20550479363</v>
+        <v>29244743</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H47" s="3">
-        <v>20550479363</v>
+        <v>10292447430</v>
       </c>
       <c r="I47" s="4">
         <v>46037</v>
       </c>
       <c r="J47" s="7">
         <f t="shared" si="0"/>
-        <v>56.016949152542374</v>
+        <v>42.372881355932208</v>
       </c>
       <c r="K47" s="7">
         <f t="shared" si="1"/>
-        <v>10.083050847457628</v>
+        <v>7.6271186440677967</v>
       </c>
       <c r="L47" s="8">
-        <v>66.099999999999994</v>
+        <v>50</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>19</v>
       </c>
       <c r="N47" s="3">
-        <v>202510</v>
+        <v>202511</v>
       </c>
       <c r="O47" s="3"/>
-      <c r="P47" s="3" t="s">
-        <v>212</v>
-      </c>
+      <c r="P47" s="3"/>
       <c r="Q47" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>76666419</v>
+        <v>76666428</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>24</v>
@@ -4640,27 +4634,27 @@
         <v>17</v>
       </c>
       <c r="F48" s="3">
-        <v>29244743</v>
+        <v>29686180</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H48" s="3">
-        <v>10292447430</v>
+        <v>10296861800</v>
       </c>
       <c r="I48" s="4">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="J48" s="7">
         <f t="shared" si="0"/>
-        <v>42.372881355932208</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K48" s="7">
         <f t="shared" si="1"/>
-        <v>7.6271186440677967</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L48" s="8">
-        <v>50</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>19</v>
@@ -4669,17 +4663,19 @@
         <v>202511</v>
       </c>
       <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
+      <c r="P48" s="3" t="s">
+        <v>215</v>
+      </c>
       <c r="Q48" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="49" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>76666428</v>
+        <v>76668123</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>42</v>
@@ -4691,13 +4687,13 @@
         <v>17</v>
       </c>
       <c r="F49" s="3">
-        <v>29686180</v>
+        <v>20549404911</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H49" s="3">
-        <v>10296861800</v>
+        <v>20549404911</v>
       </c>
       <c r="I49" s="4">
         <v>46038</v>
@@ -4720,16 +4716,14 @@
         <v>202511</v>
       </c>
       <c r="O49" s="3"/>
-      <c r="P49" s="3" t="s">
-        <v>215</v>
-      </c>
+      <c r="P49" s="3"/>
       <c r="Q49" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>76668123</v>
+        <v>76668507</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>15</v>
@@ -4744,16 +4738,16 @@
         <v>17</v>
       </c>
       <c r="F50" s="3">
-        <v>20549404911</v>
+        <v>20569283753</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H50" s="3">
-        <v>20549404911</v>
+        <v>20569283753</v>
       </c>
       <c r="I50" s="4">
-        <v>46038</v>
+        <v>46037</v>
       </c>
       <c r="J50" s="7">
         <f t="shared" si="0"/>
@@ -4773,17 +4767,19 @@
         <v>202511</v>
       </c>
       <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
+      <c r="P50" s="3" t="s">
+        <v>218</v>
+      </c>
       <c r="Q50" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>76668507</v>
+        <v>76668094</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>42</v>
@@ -4795,27 +4791,27 @@
         <v>17</v>
       </c>
       <c r="F51" s="3">
-        <v>20569283753</v>
+        <v>20548290784</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H51" s="3">
-        <v>20569283753</v>
+        <v>20548290784</v>
       </c>
       <c r="I51" s="4">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="J51" s="7">
         <f t="shared" si="0"/>
-        <v>56.016949152542374</v>
+        <v>140.72033898305085</v>
       </c>
       <c r="K51" s="7">
         <f t="shared" si="1"/>
-        <v>10.083050847457628</v>
+        <v>25.329661016949153</v>
       </c>
       <c r="L51" s="8">
-        <v>66.099999999999994</v>
+        <v>166.05</v>
       </c>
       <c r="M51" s="3" t="s">
         <v>19</v>
@@ -4825,18 +4821,18 @@
       </c>
       <c r="O51" s="3"/>
       <c r="P51" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="52" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>76668094</v>
+        <v>76672071</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>42</v>
@@ -4848,27 +4844,27 @@
         <v>17</v>
       </c>
       <c r="F52" s="3">
-        <v>20548290784</v>
+        <v>20614087448</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H52" s="3">
-        <v>20548290784</v>
+        <v>20614087448</v>
       </c>
       <c r="I52" s="4">
         <v>46038</v>
       </c>
       <c r="J52" s="7">
         <f t="shared" si="0"/>
-        <v>140.72033898305085</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K52" s="7">
         <f t="shared" si="1"/>
-        <v>25.329661016949153</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L52" s="8">
-        <v>166.05</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>19</v>
@@ -4878,18 +4874,18 @@
       </c>
       <c r="O52" s="3"/>
       <c r="P52" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q52" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="53" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>76672071</v>
+        <v>76668410</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>42</v>
@@ -4901,13 +4897,13 @@
         <v>17</v>
       </c>
       <c r="F53" s="3">
-        <v>20614087448</v>
+        <v>20563278511</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H53" s="3">
-        <v>20614087448</v>
+        <v>20563278511</v>
       </c>
       <c r="I53" s="4">
         <v>46038</v>
@@ -4931,18 +4927,18 @@
       </c>
       <c r="O53" s="3"/>
       <c r="P53" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>76668410</v>
+        <v>76667641</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>42</v>
@@ -4954,16 +4950,16 @@
         <v>17</v>
       </c>
       <c r="F54" s="3">
-        <v>20563278511</v>
+        <v>20522811131</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H54" s="3">
-        <v>20563278511</v>
+        <v>20522811131</v>
       </c>
       <c r="I54" s="4">
-        <v>46038</v>
+        <v>46039</v>
       </c>
       <c r="J54" s="7">
         <f t="shared" si="0"/>
@@ -4984,18 +4980,18 @@
       </c>
       <c r="O54" s="3"/>
       <c r="P54" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="55" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>76667641</v>
+        <v>76667361</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>42</v>
@@ -5007,13 +5003,13 @@
         <v>17</v>
       </c>
       <c r="F55" s="3">
-        <v>20522811131</v>
+        <v>20505562047</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H55" s="3">
-        <v>20522811131</v>
+        <v>20505562047</v>
       </c>
       <c r="I55" s="4">
         <v>46039</v>
@@ -5033,22 +5029,22 @@
         <v>19</v>
       </c>
       <c r="N55" s="3">
-        <v>202511</v>
+        <v>202510</v>
       </c>
       <c r="O55" s="3"/>
       <c r="P55" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="56" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>76667361</v>
+        <v>76669549</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>42</v>
@@ -5060,13 +5056,13 @@
         <v>17</v>
       </c>
       <c r="F56" s="3">
-        <v>20505562047</v>
+        <v>20603418892</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H56" s="3">
-        <v>20505562047</v>
+        <v>20603418892</v>
       </c>
       <c r="I56" s="4">
         <v>46039</v>
@@ -5086,22 +5082,22 @@
         <v>19</v>
       </c>
       <c r="N56" s="3">
-        <v>202510</v>
+        <v>202511</v>
       </c>
       <c r="O56" s="3"/>
       <c r="P56" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>229</v>
+        <v>336</v>
       </c>
     </row>
     <row r="57" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>76669549</v>
+        <v>76669048</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>42</v>
@@ -5113,16 +5109,16 @@
         <v>17</v>
       </c>
       <c r="F57" s="3">
-        <v>20603418892</v>
+        <v>20601700329</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H57" s="3">
-        <v>20603418892</v>
+        <v>20601700329</v>
       </c>
       <c r="I57" s="4">
-        <v>46039</v>
+        <v>46036</v>
       </c>
       <c r="J57" s="7">
         <f t="shared" si="0"/>
@@ -5143,18 +5139,18 @@
       </c>
       <c r="O57" s="3"/>
       <c r="P57" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="58" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
-        <v>76669048</v>
+        <v>76667563</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>42</v>
@@ -5166,27 +5162,27 @@
         <v>17</v>
       </c>
       <c r="F58" s="3">
-        <v>20601700329</v>
+        <v>20517740781</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H58" s="3">
-        <v>20601700329</v>
+        <v>20517740781</v>
       </c>
       <c r="I58" s="4">
-        <v>46036</v>
+        <v>46041</v>
       </c>
       <c r="J58" s="7">
         <f t="shared" si="0"/>
-        <v>56.016949152542374</v>
+        <v>131.77966101694915</v>
       </c>
       <c r="K58" s="7">
         <f t="shared" si="1"/>
-        <v>10.083050847457628</v>
+        <v>23.720338983050844</v>
       </c>
       <c r="L58" s="8">
-        <v>66.099999999999994</v>
+        <v>155.5</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>19</v>
@@ -5196,15 +5192,15 @@
       </c>
       <c r="O58" s="3"/>
       <c r="P58" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q58" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="59" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>76667563</v>
+        <v>76671778</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>24</v>
@@ -5219,48 +5215,48 @@
         <v>17</v>
       </c>
       <c r="F59" s="3">
-        <v>20517740781</v>
+        <v>20612796182</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H59" s="3">
-        <v>20517740781</v>
+        <v>20612796182</v>
       </c>
       <c r="I59" s="4">
         <v>46041</v>
       </c>
       <c r="J59" s="7">
         <f t="shared" si="0"/>
-        <v>131.77966101694915</v>
+        <v>57.067796610169495</v>
       </c>
       <c r="K59" s="7">
         <f t="shared" si="1"/>
-        <v>23.720338983050844</v>
+        <v>10.272203389830509</v>
       </c>
       <c r="L59" s="8">
-        <v>155.5</v>
+        <v>67.34</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N59" s="3">
+        <v>202510</v>
+      </c>
+      <c r="O59" s="3">
         <v>202511</v>
       </c>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="P59" s="3"/>
       <c r="Q59" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="60" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <v>76671778</v>
+        <v>76670893</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>42</v>
@@ -5272,45 +5268,45 @@
         <v>17</v>
       </c>
       <c r="F60" s="3">
-        <v>20612796182</v>
+        <v>20609409453</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H60" s="3">
-        <v>20612796182</v>
+        <v>20609409453</v>
       </c>
       <c r="I60" s="4">
         <v>46041</v>
       </c>
       <c r="J60" s="7">
         <f t="shared" si="0"/>
-        <v>57.067796610169495</v>
+        <v>46.610169491525426</v>
       </c>
       <c r="K60" s="7">
         <f t="shared" si="1"/>
-        <v>10.272203389830509</v>
+        <v>8.3898305084745761</v>
       </c>
       <c r="L60" s="8">
-        <v>67.34</v>
+        <v>55</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N60" s="3">
-        <v>202510</v>
-      </c>
-      <c r="O60" s="3">
         <v>202511</v>
       </c>
-      <c r="P60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3" t="s">
+        <v>233</v>
+      </c>
       <c r="Q60" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="61" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>76670893</v>
+        <v>76670205</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>15</v>
@@ -5325,27 +5321,27 @@
         <v>17</v>
       </c>
       <c r="F61" s="3">
-        <v>20609409453</v>
+        <v>20606257733</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H61" s="3">
-        <v>20609409453</v>
+        <v>20606257733</v>
       </c>
       <c r="I61" s="4">
         <v>46041</v>
       </c>
       <c r="J61" s="7">
         <f t="shared" si="0"/>
-        <v>46.610169491525426</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K61" s="7">
         <f t="shared" si="1"/>
-        <v>8.3898305084745761</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L61" s="8">
-        <v>55</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M61" s="3" t="s">
         <v>19</v>
@@ -5355,18 +5351,18 @@
       </c>
       <c r="O61" s="3"/>
       <c r="P61" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="62" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
-        <v>76670205</v>
+        <v>76668864</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>42</v>
@@ -5378,13 +5374,13 @@
         <v>17</v>
       </c>
       <c r="F62" s="3">
-        <v>20606257733</v>
+        <v>20601136067</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H62" s="3">
-        <v>20606257733</v>
+        <v>20601136067</v>
       </c>
       <c r="I62" s="4">
         <v>46041</v>
@@ -5408,15 +5404,15 @@
       </c>
       <c r="O62" s="3"/>
       <c r="P62" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="63" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
-        <v>76668864</v>
+        <v>76670802</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>24</v>
@@ -5431,27 +5427,27 @@
         <v>17</v>
       </c>
       <c r="F63" s="3">
-        <v>20601136067</v>
+        <v>20609031728</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H63" s="3">
-        <v>20601136067</v>
+        <v>20609031728</v>
       </c>
       <c r="I63" s="4">
         <v>46041</v>
       </c>
       <c r="J63" s="7">
         <f t="shared" si="0"/>
-        <v>56.016949152542374</v>
+        <v>103.66101694915254</v>
       </c>
       <c r="K63" s="7">
         <f t="shared" si="1"/>
-        <v>10.083050847457628</v>
+        <v>18.658983050847457</v>
       </c>
       <c r="L63" s="8">
-        <v>66.099999999999994</v>
+        <v>122.32</v>
       </c>
       <c r="M63" s="3" t="s">
         <v>19</v>
@@ -5461,18 +5457,18 @@
       </c>
       <c r="O63" s="3"/>
       <c r="P63" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q63" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="64" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
-        <v>76670802</v>
+        <v>76671447</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>42</v>
@@ -5484,27 +5480,27 @@
         <v>17</v>
       </c>
       <c r="F64" s="3">
-        <v>20609031728</v>
+        <v>20611480611</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H64" s="3">
-        <v>20609031728</v>
+        <v>20611480611</v>
       </c>
       <c r="I64" s="4">
         <v>46041</v>
       </c>
       <c r="J64" s="7">
         <f t="shared" si="0"/>
-        <v>103.66101694915254</v>
+        <v>59.703389830508478</v>
       </c>
       <c r="K64" s="7">
         <f t="shared" si="1"/>
-        <v>18.658983050847457</v>
+        <v>10.746610169491525</v>
       </c>
       <c r="L64" s="8">
-        <v>122.32</v>
+        <v>70.45</v>
       </c>
       <c r="M64" s="3" t="s">
         <v>19</v>
@@ -5514,68 +5510,66 @@
       </c>
       <c r="O64" s="3"/>
       <c r="P64" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="65" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
-        <v>76671447</v>
+        <v>76702324</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>15</v>
+        <v>259</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F65" s="3">
-        <v>20611480611</v>
+        <v>20512090878</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H65" s="3">
-        <v>20611480611</v>
+        <v>20512090878</v>
       </c>
       <c r="I65" s="4">
         <v>46041</v>
       </c>
       <c r="J65" s="7">
-        <f t="shared" si="0"/>
-        <v>59.703389830508478</v>
+        <f t="shared" ref="J65:J164" si="2">+L65/1.18</f>
+        <v>58.627118644067806</v>
       </c>
       <c r="K65" s="7">
-        <f t="shared" si="1"/>
-        <v>10.746610169491525</v>
+        <f t="shared" ref="K65:K164" si="3">J65*0.18</f>
+        <v>10.552881355932204</v>
       </c>
       <c r="L65" s="8">
-        <v>70.45</v>
+        <v>69.180000000000007</v>
       </c>
       <c r="M65" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N65" s="3">
-        <v>202511</v>
+      <c r="N65" s="3" t="s">
+        <v>238</v>
       </c>
       <c r="O65" s="3"/>
-      <c r="P65" s="3" t="s">
-        <v>237</v>
-      </c>
+      <c r="P65" s="3"/>
       <c r="Q65" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="66" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
-        <v>76702324</v>
+        <v>76667847</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>259</v>
@@ -5584,49 +5578,49 @@
         <v>42</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F66" s="3">
-        <v>20512090878</v>
+        <v>20536391861</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H66" s="3">
-        <v>20512090878</v>
+        <v>20536391861</v>
       </c>
       <c r="I66" s="4">
-        <v>46041</v>
+        <v>46042</v>
       </c>
       <c r="J66" s="7">
-        <f t="shared" ref="J66:J165" si="2">+L66/1.18</f>
-        <v>58.627118644067806</v>
+        <f t="shared" si="2"/>
+        <v>56.016949152542374</v>
       </c>
       <c r="K66" s="7">
-        <f t="shared" ref="K66:K165" si="3">J66*0.18</f>
-        <v>10.552881355932204</v>
+        <f t="shared" si="3"/>
+        <v>10.083050847457628</v>
       </c>
       <c r="L66" s="8">
-        <v>69.180000000000007</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>238</v>
+      <c r="N66" s="3">
+        <v>202511</v>
       </c>
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
       <c r="Q66" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="67" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>76667847</v>
+        <v>76667362</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>259</v>
@@ -5641,13 +5635,13 @@
         <v>17</v>
       </c>
       <c r="F67" s="3">
-        <v>20536391861</v>
+        <v>20505605463</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H67" s="3">
-        <v>20536391861</v>
+        <v>20505605463</v>
       </c>
       <c r="I67" s="4">
         <v>46042</v>
@@ -5672,15 +5666,15 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="68" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
-        <v>76667362</v>
+        <v>76670624</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>259</v>
+        <v>24</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>42</v>
@@ -5692,27 +5686,27 @@
         <v>17</v>
       </c>
       <c r="F68" s="3">
-        <v>20505605463</v>
+        <v>20608311727</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H68" s="3">
-        <v>20505605463</v>
+        <v>20608311727</v>
       </c>
       <c r="I68" s="4">
-        <v>46042</v>
+        <v>46041</v>
       </c>
       <c r="J68" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>89.305084745762713</v>
       </c>
       <c r="K68" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>16.074915254237286</v>
       </c>
       <c r="L68" s="8">
-        <v>66.099999999999994</v>
+        <v>105.38</v>
       </c>
       <c r="M68" s="3" t="s">
         <v>19</v>
@@ -5721,17 +5715,19 @@
         <v>202511</v>
       </c>
       <c r="O68" s="3"/>
-      <c r="P68" s="3"/>
+      <c r="P68" s="3" t="s">
+        <v>239</v>
+      </c>
       <c r="Q68" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="69" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>76670624</v>
+        <v>76669801</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>42</v>
@@ -5743,48 +5739,48 @@
         <v>17</v>
       </c>
       <c r="F69" s="3">
-        <v>20608311727</v>
+        <v>20604632090</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H69" s="3">
-        <v>20608311727</v>
+        <v>20604632090</v>
       </c>
       <c r="I69" s="4">
-        <v>46041</v>
+        <v>46042</v>
       </c>
       <c r="J69" s="7">
         <f t="shared" si="2"/>
-        <v>89.305084745762713</v>
+        <v>91.525423728813564</v>
       </c>
       <c r="K69" s="7">
         <f t="shared" si="3"/>
-        <v>16.074915254237286</v>
+        <v>16.474576271186439</v>
       </c>
       <c r="L69" s="8">
-        <v>105.38</v>
+        <v>108</v>
       </c>
       <c r="M69" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N69" s="3">
-        <v>202511</v>
+      <c r="N69" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="O69" s="3"/>
       <c r="P69" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q69" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="70" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
-        <v>76669801</v>
+        <v>76671274</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>15</v>
+        <v>259</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>42</v>
@@ -5796,48 +5792,46 @@
         <v>17</v>
       </c>
       <c r="F70" s="3">
-        <v>20604632090</v>
+        <v>20610782770</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H70" s="3">
-        <v>20604632090</v>
+        <v>20610782770</v>
       </c>
       <c r="I70" s="4">
         <v>46042</v>
       </c>
       <c r="J70" s="7">
         <f t="shared" si="2"/>
-        <v>91.525423728813564</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K70" s="7">
         <f t="shared" si="3"/>
-        <v>16.474576271186439</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L70" s="8">
-        <v>108</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M70" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N70" s="3" t="s">
-        <v>167</v>
+      <c r="N70" s="3">
+        <v>202511</v>
       </c>
       <c r="O70" s="3"/>
-      <c r="P70" s="3" t="s">
-        <v>240</v>
-      </c>
+      <c r="P70" s="3"/>
       <c r="Q70" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="71" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <v>76671274</v>
+        <v>76671385</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>42</v>
@@ -5849,13 +5843,13 @@
         <v>17</v>
       </c>
       <c r="F71" s="3">
-        <v>20610782770</v>
+        <v>20611212721</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H71" s="3">
-        <v>20610782770</v>
+        <v>20611212721</v>
       </c>
       <c r="I71" s="4">
         <v>46042</v>
@@ -5878,14 +5872,16 @@
         <v>202511</v>
       </c>
       <c r="O71" s="3"/>
-      <c r="P71" s="3"/>
+      <c r="P71" s="3" t="s">
+        <v>241</v>
+      </c>
       <c r="Q71" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="72" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <v>76671385</v>
+        <v>76666597</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>15</v>
@@ -5900,13 +5896,13 @@
         <v>17</v>
       </c>
       <c r="F72" s="3">
-        <v>20611212721</v>
+        <v>46303014</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H72" s="3">
-        <v>20611212721</v>
+        <v>10463030141</v>
       </c>
       <c r="I72" s="4">
         <v>46042</v>
@@ -5930,18 +5926,18 @@
       </c>
       <c r="O72" s="3"/>
       <c r="P72" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="73" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
-        <v>76666597</v>
+        <v>76670759</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>15</v>
+        <v>259</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>42</v>
@@ -5953,13 +5949,13 @@
         <v>17</v>
       </c>
       <c r="F73" s="3">
-        <v>46303014</v>
+        <v>20608882503</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H73" s="3">
-        <v>10463030141</v>
+        <v>20608882503</v>
       </c>
       <c r="I73" s="4">
         <v>46042</v>
@@ -5978,20 +5974,18 @@
       <c r="M73" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N73" s="3">
-        <v>202511</v>
+      <c r="N73" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="O73" s="3"/>
-      <c r="P73" s="3" t="s">
-        <v>242</v>
-      </c>
+      <c r="P73" s="3"/>
       <c r="Q73" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="74" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
-        <v>76670759</v>
+        <v>76672196</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>259</v>
@@ -6006,13 +6000,13 @@
         <v>17</v>
       </c>
       <c r="F74" s="3">
-        <v>20608882503</v>
+        <v>20614810000</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H74" s="3">
-        <v>20608882503</v>
+        <v>20614810000</v>
       </c>
       <c r="I74" s="4">
         <v>46042</v>
@@ -6031,21 +6025,21 @@
       <c r="M74" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N74" s="3" t="s">
-        <v>142</v>
+      <c r="N74" s="3">
+        <v>202511</v>
       </c>
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
       <c r="Q74" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="75" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
-        <v>76672196</v>
+        <v>76670301</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>42</v>
@@ -6057,27 +6051,27 @@
         <v>17</v>
       </c>
       <c r="F75" s="3">
-        <v>20614810000</v>
+        <v>20606657537</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H75" s="3">
-        <v>20614810000</v>
+        <v>20606657537</v>
       </c>
       <c r="I75" s="4">
         <v>46042</v>
       </c>
       <c r="J75" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>116.94915254237289</v>
       </c>
       <c r="K75" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>21.050847457627118</v>
       </c>
       <c r="L75" s="8">
-        <v>66.099999999999994</v>
+        <v>138</v>
       </c>
       <c r="M75" s="3" t="s">
         <v>19</v>
@@ -6086,14 +6080,16 @@
         <v>202511</v>
       </c>
       <c r="O75" s="3"/>
-      <c r="P75" s="3"/>
+      <c r="P75" s="3" t="s">
+        <v>243</v>
+      </c>
       <c r="Q75" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="76" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
-        <v>76670301</v>
+        <v>76669487</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>15</v>
@@ -6108,27 +6104,27 @@
         <v>17</v>
       </c>
       <c r="F76" s="3">
-        <v>20606657537</v>
+        <v>20603163622</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H76" s="3">
-        <v>20606657537</v>
+        <v>20603163622</v>
       </c>
       <c r="I76" s="4">
         <v>46042</v>
       </c>
       <c r="J76" s="7">
         <f t="shared" si="2"/>
-        <v>116.94915254237289</v>
+        <v>65.855932203389827</v>
       </c>
       <c r="K76" s="7">
         <f t="shared" si="3"/>
-        <v>21.050847457627118</v>
+        <v>11.854067796610169</v>
       </c>
       <c r="L76" s="8">
-        <v>138</v>
+        <v>77.709999999999994</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>19</v>
@@ -6138,18 +6134,18 @@
       </c>
       <c r="O76" s="3"/>
       <c r="P76" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q76" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="77" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
-        <v>76669487</v>
+        <v>76669345</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>42</v>
@@ -6161,48 +6157,48 @@
         <v>17</v>
       </c>
       <c r="F77" s="3">
-        <v>20603163622</v>
+        <v>20602620787</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H77" s="3">
-        <v>20603163622</v>
+        <v>20602620787</v>
       </c>
       <c r="I77" s="4">
         <v>46042</v>
       </c>
       <c r="J77" s="7">
         <f t="shared" si="2"/>
-        <v>65.855932203389827</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K77" s="7">
         <f t="shared" si="3"/>
-        <v>11.854067796610169</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L77" s="8">
-        <v>77.709999999999994</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M77" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N77" s="3">
-        <v>202511</v>
+      <c r="N77" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="O77" s="3"/>
       <c r="P77" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q77" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="78" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
-        <v>76669345</v>
+        <v>76670397</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>258</v>
+        <v>24</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>42</v>
@@ -6214,48 +6210,46 @@
         <v>17</v>
       </c>
       <c r="F78" s="3">
-        <v>20602620787</v>
+        <v>20607244686</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H78" s="3">
-        <v>20602620787</v>
+        <v>20607244686</v>
       </c>
       <c r="I78" s="4">
         <v>46042</v>
       </c>
       <c r="J78" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>125.31355932203391</v>
       </c>
       <c r="K78" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>22.556440677966101</v>
       </c>
       <c r="L78" s="8">
-        <v>66.099999999999994</v>
+        <v>147.87</v>
       </c>
       <c r="M78" s="3" t="s">
         <v>19</v>
       </c>
       <c r="N78" s="3" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="O78" s="3"/>
-      <c r="P78" s="3" t="s">
-        <v>245</v>
-      </c>
+      <c r="P78" s="3"/>
       <c r="Q78" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="79" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
-        <v>76670397</v>
+        <v>76671255</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>24</v>
+        <v>258</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>42</v>
@@ -6267,46 +6261,48 @@
         <v>17</v>
       </c>
       <c r="F79" s="3">
-        <v>20607244686</v>
+        <v>20610702423</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H79" s="3">
-        <v>20607244686</v>
+        <v>20610702423</v>
       </c>
       <c r="I79" s="4">
         <v>46042</v>
       </c>
       <c r="J79" s="7">
         <f t="shared" si="2"/>
-        <v>125.31355932203391</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K79" s="7">
         <f t="shared" si="3"/>
-        <v>22.556440677966101</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L79" s="8">
-        <v>147.87</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M79" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N79" s="3" t="s">
-        <v>167</v>
+      <c r="N79" s="3">
+        <v>202511</v>
       </c>
       <c r="O79" s="3"/>
-      <c r="P79" s="3"/>
+      <c r="P79" s="3" t="s">
+        <v>246</v>
+      </c>
       <c r="Q79" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="80" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
-        <v>76671255</v>
+        <v>76670904</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>42</v>
@@ -6318,16 +6314,16 @@
         <v>17</v>
       </c>
       <c r="F80" s="3">
-        <v>20610702423</v>
+        <v>20609447665</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H80" s="3">
-        <v>20610702423</v>
+        <v>20609447665</v>
       </c>
       <c r="I80" s="4">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="J80" s="7">
         <f t="shared" si="2"/>
@@ -6344,22 +6340,20 @@
         <v>19</v>
       </c>
       <c r="N80" s="3">
-        <v>202511</v>
+        <v>202510</v>
       </c>
       <c r="O80" s="3"/>
-      <c r="P80" s="3" t="s">
-        <v>246</v>
-      </c>
+      <c r="P80" s="3"/>
       <c r="Q80" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="81" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
-        <v>76670904</v>
+        <v>76669898</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>42</v>
@@ -6371,43 +6365,45 @@
         <v>17</v>
       </c>
       <c r="F81" s="3">
-        <v>20609447665</v>
+        <v>20605108955</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H81" s="3">
-        <v>20609447665</v>
+        <v>20605108955</v>
       </c>
       <c r="I81" s="4">
-        <v>46043</v>
+        <v>46035</v>
       </c>
       <c r="J81" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>57.872881355932215</v>
       </c>
       <c r="K81" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>10.417118644067799</v>
       </c>
       <c r="L81" s="8">
-        <v>66.099999999999994</v>
+        <v>68.290000000000006</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N81" s="3">
-        <v>202510</v>
+      <c r="N81" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="O81" s="3"/>
-      <c r="P81" s="3"/>
+      <c r="P81" s="3" t="s">
+        <v>247</v>
+      </c>
       <c r="Q81" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="82" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
-        <v>76669898</v>
+        <v>76669647</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>15</v>
@@ -6422,45 +6418,45 @@
         <v>17</v>
       </c>
       <c r="F82" s="3">
-        <v>20605108955</v>
+        <v>20603847424</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H82" s="3">
-        <v>20605108955</v>
+        <v>20603847424</v>
       </c>
       <c r="I82" s="4">
-        <v>46035</v>
+        <v>46042</v>
       </c>
       <c r="J82" s="7">
         <f t="shared" si="2"/>
-        <v>57.872881355932215</v>
+        <v>118.64406779661017</v>
       </c>
       <c r="K82" s="7">
         <f t="shared" si="3"/>
-        <v>10.417118644067799</v>
+        <v>21.35593220338983</v>
       </c>
       <c r="L82" s="8">
-        <v>68.290000000000006</v>
+        <v>140</v>
       </c>
       <c r="M82" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N82" s="3" t="s">
-        <v>167</v>
+      <c r="N82" s="3">
+        <v>202511</v>
       </c>
       <c r="O82" s="3"/>
       <c r="P82" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q82" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="83" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
-        <v>76669647</v>
+        <v>76666783</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>15</v>
@@ -6475,27 +6471,27 @@
         <v>17</v>
       </c>
       <c r="F83" s="3">
-        <v>20603847424</v>
+        <v>20294112805</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H83" s="3">
-        <v>20603847424</v>
+        <v>20294112805</v>
       </c>
       <c r="I83" s="4">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="J83" s="7">
         <f t="shared" si="2"/>
-        <v>118.64406779661017</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K83" s="7">
         <f t="shared" si="3"/>
-        <v>21.35593220338983</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L83" s="8">
-        <v>140</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>19</v>
@@ -6505,18 +6501,18 @@
       </c>
       <c r="O83" s="3"/>
       <c r="P83" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q83" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="84" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
-        <v>76666783</v>
+        <v>76669795</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>42</v>
@@ -6528,13 +6524,13 @@
         <v>17</v>
       </c>
       <c r="F84" s="3">
-        <v>20294112805</v>
+        <v>20604582050</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H84" s="3">
-        <v>20294112805</v>
+        <v>20604582050</v>
       </c>
       <c r="I84" s="4">
         <v>46043</v>
@@ -6553,23 +6549,23 @@
       <c r="M84" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N84" s="3">
-        <v>202511</v>
+      <c r="N84" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="O84" s="3"/>
       <c r="P84" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q84" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="85" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
-        <v>76669795</v>
+        <v>76672051</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>42</v>
@@ -6581,48 +6577,48 @@
         <v>17</v>
       </c>
       <c r="F85" s="3">
-        <v>20604582050</v>
+        <v>20613984608</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H85" s="3">
-        <v>20604582050</v>
+        <v>20613984608</v>
       </c>
       <c r="I85" s="4">
         <v>46043</v>
       </c>
       <c r="J85" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>69.491525423728817</v>
       </c>
       <c r="K85" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>12.508474576271187</v>
       </c>
       <c r="L85" s="8">
-        <v>66.099999999999994</v>
+        <v>82</v>
       </c>
       <c r="M85" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N85" s="3" t="s">
-        <v>167</v>
+      <c r="N85" s="3">
+        <v>202511</v>
       </c>
       <c r="O85" s="3"/>
       <c r="P85" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q85" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="86" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
-        <v>76672051</v>
+        <v>76667292</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>42</v>
@@ -6634,27 +6630,27 @@
         <v>17</v>
       </c>
       <c r="F86" s="3">
-        <v>20613984608</v>
+        <v>20495014551</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H86" s="3">
-        <v>20613984608</v>
+        <v>20495014551</v>
       </c>
       <c r="I86" s="4">
         <v>46043</v>
       </c>
       <c r="J86" s="7">
         <f t="shared" si="2"/>
-        <v>69.491525423728817</v>
+        <v>153.76271186440678</v>
       </c>
       <c r="K86" s="7">
         <f t="shared" si="3"/>
-        <v>12.508474576271187</v>
+        <v>27.677288135593219</v>
       </c>
       <c r="L86" s="8">
-        <v>82</v>
+        <v>181.44</v>
       </c>
       <c r="M86" s="3" t="s">
         <v>19</v>
@@ -6663,19 +6659,17 @@
         <v>202511</v>
       </c>
       <c r="O86" s="3"/>
-      <c r="P86" s="3" t="s">
-        <v>251</v>
-      </c>
+      <c r="P86" s="3"/>
       <c r="Q86" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="87" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
-        <v>76667292</v>
+        <v>76671216</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>42</v>
@@ -6687,27 +6681,27 @@
         <v>17</v>
       </c>
       <c r="F87" s="3">
-        <v>20495014551</v>
+        <v>20610550984</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H87" s="3">
-        <v>20495014551</v>
+        <v>20610550984</v>
       </c>
       <c r="I87" s="4">
         <v>46043</v>
       </c>
       <c r="J87" s="7">
         <f t="shared" si="2"/>
-        <v>153.76271186440678</v>
+        <v>72.881355932203391</v>
       </c>
       <c r="K87" s="7">
         <f t="shared" si="3"/>
-        <v>27.677288135593219</v>
+        <v>13.118644067796611</v>
       </c>
       <c r="L87" s="8">
-        <v>181.44</v>
+        <v>86</v>
       </c>
       <c r="M87" s="3" t="s">
         <v>19</v>
@@ -6716,17 +6710,19 @@
         <v>202511</v>
       </c>
       <c r="O87" s="3"/>
-      <c r="P87" s="3"/>
+      <c r="P87" s="3" t="s">
+        <v>252</v>
+      </c>
       <c r="Q87" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="88" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
-        <v>76671216</v>
+        <v>76668295</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>42</v>
@@ -6738,48 +6734,50 @@
         <v>17</v>
       </c>
       <c r="F88" s="3">
-        <v>20610550984</v>
+        <v>20555831294</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H88" s="3">
-        <v>20610550984</v>
+        <v>20555831294</v>
       </c>
       <c r="I88" s="4">
         <v>46043</v>
       </c>
       <c r="J88" s="7">
         <f t="shared" si="2"/>
-        <v>72.881355932203391</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K88" s="7">
         <f t="shared" si="3"/>
-        <v>13.118644067796611</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L88" s="8">
-        <v>86</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N88" s="3">
+        <v>202510</v>
+      </c>
+      <c r="O88" s="3">
         <v>202511</v>
       </c>
-      <c r="O88" s="3"/>
       <c r="P88" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q88" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="89" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
-        <v>76668295</v>
+        <v>76670849</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>258</v>
+        <v>15</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>42</v>
@@ -6791,47 +6789,45 @@
         <v>17</v>
       </c>
       <c r="F89" s="3">
-        <v>20555831294</v>
+        <v>20609234157</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H89" s="3">
-        <v>20555831294</v>
+        <v>20609234157</v>
       </c>
       <c r="I89" s="4">
-        <v>46043</v>
+        <v>46042</v>
       </c>
       <c r="J89" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>98.305084745762713</v>
       </c>
       <c r="K89" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>17.694915254237287</v>
       </c>
       <c r="L89" s="8">
-        <v>66.099999999999994</v>
+        <v>116</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N89" s="3">
-        <v>202510</v>
-      </c>
-      <c r="O89" s="3">
-        <v>202511</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="O89" s="3"/>
       <c r="P89" s="3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q89" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="90" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
-        <v>76670849</v>
+        <v>76671712</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>15</v>
@@ -6846,45 +6842,45 @@
         <v>17</v>
       </c>
       <c r="F90" s="3">
-        <v>20609234157</v>
+        <v>20612494127</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H90" s="3">
-        <v>20609234157</v>
+        <v>20612494127</v>
       </c>
       <c r="I90" s="4">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="J90" s="7">
         <f t="shared" si="2"/>
-        <v>98.305084745762713</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K90" s="7">
         <f t="shared" si="3"/>
-        <v>17.694915254237287</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L90" s="8">
-        <v>116</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M90" s="3" t="s">
         <v>19</v>
       </c>
       <c r="N90" s="3" t="s">
-        <v>254</v>
+        <v>142</v>
       </c>
       <c r="O90" s="3"/>
       <c r="P90" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q90" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="91" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
-        <v>76671712</v>
+        <v>76667875</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>15</v>
@@ -6899,48 +6895,48 @@
         <v>17</v>
       </c>
       <c r="F91" s="3">
-        <v>20612494127</v>
+        <v>20537572273</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H91" s="3">
-        <v>20612494127</v>
+        <v>20537572273</v>
       </c>
       <c r="I91" s="4">
         <v>46043</v>
       </c>
       <c r="J91" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>142.37288135593221</v>
       </c>
       <c r="K91" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>25.627118644067796</v>
       </c>
       <c r="L91" s="8">
-        <v>66.099999999999994</v>
+        <v>168</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>142</v>
+      <c r="N91" s="3">
+        <v>202511</v>
       </c>
       <c r="O91" s="3"/>
       <c r="P91" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q91" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="92" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
-        <v>76667875</v>
+        <v>76671214</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>42</v>
@@ -6952,27 +6948,27 @@
         <v>17</v>
       </c>
       <c r="F92" s="3">
-        <v>20537572273</v>
+        <v>20610550429</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>125</v>
+        <v>260</v>
       </c>
       <c r="H92" s="3">
-        <v>20537572273</v>
+        <v>20610550429</v>
       </c>
       <c r="I92" s="4">
-        <v>46043</v>
+        <v>46044</v>
       </c>
       <c r="J92" s="7">
         <f t="shared" si="2"/>
-        <v>142.37288135593221</v>
+        <v>56.779661016949156</v>
       </c>
       <c r="K92" s="7">
         <f t="shared" si="3"/>
-        <v>25.627118644067796</v>
+        <v>10.220338983050848</v>
       </c>
       <c r="L92" s="8">
-        <v>168</v>
+        <v>67</v>
       </c>
       <c r="M92" s="3" t="s">
         <v>19</v>
@@ -6982,15 +6978,15 @@
       </c>
       <c r="O92" s="3"/>
       <c r="P92" s="3" t="s">
-        <v>257</v>
+        <v>372</v>
       </c>
       <c r="Q92" s="3" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="93" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
-        <v>76671214</v>
+        <v>76666654</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>258</v>
@@ -7005,48 +7001,46 @@
         <v>17</v>
       </c>
       <c r="F93" s="3">
-        <v>20610550429</v>
+        <v>73421054</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H93" s="3">
-        <v>20610550429</v>
+        <v>10734210540</v>
       </c>
       <c r="I93" s="4">
         <v>46044</v>
       </c>
       <c r="J93" s="7">
         <f t="shared" si="2"/>
-        <v>56.779661016949156</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K93" s="7">
         <f t="shared" si="3"/>
-        <v>10.220338983050848</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L93" s="8">
-        <v>67</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M93" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N93" s="3">
-        <v>202511</v>
+      <c r="N93" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="O93" s="3"/>
-      <c r="P93" s="3" t="s">
-        <v>372</v>
-      </c>
+      <c r="P93" s="3"/>
       <c r="Q93" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="94" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
-        <v>76666654</v>
+        <v>76669233</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>258</v>
+        <v>24</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>42</v>
@@ -7058,27 +7052,27 @@
         <v>17</v>
       </c>
       <c r="F94" s="3">
-        <v>73421054</v>
+        <v>20602296581</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H94" s="3">
-        <v>10734210540</v>
+        <v>20602296581</v>
       </c>
       <c r="I94" s="4">
         <v>46044</v>
       </c>
       <c r="J94" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>105.29661016949153</v>
       </c>
       <c r="K94" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>18.953389830508474</v>
       </c>
       <c r="L94" s="8">
-        <v>66.099999999999994</v>
+        <v>124.25</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>19</v>
@@ -7087,17 +7081,19 @@
         <v>142</v>
       </c>
       <c r="O94" s="3"/>
-      <c r="P94" s="3"/>
+      <c r="P94" s="3" t="s">
+        <v>375</v>
+      </c>
       <c r="Q94" s="3" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="95" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
-        <v>76669233</v>
+        <v>76669022</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>42</v>
@@ -7109,48 +7105,46 @@
         <v>17</v>
       </c>
       <c r="F95" s="3">
-        <v>20602296581</v>
+        <v>20601592771</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H95" s="3">
-        <v>20602296581</v>
+        <v>20601592771</v>
       </c>
       <c r="I95" s="4">
         <v>46044</v>
       </c>
       <c r="J95" s="7">
         <f t="shared" si="2"/>
-        <v>105.29661016949153</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K95" s="7">
         <f t="shared" si="3"/>
-        <v>18.953389830508474</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L95" s="8">
-        <v>124.25</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M95" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N95" s="3" t="s">
-        <v>142</v>
+      <c r="N95" s="3">
+        <v>202511</v>
       </c>
       <c r="O95" s="3"/>
-      <c r="P95" s="3" t="s">
-        <v>375</v>
-      </c>
+      <c r="P95" s="3"/>
       <c r="Q95" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="96" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
-        <v>76669022</v>
+        <v>76667695</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>259</v>
+        <v>24</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>42</v>
@@ -7162,46 +7156,48 @@
         <v>17</v>
       </c>
       <c r="F96" s="3">
-        <v>20601592771</v>
+        <v>20525845070</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H96" s="3">
-        <v>20601592771</v>
+        <v>20525845070</v>
       </c>
       <c r="I96" s="4">
         <v>46044</v>
       </c>
       <c r="J96" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>70.508474576271198</v>
       </c>
       <c r="K96" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>12.691525423728814</v>
       </c>
       <c r="L96" s="8">
-        <v>66.099999999999994</v>
+        <v>83.2</v>
       </c>
       <c r="M96" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N96" s="3">
-        <v>202511</v>
+      <c r="N96" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="O96" s="3"/>
-      <c r="P96" s="3"/>
+      <c r="P96" s="3" t="s">
+        <v>378</v>
+      </c>
       <c r="Q96" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="97" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
-        <v>76667695</v>
+        <v>76667501</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>42</v>
@@ -7213,45 +7209,45 @@
         <v>17</v>
       </c>
       <c r="F97" s="3">
-        <v>20525845070</v>
+        <v>20514380270</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H97" s="3">
-        <v>20525845070</v>
+        <v>20514380270</v>
       </c>
       <c r="I97" s="4">
         <v>46044</v>
       </c>
       <c r="J97" s="7">
         <f t="shared" si="2"/>
-        <v>70.508474576271198</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K97" s="7">
         <f t="shared" si="3"/>
-        <v>12.691525423728814</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L97" s="8">
-        <v>83.2</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M97" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N97" s="3" t="s">
-        <v>142</v>
+      <c r="N97" s="3">
+        <v>202511</v>
       </c>
       <c r="O97" s="3"/>
       <c r="P97" s="3" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q97" s="3" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="98" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
-        <v>76667501</v>
+        <v>76667372</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>15</v>
@@ -7266,13 +7262,13 @@
         <v>17</v>
       </c>
       <c r="F98" s="3">
-        <v>20514380270</v>
+        <v>20506613001</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H98" s="3">
-        <v>20514380270</v>
+        <v>20506613001</v>
       </c>
       <c r="I98" s="4">
         <v>46044</v>
@@ -7296,15 +7292,15 @@
       </c>
       <c r="O98" s="3"/>
       <c r="P98" s="3" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q98" s="3" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="99" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
-        <v>76667372</v>
+        <v>76668481</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>15</v>
@@ -7319,48 +7315,48 @@
         <v>17</v>
       </c>
       <c r="F99" s="3">
-        <v>20506613001</v>
+        <v>20567257178</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H99" s="3">
-        <v>20506613001</v>
+        <v>20567257178</v>
       </c>
       <c r="I99" s="4">
         <v>46044</v>
       </c>
       <c r="J99" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>72.033898305084747</v>
       </c>
       <c r="K99" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>12.966101694915254</v>
       </c>
       <c r="L99" s="8">
-        <v>66.099999999999994</v>
+        <v>85</v>
       </c>
       <c r="M99" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N99" s="3">
-        <v>202511</v>
+      <c r="N99" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="O99" s="3"/>
       <c r="P99" s="3" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q99" s="3" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="100" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
-        <v>76668481</v>
+        <v>76670868</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>42</v>
@@ -7372,48 +7368,48 @@
         <v>17</v>
       </c>
       <c r="F100" s="3">
-        <v>20567257178</v>
+        <v>20609309823</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H100" s="3">
-        <v>20567257178</v>
+        <v>20609309823</v>
       </c>
       <c r="I100" s="4">
         <v>46044</v>
       </c>
       <c r="J100" s="7">
         <f t="shared" si="2"/>
-        <v>72.033898305084747</v>
+        <v>63.788135593220339</v>
       </c>
       <c r="K100" s="7">
         <f t="shared" si="3"/>
-        <v>12.966101694915254</v>
+        <v>11.48186440677966</v>
       </c>
       <c r="L100" s="8">
-        <v>85</v>
+        <v>75.27</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>19</v>
       </c>
       <c r="N100" s="3" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="O100" s="3"/>
       <c r="P100" s="3" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q100" s="3" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="101" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
-        <v>76670868</v>
+        <v>76671534</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>42</v>
@@ -7425,45 +7421,43 @@
         <v>17</v>
       </c>
       <c r="F101" s="3">
-        <v>20609309823</v>
+        <v>20611826509</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H101" s="3">
-        <v>20609309823</v>
+        <v>20611826509</v>
       </c>
       <c r="I101" s="4">
         <v>46044</v>
       </c>
       <c r="J101" s="7">
         <f t="shared" si="2"/>
-        <v>63.788135593220339</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K101" s="7">
         <f t="shared" si="3"/>
-        <v>11.48186440677966</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L101" s="8">
-        <v>75.27</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>167</v>
+      <c r="N101" s="3">
+        <v>202511</v>
       </c>
       <c r="O101" s="3"/>
-      <c r="P101" s="3" t="s">
-        <v>386</v>
-      </c>
+      <c r="P101" s="3"/>
       <c r="Q101" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="102" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
-        <v>76671534</v>
+        <v>76667806</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>259</v>
@@ -7478,13 +7472,13 @@
         <v>17</v>
       </c>
       <c r="F102" s="3">
-        <v>20611826509</v>
+        <v>20534796855</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H102" s="3">
-        <v>20611826509</v>
+        <v>20534796855</v>
       </c>
       <c r="I102" s="4">
         <v>46044</v>
@@ -7509,12 +7503,12 @@
       <c r="O102" s="3"/>
       <c r="P102" s="3"/>
       <c r="Q102" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="103" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
-        <v>76667806</v>
+        <v>76666856</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>259</v>
@@ -7529,16 +7523,16 @@
         <v>17</v>
       </c>
       <c r="F103" s="3">
-        <v>20534796855</v>
+        <v>20393042100</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H103" s="3">
-        <v>20534796855</v>
+        <v>20393042100</v>
       </c>
       <c r="I103" s="4">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="J103" s="7">
         <f t="shared" si="2"/>
@@ -7560,12 +7554,12 @@
       <c r="O103" s="3"/>
       <c r="P103" s="3"/>
       <c r="Q103" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="104" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
-        <v>76666856</v>
+        <v>76668286</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>259</v>
@@ -7580,13 +7574,13 @@
         <v>17</v>
       </c>
       <c r="F104" s="3">
-        <v>20393042100</v>
+        <v>20555612142</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H104" s="3">
-        <v>20393042100</v>
+        <v>20555612142</v>
       </c>
       <c r="I104" s="4">
         <v>46045</v>
@@ -7611,15 +7605,15 @@
       <c r="O104" s="3"/>
       <c r="P104" s="3"/>
       <c r="Q104" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="105" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
-        <v>76668286</v>
+        <v>76666407</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>42</v>
@@ -7631,13 +7625,13 @@
         <v>17</v>
       </c>
       <c r="F105" s="3">
-        <v>20555612142</v>
+        <v>25753474</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H105" s="3">
-        <v>20555612142</v>
+        <v>10257534745</v>
       </c>
       <c r="I105" s="4">
         <v>46045</v>
@@ -7656,42 +7650,44 @@
       <c r="M105" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N105" s="3">
-        <v>202511</v>
+      <c r="N105" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="O105" s="3"/>
-      <c r="P105" s="3"/>
+      <c r="P105" s="3" t="s">
+        <v>392</v>
+      </c>
       <c r="Q105" s="3" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="106" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
-        <v>76666407</v>
+        <v>76697684</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F106" s="3">
-        <v>25753474</v>
+        <v>20106873900</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H106" s="3">
-        <v>10257534745</v>
+        <v>20106873900</v>
       </c>
       <c r="I106" s="4">
-        <v>46045</v>
+        <v>46041</v>
       </c>
       <c r="J106" s="7">
         <f t="shared" si="2"/>
@@ -7707,44 +7703,44 @@
       <c r="M106" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N106" s="3" t="s">
-        <v>142</v>
+      <c r="N106" s="3">
+        <v>202511</v>
       </c>
       <c r="O106" s="3"/>
       <c r="P106" s="3" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q106" s="3" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="107" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
-        <v>76697684</v>
+        <v>76669832</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>258</v>
+        <v>15</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F107" s="3">
-        <v>20106873900</v>
+        <v>20604803625</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H107" s="3">
-        <v>20106873900</v>
+        <v>20604803625</v>
       </c>
       <c r="I107" s="4">
-        <v>46041</v>
+        <v>46045</v>
       </c>
       <c r="J107" s="7">
         <f t="shared" si="2"/>
@@ -7765,36 +7761,36 @@
       </c>
       <c r="O107" s="3"/>
       <c r="P107" s="3" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q107" s="3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="108" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
-        <v>76669832</v>
+        <v>76680507</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F108" s="3">
-        <v>20604803625</v>
+        <v>20549168923</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H108" s="3">
-        <v>20604803625</v>
+        <v>20549168923</v>
       </c>
       <c r="I108" s="4">
         <v>46045</v>
@@ -7814,43 +7810,43 @@
         <v>19</v>
       </c>
       <c r="N108" s="3">
-        <v>202511</v>
+        <v>201705</v>
       </c>
       <c r="O108" s="3"/>
       <c r="P108" s="3" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q108" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="109" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
-        <v>76680507</v>
+        <v>76668439</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F109" s="3">
-        <v>20549168923</v>
+        <v>20564338215</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H109" s="3">
-        <v>20549168923</v>
+        <v>20564338215</v>
       </c>
       <c r="I109" s="4">
-        <v>46045</v>
+        <v>46041</v>
       </c>
       <c r="J109" s="7">
         <f t="shared" si="2"/>
@@ -7866,20 +7862,20 @@
       <c r="M109" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N109" s="3">
-        <v>201705</v>
+      <c r="N109" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="O109" s="3"/>
       <c r="P109" s="3" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q109" s="3" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="110" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
-        <v>76668439</v>
+        <v>76668272</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>15</v>
@@ -7894,48 +7890,48 @@
         <v>17</v>
       </c>
       <c r="F110" s="3">
-        <v>20564338215</v>
+        <v>20555041722</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H110" s="3">
-        <v>20564338215</v>
+        <v>20555041722</v>
       </c>
       <c r="I110" s="4">
-        <v>46041</v>
+        <v>46045</v>
       </c>
       <c r="J110" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>254.23728813559325</v>
       </c>
       <c r="K110" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>45.762711864406782</v>
       </c>
       <c r="L110" s="8">
-        <v>66.099999999999994</v>
+        <v>300</v>
       </c>
       <c r="M110" s="3" t="s">
         <v>19</v>
       </c>
       <c r="N110" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="O110" s="3"/>
       <c r="P110" s="3" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q110" s="3" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="111" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
-        <v>76668272</v>
+        <v>76669009</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>42</v>
@@ -7947,48 +7943,48 @@
         <v>17</v>
       </c>
       <c r="F111" s="3">
-        <v>20555041722</v>
+        <v>20601550335</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H111" s="3">
-        <v>20555041722</v>
+        <v>20601550335</v>
       </c>
       <c r="I111" s="4">
-        <v>46045</v>
+        <v>46037</v>
       </c>
       <c r="J111" s="7">
         <f t="shared" si="2"/>
-        <v>254.23728813559325</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K111" s="7">
         <f t="shared" si="3"/>
-        <v>45.762711864406782</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L111" s="8">
-        <v>300</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M111" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N111" s="3" t="s">
-        <v>145</v>
+      <c r="N111" s="3">
+        <v>202511</v>
       </c>
       <c r="O111" s="3"/>
       <c r="P111" s="3" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q111" s="3" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="112" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
-        <v>76669009</v>
+        <v>76671328</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>42</v>
@@ -8000,16 +7996,16 @@
         <v>17</v>
       </c>
       <c r="F112" s="3">
-        <v>20601550335</v>
+        <v>20611010690</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H112" s="3">
-        <v>20601550335</v>
+        <v>20611010690</v>
       </c>
       <c r="I112" s="4">
-        <v>46037</v>
+        <v>46045</v>
       </c>
       <c r="J112" s="7">
         <f t="shared" si="2"/>
@@ -8029,19 +8025,17 @@
         <v>202511</v>
       </c>
       <c r="O112" s="3"/>
-      <c r="P112" s="3" t="s">
-        <v>404</v>
-      </c>
+      <c r="P112" s="3"/>
       <c r="Q112" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="113" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
-        <v>76671328</v>
+        <v>76667358</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>259</v>
+        <v>24</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>42</v>
@@ -8053,27 +8047,27 @@
         <v>17</v>
       </c>
       <c r="F113" s="3">
-        <v>20611010690</v>
+        <v>20505392702</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H113" s="3">
-        <v>20611010690</v>
+        <v>20505392702</v>
       </c>
       <c r="I113" s="4">
         <v>46045</v>
       </c>
       <c r="J113" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>67.79661016949153</v>
       </c>
       <c r="K113" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>12.203389830508474</v>
       </c>
       <c r="L113" s="8">
-        <v>66.099999999999994</v>
+        <v>80</v>
       </c>
       <c r="M113" s="3" t="s">
         <v>19</v>
@@ -8082,17 +8076,19 @@
         <v>202511</v>
       </c>
       <c r="O113" s="3"/>
-      <c r="P113" s="3"/>
+      <c r="P113" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="Q113" s="3" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="114" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
-        <v>76667358</v>
+        <v>76667636</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>42</v>
@@ -8104,48 +8100,48 @@
         <v>17</v>
       </c>
       <c r="F114" s="3">
-        <v>20505392702</v>
+        <v>20522359441</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H114" s="3">
-        <v>20505392702</v>
+        <v>20522359441</v>
       </c>
       <c r="I114" s="4">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="J114" s="7">
         <f t="shared" si="2"/>
-        <v>67.79661016949153</v>
+        <v>58.101694915254242</v>
       </c>
       <c r="K114" s="7">
         <f t="shared" si="3"/>
-        <v>12.203389830508474</v>
+        <v>10.458305084745763</v>
       </c>
       <c r="L114" s="8">
-        <v>80</v>
+        <v>68.56</v>
       </c>
       <c r="M114" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N114" s="3">
-        <v>202511</v>
+      <c r="N114" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="O114" s="3"/>
       <c r="P114" s="3" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q114" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="115" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
-        <v>76667636</v>
+        <v>76671715</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>15</v>
+        <v>259</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>42</v>
@@ -8157,48 +8153,46 @@
         <v>17</v>
       </c>
       <c r="F115" s="3">
-        <v>20522359441</v>
+        <v>20612506087</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H115" s="3">
-        <v>20522359441</v>
+        <v>20612506087</v>
       </c>
       <c r="I115" s="4">
-        <v>46046</v>
+        <v>46045</v>
       </c>
       <c r="J115" s="7">
         <f t="shared" si="2"/>
-        <v>58.101694915254242</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K115" s="7">
         <f t="shared" si="3"/>
-        <v>10.458305084745763</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L115" s="8">
-        <v>68.56</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M115" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N115" s="3" t="s">
-        <v>167</v>
+      <c r="N115" s="3">
+        <v>202511</v>
       </c>
       <c r="O115" s="3"/>
-      <c r="P115" s="3" t="s">
-        <v>409</v>
-      </c>
+      <c r="P115" s="3"/>
       <c r="Q115" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="116" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
-        <v>76671715</v>
+        <v>76670210</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>42</v>
@@ -8210,27 +8204,27 @@
         <v>17</v>
       </c>
       <c r="F116" s="3">
-        <v>20612506087</v>
+        <v>20606261471</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H116" s="3">
-        <v>20612506087</v>
+        <v>20606261471</v>
       </c>
       <c r="I116" s="4">
-        <v>46045</v>
+        <v>46048</v>
       </c>
       <c r="J116" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>63.559322033898312</v>
       </c>
       <c r="K116" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>11.440677966101696</v>
       </c>
       <c r="L116" s="8">
-        <v>66.099999999999994</v>
+        <v>75</v>
       </c>
       <c r="M116" s="3" t="s">
         <v>19</v>
@@ -8239,17 +8233,19 @@
         <v>202511</v>
       </c>
       <c r="O116" s="3"/>
-      <c r="P116" s="3"/>
+      <c r="P116" s="3" t="s">
+        <v>412</v>
+      </c>
       <c r="Q116" s="3" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="117" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
-        <v>76670210</v>
+        <v>76666707</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>15</v>
+        <v>259</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>42</v>
@@ -8261,27 +8257,27 @@
         <v>17</v>
       </c>
       <c r="F117" s="3">
-        <v>20606261471</v>
+        <v>20107086995</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H117" s="3">
-        <v>20606261471</v>
+        <v>20107086995</v>
       </c>
       <c r="I117" s="4">
         <v>46048</v>
       </c>
       <c r="J117" s="7">
         <f t="shared" si="2"/>
-        <v>63.559322033898312</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K117" s="7">
         <f t="shared" si="3"/>
-        <v>11.440677966101696</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L117" s="8">
-        <v>75</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M117" s="3" t="s">
         <v>19</v>
@@ -8290,16 +8286,14 @@
         <v>202511</v>
       </c>
       <c r="O117" s="3"/>
-      <c r="P117" s="3" t="s">
-        <v>412</v>
-      </c>
+      <c r="P117" s="3"/>
       <c r="Q117" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="118" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
-        <v>76666707</v>
+        <v>76666245</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>259</v>
@@ -8314,16 +8308,16 @@
         <v>17</v>
       </c>
       <c r="F118" s="3">
-        <v>20107086995</v>
+        <v>4822038</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H118" s="3">
-        <v>20107086995</v>
+        <v>10048220385</v>
       </c>
       <c r="I118" s="4">
-        <v>46048</v>
+        <v>46044</v>
       </c>
       <c r="J118" s="7">
         <f t="shared" si="2"/>
@@ -8345,15 +8339,15 @@
       <c r="O118" s="3"/>
       <c r="P118" s="3"/>
       <c r="Q118" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="119" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
-        <v>76666245</v>
+        <v>76671029</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>42</v>
@@ -8365,27 +8359,27 @@
         <v>17</v>
       </c>
       <c r="F119" s="3">
-        <v>4822038</v>
+        <v>20609870151</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H119" s="3">
-        <v>10048220385</v>
+        <v>20609870151</v>
       </c>
       <c r="I119" s="4">
-        <v>46044</v>
+        <v>46048</v>
       </c>
       <c r="J119" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>79.66101694915254</v>
       </c>
       <c r="K119" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>14.338983050847457</v>
       </c>
       <c r="L119" s="8">
-        <v>66.099999999999994</v>
+        <v>94</v>
       </c>
       <c r="M119" s="3" t="s">
         <v>19</v>
@@ -8394,14 +8388,16 @@
         <v>202511</v>
       </c>
       <c r="O119" s="3"/>
-      <c r="P119" s="3"/>
+      <c r="P119" s="3" t="s">
+        <v>416</v>
+      </c>
       <c r="Q119" s="3" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="120" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
-        <v>76671029</v>
+        <v>76667757</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>15</v>
@@ -8416,48 +8412,48 @@
         <v>17</v>
       </c>
       <c r="F120" s="3">
-        <v>20609870151</v>
+        <v>20529997583</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H120" s="3">
-        <v>20609870151</v>
+        <v>20529997583</v>
       </c>
       <c r="I120" s="4">
         <v>46048</v>
       </c>
       <c r="J120" s="7">
         <f t="shared" si="2"/>
-        <v>79.66101694915254</v>
+        <v>78.813559322033896</v>
       </c>
       <c r="K120" s="7">
         <f t="shared" si="3"/>
-        <v>14.338983050847457</v>
+        <v>14.1864406779661</v>
       </c>
       <c r="L120" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M120" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N120" s="3">
-        <v>202511</v>
+      <c r="N120" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="O120" s="3"/>
       <c r="P120" s="3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q120" s="3" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="121" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
-        <v>76667757</v>
+        <v>76671859</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>42</v>
@@ -8469,98 +8465,98 @@
         <v>17</v>
       </c>
       <c r="F121" s="3">
-        <v>20529997583</v>
+        <v>20613065912</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H121" s="3">
-        <v>20529997583</v>
+        <v>20613065912</v>
       </c>
       <c r="I121" s="4">
         <v>46048</v>
       </c>
       <c r="J121" s="7">
         <f t="shared" si="2"/>
-        <v>78.813559322033896</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K121" s="7">
         <f t="shared" si="3"/>
-        <v>14.1864406779661</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L121" s="8">
-        <v>93</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M121" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N121" s="3" t="s">
-        <v>142</v>
+      <c r="N121" s="3">
+        <v>202511</v>
       </c>
       <c r="O121" s="3"/>
       <c r="P121" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Q121" s="3" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="122" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
-        <v>76671859</v>
+        <v>76680532</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>258</v>
+        <v>15</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F122" s="3">
-        <v>20613065912</v>
+        <v>20568004681</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H122" s="3">
-        <v>20613065912</v>
+        <v>20568004681</v>
       </c>
       <c r="I122" s="4">
         <v>46048</v>
       </c>
       <c r="J122" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>338.98305084745766</v>
       </c>
       <c r="K122" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>61.016949152542374</v>
       </c>
       <c r="L122" s="8">
-        <v>66.099999999999994</v>
+        <v>400</v>
       </c>
       <c r="M122" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N122" s="3">
-        <v>202511</v>
+      <c r="N122" s="3" t="s">
+        <v>422</v>
       </c>
       <c r="O122" s="3"/>
       <c r="P122" s="3" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="Q122" s="3" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="123" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
-        <v>76680532</v>
+        <v>76671483</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>15</v>
@@ -8569,54 +8565,54 @@
         <v>42</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F123" s="3">
-        <v>20568004681</v>
+        <v>20611630850</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H123" s="3">
-        <v>20568004681</v>
+        <v>20611630850</v>
       </c>
       <c r="I123" s="4">
         <v>46048</v>
       </c>
       <c r="J123" s="7">
         <f t="shared" si="2"/>
-        <v>338.98305084745766</v>
+        <v>56.779661016949156</v>
       </c>
       <c r="K123" s="7">
         <f t="shared" si="3"/>
-        <v>61.016949152542374</v>
+        <v>10.220338983050848</v>
       </c>
       <c r="L123" s="8">
-        <v>400</v>
+        <v>67</v>
       </c>
       <c r="M123" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N123" s="3" t="s">
-        <v>422</v>
+      <c r="N123" s="3">
+        <v>202510</v>
       </c>
       <c r="O123" s="3"/>
       <c r="P123" s="3" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q123" s="3" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="124" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
-        <v>76671483</v>
+        <v>76667083</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>15</v>
+        <v>259</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>42</v>
@@ -8628,45 +8624,45 @@
         <v>17</v>
       </c>
       <c r="F124" s="3">
-        <v>20611630850</v>
+        <v>20477592342</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H124" s="3">
-        <v>20611630850</v>
+        <v>20477592342</v>
       </c>
       <c r="I124" s="4">
         <v>46048</v>
       </c>
       <c r="J124" s="7">
         <f t="shared" si="2"/>
-        <v>56.779661016949156</v>
+        <v>80.694915254237287</v>
       </c>
       <c r="K124" s="7">
         <f t="shared" si="3"/>
-        <v>10.220338983050848</v>
+        <v>14.525084745762712</v>
       </c>
       <c r="L124" s="8">
-        <v>67</v>
+        <v>95.22</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N124" s="3">
-        <v>202510</v>
-      </c>
-      <c r="O124" s="3"/>
-      <c r="P124" s="3" t="s">
-        <v>425</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="N124" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="O124" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="P124" s="3"/>
       <c r="Q124" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="125" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
-        <v>76667083</v>
+        <v>76667022</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>259</v>
@@ -8681,45 +8677,43 @@
         <v>17</v>
       </c>
       <c r="F125" s="3">
-        <v>20477592342</v>
+        <v>20454837038</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H125" s="3">
-        <v>20477592342</v>
+        <v>20454837038</v>
       </c>
       <c r="I125" s="4">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="J125" s="7">
         <f t="shared" si="2"/>
-        <v>80.694915254237287</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K125" s="7">
         <f t="shared" si="3"/>
-        <v>14.525084745762712</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L125" s="8">
-        <v>95.22</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N125" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="O125" s="3" t="s">
-        <v>140</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="N125" s="3">
+        <v>202511</v>
+      </c>
+      <c r="O125" s="3"/>
       <c r="P125" s="3"/>
       <c r="Q125" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="126" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
-        <v>76667022</v>
+        <v>76671315</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>259</v>
@@ -8734,13 +8728,13 @@
         <v>17</v>
       </c>
       <c r="F126" s="3">
-        <v>20454837038</v>
+        <v>20610959106</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H126" s="3">
-        <v>20454837038</v>
+        <v>20610959106</v>
       </c>
       <c r="I126" s="4">
         <v>46049</v>
@@ -8763,14 +8757,16 @@
         <v>202511</v>
       </c>
       <c r="O126" s="3"/>
-      <c r="P126" s="3"/>
+      <c r="P126" s="3" t="s">
+        <v>429</v>
+      </c>
       <c r="Q126" s="3" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="127" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
-        <v>76671315</v>
+        <v>76668701</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>259</v>
@@ -8785,27 +8781,27 @@
         <v>17</v>
       </c>
       <c r="F127" s="3">
-        <v>20610959106</v>
+        <v>20600530136</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H127" s="3">
-        <v>20610959106</v>
+        <v>20600530136</v>
       </c>
       <c r="I127" s="4">
         <v>46049</v>
       </c>
       <c r="J127" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>112.61864406779661</v>
       </c>
       <c r="K127" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>20.271355932203388</v>
       </c>
       <c r="L127" s="8">
-        <v>66.099999999999994</v>
+        <v>132.88999999999999</v>
       </c>
       <c r="M127" s="3" t="s">
         <v>19</v>
@@ -8814,19 +8810,17 @@
         <v>202511</v>
       </c>
       <c r="O127" s="3"/>
-      <c r="P127" s="3" t="s">
-        <v>429</v>
-      </c>
+      <c r="P127" s="3"/>
       <c r="Q127" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="128" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
-        <v>76668701</v>
+        <v>76671246</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>42</v>
@@ -8838,27 +8832,27 @@
         <v>17</v>
       </c>
       <c r="F128" s="3">
-        <v>20600530136</v>
+        <v>20610663100</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H128" s="3">
-        <v>20600530136</v>
+        <v>20610663100</v>
       </c>
       <c r="I128" s="4">
         <v>46049</v>
       </c>
       <c r="J128" s="7">
         <f t="shared" si="2"/>
-        <v>112.61864406779661</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K128" s="7">
         <f t="shared" si="3"/>
-        <v>20.271355932203388</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L128" s="8">
-        <v>132.88999999999999</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M128" s="3" t="s">
         <v>19</v>
@@ -8867,14 +8861,16 @@
         <v>202511</v>
       </c>
       <c r="O128" s="3"/>
-      <c r="P128" s="3"/>
+      <c r="P128" s="3" t="s">
+        <v>432</v>
+      </c>
       <c r="Q128" s="3" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="129" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
-        <v>76671246</v>
+        <v>76669045</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>15</v>
@@ -8889,13 +8885,13 @@
         <v>17</v>
       </c>
       <c r="F129" s="3">
-        <v>20610663100</v>
+        <v>20601686822</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H129" s="3">
-        <v>20610663100</v>
+        <v>20601686822</v>
       </c>
       <c r="I129" s="4">
         <v>46049</v>
@@ -8914,20 +8910,20 @@
       <c r="M129" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N129" s="3">
-        <v>202511</v>
+      <c r="N129" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="O129" s="3"/>
       <c r="P129" s="3" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Q129" s="3" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="130" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
-        <v>76669045</v>
+        <v>76667919</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>15</v>
@@ -8942,13 +8938,13 @@
         <v>17</v>
       </c>
       <c r="F130" s="3">
-        <v>20601686822</v>
+        <v>20539801636</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H130" s="3">
-        <v>20601686822</v>
+        <v>20539801636</v>
       </c>
       <c r="I130" s="4">
         <v>46049</v>
@@ -8967,23 +8963,23 @@
       <c r="M130" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N130" s="3" t="s">
-        <v>142</v>
+      <c r="N130" s="3">
+        <v>202511</v>
       </c>
       <c r="O130" s="3"/>
       <c r="P130" s="3" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Q130" s="3" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="131" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
-        <v>76667919</v>
+        <v>76671912</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>15</v>
+        <v>259</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>42</v>
@@ -8995,13 +8991,13 @@
         <v>17</v>
       </c>
       <c r="F131" s="3">
-        <v>20539801636</v>
+        <v>20613265172</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H131" s="3">
-        <v>20539801636</v>
+        <v>20613265172</v>
       </c>
       <c r="I131" s="4">
         <v>46049</v>
@@ -9020,73 +9016,69 @@
       <c r="M131" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N131" s="3">
-        <v>202511</v>
+      <c r="N131" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="O131" s="3"/>
       <c r="P131" s="3" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Q131" s="3" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="132" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
-        <v>76671912</v>
+        <v>76677161</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F132" s="3">
-        <v>20613265172</v>
+        <v>20514258474</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H132" s="3">
-        <v>20613265172</v>
+        <v>20514258474</v>
       </c>
       <c r="I132" s="4">
         <v>46049</v>
       </c>
       <c r="J132" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>1822.0338983050849</v>
       </c>
       <c r="K132" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>327.96610169491527</v>
       </c>
       <c r="L132" s="8">
-        <v>66.099999999999994</v>
+        <v>2150</v>
       </c>
       <c r="M132" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N132" s="3" t="s">
-        <v>142</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="N132" s="3"/>
       <c r="O132" s="3"/>
-      <c r="P132" s="3" t="s">
-        <v>438</v>
-      </c>
+      <c r="P132" s="3"/>
       <c r="Q132" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="133" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
-        <v>76677161</v>
+        <v>76669223</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>258</v>
@@ -9095,50 +9087,54 @@
         <v>42</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F133" s="3">
-        <v>20514258474</v>
+        <v>20602248331</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H133" s="3">
-        <v>20514258474</v>
+        <v>20602248331</v>
       </c>
       <c r="I133" s="4">
         <v>46049</v>
       </c>
       <c r="J133" s="7">
         <f t="shared" si="2"/>
-        <v>1822.0338983050849</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K133" s="7">
         <f t="shared" si="3"/>
-        <v>327.96610169491527</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L133" s="8">
-        <v>2150</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M133" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N133" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="N133" s="3">
+        <v>202511</v>
+      </c>
       <c r="O133" s="3"/>
-      <c r="P133" s="3"/>
+      <c r="P133" s="3" t="s">
+        <v>441</v>
+      </c>
       <c r="Q133" s="3" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="134" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
-        <v>76669223</v>
+        <v>76672106</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>258</v>
+        <v>15</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>42</v>
@@ -9150,48 +9146,48 @@
         <v>17</v>
       </c>
       <c r="F134" s="3">
-        <v>20602248331</v>
+        <v>20614226944</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H134" s="3">
-        <v>20602248331</v>
+        <v>20614226944</v>
       </c>
       <c r="I134" s="4">
         <v>46049</v>
       </c>
       <c r="J134" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>144.06779661016949</v>
       </c>
       <c r="K134" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>25.932203389830509</v>
       </c>
       <c r="L134" s="8">
-        <v>66.099999999999994</v>
+        <v>170</v>
       </c>
       <c r="M134" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N134" s="3">
-        <v>202511</v>
+      <c r="N134" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="O134" s="3"/>
       <c r="P134" s="3" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="Q134" s="3" t="s">
-        <v>442</v>
+        <v>484</v>
       </c>
     </row>
     <row r="135" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
-        <v>76672106</v>
+        <v>76669599</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>42</v>
@@ -9203,48 +9199,48 @@
         <v>17</v>
       </c>
       <c r="F135" s="3">
-        <v>20614226944</v>
+        <v>20603628617</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H135" s="3">
-        <v>20614226944</v>
+        <v>20603628617</v>
       </c>
       <c r="I135" s="4">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="J135" s="7">
         <f t="shared" si="2"/>
-        <v>144.06779661016949</v>
+        <v>65.983050847457633</v>
       </c>
       <c r="K135" s="7">
         <f t="shared" si="3"/>
-        <v>25.932203389830509</v>
+        <v>11.876949152542373</v>
       </c>
       <c r="L135" s="8">
-        <v>170</v>
+        <v>77.86</v>
       </c>
       <c r="M135" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N135" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="O135" s="3"/>
-      <c r="P135" s="3" t="s">
-        <v>443</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="N135" s="3">
+        <v>202511</v>
+      </c>
+      <c r="O135" s="3">
+        <v>202511</v>
+      </c>
+      <c r="P135" s="3"/>
       <c r="Q135" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="136" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
-        <v>76669599</v>
+        <v>76667060</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>258</v>
+        <v>15</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>42</v>
@@ -9256,48 +9252,48 @@
         <v>17</v>
       </c>
       <c r="F136" s="3">
-        <v>20603628617</v>
+        <v>20467222130</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H136" s="3">
-        <v>20603628617</v>
+        <v>20467222130</v>
       </c>
       <c r="I136" s="4">
         <v>46050</v>
       </c>
       <c r="J136" s="7">
         <f t="shared" si="2"/>
-        <v>65.983050847457633</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K136" s="7">
         <f t="shared" si="3"/>
-        <v>11.876949152542373</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L136" s="8">
-        <v>77.86</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M136" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N136" s="3">
-        <v>202511</v>
-      </c>
-      <c r="O136" s="3">
-        <v>202511</v>
-      </c>
-      <c r="P136" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="N136" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="O136" s="3"/>
+      <c r="P136" s="3" t="s">
+        <v>444</v>
+      </c>
       <c r="Q136" s="3" t="s">
-        <v>487</v>
+        <v>445</v>
       </c>
     </row>
     <row r="137" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
-        <v>76667060</v>
+        <v>76671573</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>42</v>
@@ -9309,45 +9305,45 @@
         <v>17</v>
       </c>
       <c r="F137" s="3">
-        <v>20467222130</v>
+        <v>20611963999</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H137" s="3">
-        <v>20467222130</v>
+        <v>20611963999</v>
       </c>
       <c r="I137" s="4">
         <v>46050</v>
       </c>
       <c r="J137" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>96.110169491525426</v>
       </c>
       <c r="K137" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>17.299830508474574</v>
       </c>
       <c r="L137" s="8">
-        <v>66.099999999999994</v>
+        <v>113.41</v>
       </c>
       <c r="M137" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N137" s="3" t="s">
-        <v>142</v>
+      <c r="N137" s="3">
+        <v>202511</v>
       </c>
       <c r="O137" s="3"/>
       <c r="P137" s="3" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="Q137" s="3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="138" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
-        <v>76671573</v>
+        <v>76667481</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>24</v>
@@ -9362,27 +9358,27 @@
         <v>17</v>
       </c>
       <c r="F138" s="3">
-        <v>20611963999</v>
+        <v>20513203871</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H138" s="3">
-        <v>20611963999</v>
+        <v>20513203871</v>
       </c>
       <c r="I138" s="4">
         <v>46050</v>
       </c>
       <c r="J138" s="7">
         <f t="shared" si="2"/>
-        <v>96.110169491525426</v>
+        <v>65.254237288135599</v>
       </c>
       <c r="K138" s="7">
         <f t="shared" si="3"/>
-        <v>17.299830508474574</v>
+        <v>11.745762711864407</v>
       </c>
       <c r="L138" s="8">
-        <v>113.41</v>
+        <v>77</v>
       </c>
       <c r="M138" s="3" t="s">
         <v>19</v>
@@ -9392,15 +9388,15 @@
       </c>
       <c r="O138" s="3"/>
       <c r="P138" s="3" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="Q138" s="3" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="139" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
-        <v>76667481</v>
+        <v>76670299</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>24</v>
@@ -9415,27 +9411,27 @@
         <v>17</v>
       </c>
       <c r="F139" s="3">
-        <v>20513203871</v>
+        <v>20606648341</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H139" s="3">
-        <v>20513203871</v>
+        <v>20606648341</v>
       </c>
       <c r="I139" s="4">
         <v>46050</v>
       </c>
       <c r="J139" s="7">
         <f t="shared" si="2"/>
-        <v>65.254237288135599</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K139" s="7">
         <f t="shared" si="3"/>
-        <v>11.745762711864407</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L139" s="8">
-        <v>77</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M139" s="3" t="s">
         <v>19</v>
@@ -9445,18 +9441,18 @@
       </c>
       <c r="O139" s="3"/>
       <c r="P139" s="3" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Q139" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="140" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
-        <v>76670299</v>
+        <v>76666790</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>42</v>
@@ -9468,13 +9464,13 @@
         <v>17</v>
       </c>
       <c r="F140" s="3">
-        <v>20606648341</v>
+        <v>20301356952</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H140" s="3">
-        <v>20606648341</v>
+        <v>20301356952</v>
       </c>
       <c r="I140" s="4">
         <v>46050</v>
@@ -9497,16 +9493,14 @@
         <v>202511</v>
       </c>
       <c r="O140" s="3"/>
-      <c r="P140" s="3" t="s">
-        <v>450</v>
-      </c>
+      <c r="P140" s="3"/>
       <c r="Q140" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="141" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
-        <v>76666790</v>
+        <v>76666521</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>259</v>
@@ -9521,13 +9515,13 @@
         <v>17</v>
       </c>
       <c r="F141" s="3">
-        <v>20301356952</v>
+        <v>43302890</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H141" s="3">
-        <v>20301356952</v>
+        <v>10433028908</v>
       </c>
       <c r="I141" s="4">
         <v>46050</v>
@@ -9552,12 +9546,12 @@
       <c r="O141" s="3"/>
       <c r="P141" s="3"/>
       <c r="Q141" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="142" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
-        <v>76666521</v>
+        <v>76670454</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>259</v>
@@ -9572,13 +9566,13 @@
         <v>17</v>
       </c>
       <c r="F142" s="3">
-        <v>43302890</v>
+        <v>20607583600</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H142" s="3">
-        <v>10433028908</v>
+        <v>20607583600</v>
       </c>
       <c r="I142" s="4">
         <v>46050</v>
@@ -9601,17 +9595,19 @@
         <v>202511</v>
       </c>
       <c r="O142" s="3"/>
-      <c r="P142" s="3"/>
+      <c r="P142" s="3" t="s">
+        <v>454</v>
+      </c>
       <c r="Q142" s="3" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="143" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
-        <v>76670454</v>
+        <v>76672151</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>259</v>
+        <v>24</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>42</v>
@@ -9623,48 +9619,48 @@
         <v>17</v>
       </c>
       <c r="F143" s="3">
-        <v>20607583600</v>
+        <v>20614458896</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H143" s="3">
-        <v>20607583600</v>
+        <v>20614458896</v>
       </c>
       <c r="I143" s="4">
         <v>46050</v>
       </c>
       <c r="J143" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>75.762711864406782</v>
       </c>
       <c r="K143" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>13.63728813559322</v>
       </c>
       <c r="L143" s="8">
-        <v>66.099999999999994</v>
+        <v>89.4</v>
       </c>
       <c r="M143" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N143" s="3">
-        <v>202511</v>
+      <c r="N143" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="O143" s="3"/>
       <c r="P143" s="3" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="Q143" s="3" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
     </row>
     <row r="144" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
-        <v>76672151</v>
+        <v>76671287</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>42</v>
@@ -9676,27 +9672,27 @@
         <v>17</v>
       </c>
       <c r="F144" s="3">
-        <v>20614458896</v>
+        <v>20610827731</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H144" s="3">
-        <v>20614458896</v>
+        <v>20610827731</v>
       </c>
       <c r="I144" s="4">
-        <v>46050</v>
+        <v>46051</v>
       </c>
       <c r="J144" s="7">
         <f t="shared" si="2"/>
-        <v>75.762711864406782</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K144" s="7">
         <f t="shared" si="3"/>
-        <v>13.63728813559322</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L144" s="8">
-        <v>89.4</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M144" s="3" t="s">
         <v>19</v>
@@ -9705,16 +9701,14 @@
         <v>142</v>
       </c>
       <c r="O144" s="3"/>
-      <c r="P144" s="3" t="s">
-        <v>456</v>
-      </c>
+      <c r="P144" s="3"/>
       <c r="Q144" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="145" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
-        <v>76671287</v>
+        <v>76670581</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>259</v>
@@ -9729,13 +9723,13 @@
         <v>17</v>
       </c>
       <c r="F145" s="3">
-        <v>20610827731</v>
+        <v>20608157051</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H145" s="3">
-        <v>20610827731</v>
+        <v>20608157051</v>
       </c>
       <c r="I145" s="4">
         <v>46051</v>
@@ -9758,14 +9752,16 @@
         <v>142</v>
       </c>
       <c r="O145" s="3"/>
-      <c r="P145" s="3"/>
+      <c r="P145" s="3" t="s">
+        <v>457</v>
+      </c>
       <c r="Q145" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="146" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
-        <v>76670581</v>
+        <v>76670507</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>259</v>
@@ -9780,13 +9776,13 @@
         <v>17</v>
       </c>
       <c r="F146" s="3">
-        <v>20608157051</v>
+        <v>20607861570</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H146" s="3">
-        <v>20608157051</v>
+        <v>20607861570</v>
       </c>
       <c r="I146" s="4">
         <v>46051</v>
@@ -9809,19 +9805,17 @@
         <v>142</v>
       </c>
       <c r="O146" s="3"/>
-      <c r="P146" s="3" t="s">
-        <v>457</v>
-      </c>
+      <c r="P146" s="3"/>
       <c r="Q146" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="147" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
-        <v>76670507</v>
+        <v>76671146</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>42</v>
@@ -9833,96 +9827,98 @@
         <v>17</v>
       </c>
       <c r="F147" s="3">
-        <v>20607861570</v>
+        <v>20610270272</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H147" s="3">
-        <v>20607861570</v>
+        <v>20610270272</v>
       </c>
       <c r="I147" s="4">
-        <v>46051</v>
+        <v>46050</v>
       </c>
       <c r="J147" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>59.322033898305087</v>
       </c>
       <c r="K147" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>10.677966101694915</v>
       </c>
       <c r="L147" s="8">
-        <v>66.099999999999994</v>
+        <v>70</v>
       </c>
       <c r="M147" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N147" s="3" t="s">
-        <v>142</v>
+      <c r="N147" s="3">
+        <v>202511</v>
       </c>
       <c r="O147" s="3"/>
-      <c r="P147" s="3"/>
+      <c r="P147" s="3" t="s">
+        <v>458</v>
+      </c>
       <c r="Q147" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="148" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
-        <v>76671146</v>
+        <v>76680520</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>258</v>
+        <v>15</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F148" s="3">
-        <v>20610270272</v>
+        <v>20558063069</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H148" s="3">
-        <v>20610270272</v>
+        <v>20558063069</v>
       </c>
       <c r="I148" s="4">
-        <v>46050</v>
+        <v>46051</v>
       </c>
       <c r="J148" s="7">
         <f t="shared" si="2"/>
-        <v>59.322033898305087</v>
+        <v>56.779661016949156</v>
       </c>
       <c r="K148" s="7">
         <f t="shared" si="3"/>
-        <v>10.677966101694915</v>
+        <v>10.220338983050848</v>
       </c>
       <c r="L148" s="8">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M148" s="3" t="s">
         <v>19</v>
       </c>
       <c r="N148" s="3">
-        <v>202511</v>
+        <v>202506</v>
       </c>
       <c r="O148" s="3"/>
       <c r="P148" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q148" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="149" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
-        <v>76680520</v>
+        <v>76671945</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>15</v>
@@ -9931,51 +9927,51 @@
         <v>42</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F149" s="3">
-        <v>20558063069</v>
+        <v>20613443097</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H149" s="3">
-        <v>20558063069</v>
+        <v>20613443097</v>
       </c>
       <c r="I149" s="4">
         <v>46051</v>
       </c>
       <c r="J149" s="7">
         <f t="shared" si="2"/>
-        <v>56.779661016949156</v>
+        <v>84.745762711864415</v>
       </c>
       <c r="K149" s="7">
         <f t="shared" si="3"/>
-        <v>10.220338983050848</v>
+        <v>15.254237288135593</v>
       </c>
       <c r="L149" s="8">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="M149" s="3" t="s">
         <v>19</v>
       </c>
       <c r="N149" s="3">
-        <v>202506</v>
+        <v>202511</v>
       </c>
       <c r="O149" s="3"/>
       <c r="P149" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q149" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="150" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
-        <v>76671945</v>
+        <v>76670928</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>15</v>
@@ -9990,27 +9986,27 @@
         <v>17</v>
       </c>
       <c r="F150" s="3">
-        <v>20613443097</v>
+        <v>20609525861</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H150" s="3">
-        <v>20613443097</v>
+        <v>20609525861</v>
       </c>
       <c r="I150" s="4">
         <v>46051</v>
       </c>
       <c r="J150" s="7">
         <f t="shared" si="2"/>
-        <v>84.745762711864415</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K150" s="7">
         <f t="shared" si="3"/>
-        <v>15.254237288135593</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L150" s="8">
-        <v>100</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M150" s="3" t="s">
         <v>19</v>
@@ -10020,18 +10016,18 @@
       </c>
       <c r="O150" s="3"/>
       <c r="P150" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q150" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="151" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
-        <v>76670928</v>
+        <v>76667876</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>42</v>
@@ -10043,27 +10039,27 @@
         <v>17</v>
       </c>
       <c r="F151" s="3">
-        <v>20609525861</v>
+        <v>20537582741</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H151" s="3">
-        <v>20609525861</v>
+        <v>20537582741</v>
       </c>
       <c r="I151" s="4">
         <v>46051</v>
       </c>
       <c r="J151" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>67.79661016949153</v>
       </c>
       <c r="K151" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>12.203389830508474</v>
       </c>
       <c r="L151" s="8">
-        <v>66.099999999999994</v>
+        <v>80</v>
       </c>
       <c r="M151" s="3" t="s">
         <v>19</v>
@@ -10073,60 +10069,60 @@
       </c>
       <c r="O151" s="3"/>
       <c r="P151" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q151" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="152" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
-        <v>76667876</v>
+        <v>76679970</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F152" s="3">
-        <v>20537582741</v>
+        <v>20479758167</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>319</v>
+        <v>478</v>
       </c>
       <c r="H152" s="3">
-        <v>20537582741</v>
+        <v>20479758167</v>
       </c>
       <c r="I152" s="4">
-        <v>46051</v>
+        <v>46049</v>
       </c>
       <c r="J152" s="7">
         <f t="shared" si="2"/>
-        <v>67.79661016949153</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K152" s="7">
         <f t="shared" si="3"/>
-        <v>12.203389830508474</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L152" s="8">
-        <v>80</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M152" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N152" s="3">
-        <v>202511</v>
-      </c>
-      <c r="O152" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="N152" s="3"/>
+      <c r="O152" s="3">
+        <v>201001</v>
+      </c>
       <c r="P152" s="3" t="s">
-        <v>462</v>
+        <v>495</v>
       </c>
       <c r="Q152" s="3" t="s">
         <v>496</v>
@@ -10134,7 +10130,7 @@
     </row>
     <row r="153" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
-        <v>76679970</v>
+        <v>76669052</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>15</v>
@@ -10143,22 +10139,22 @@
         <v>42</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F153" s="3">
-        <v>20479758167</v>
+        <v>20601715687</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>479</v>
+        <v>320</v>
       </c>
       <c r="H153" s="3">
-        <v>20479758167</v>
+        <v>20601715687</v>
       </c>
       <c r="I153" s="4">
-        <v>46049</v>
+        <v>46051</v>
       </c>
       <c r="J153" s="7">
         <f t="shared" si="2"/>
@@ -10172,22 +10168,22 @@
         <v>66.099999999999994</v>
       </c>
       <c r="M153" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N153" s="3"/>
-      <c r="O153" s="3">
-        <v>201001</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="N153" s="3">
+        <v>202511</v>
+      </c>
+      <c r="O153" s="3"/>
       <c r="P153" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q153" s="3" t="s">
         <v>497</v>
-      </c>
-      <c r="Q153" s="3" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="154" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
-        <v>76669052</v>
+        <v>76680152</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>15</v>
@@ -10196,107 +10192,107 @@
         <v>42</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F154" s="3">
-        <v>20601715687</v>
+        <v>20505888741</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H154" s="3">
-        <v>20601715687</v>
+        <v>20505888741</v>
       </c>
       <c r="I154" s="4">
         <v>46051</v>
       </c>
       <c r="J154" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>46.610169491525426</v>
       </c>
       <c r="K154" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>8.3898305084745761</v>
       </c>
       <c r="L154" s="8">
-        <v>66.099999999999994</v>
+        <v>55</v>
       </c>
       <c r="M154" s="3" t="s">
         <v>19</v>
       </c>
       <c r="N154" s="3">
-        <v>202511</v>
+        <v>200812</v>
       </c>
       <c r="O154" s="3"/>
       <c r="P154" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q154" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="155" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
-        <v>76680152</v>
+        <v>76666541</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F155" s="3">
-        <v>20505888741</v>
+        <v>43971334</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H155" s="3">
-        <v>20505888741</v>
+        <v>10439713343</v>
       </c>
       <c r="I155" s="4">
         <v>46051</v>
       </c>
       <c r="J155" s="7">
         <f t="shared" si="2"/>
-        <v>46.610169491525426</v>
+        <v>138.61864406779662</v>
       </c>
       <c r="K155" s="7">
         <f t="shared" si="3"/>
-        <v>8.3898305084745761</v>
+        <v>24.951355932203391</v>
       </c>
       <c r="L155" s="8">
-        <v>55</v>
+        <v>163.57</v>
       </c>
       <c r="M155" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N155" s="3">
-        <v>200812</v>
+      <c r="N155" s="3" t="s">
+        <v>465</v>
       </c>
       <c r="O155" s="3"/>
       <c r="P155" s="3" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="Q155" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="156" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
-        <v>76666541</v>
+        <v>76671567</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>42</v>
@@ -10308,48 +10304,48 @@
         <v>17</v>
       </c>
       <c r="F156" s="3">
-        <v>43971334</v>
+        <v>20611952458</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H156" s="3">
-        <v>10439713343</v>
+        <v>20611952458</v>
       </c>
       <c r="I156" s="4">
         <v>46051</v>
       </c>
       <c r="J156" s="7">
         <f t="shared" si="2"/>
-        <v>138.61864406779662</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K156" s="7">
         <f t="shared" si="3"/>
-        <v>24.951355932203391</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L156" s="8">
-        <v>163.57</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M156" s="3" t="s">
         <v>19</v>
       </c>
       <c r="N156" s="3" t="s">
-        <v>465</v>
+        <v>142</v>
       </c>
       <c r="O156" s="3"/>
       <c r="P156" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q156" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="157" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
-        <v>76671567</v>
+        <v>76670379</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>42</v>
@@ -10361,48 +10357,48 @@
         <v>17</v>
       </c>
       <c r="F157" s="3">
-        <v>20611952458</v>
+        <v>20607117382</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H157" s="3">
-        <v>20611952458</v>
+        <v>20607117382</v>
       </c>
       <c r="I157" s="4">
         <v>46051</v>
       </c>
       <c r="J157" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>50.847457627118644</v>
       </c>
       <c r="K157" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>9.1525423728813546</v>
       </c>
       <c r="L157" s="8">
-        <v>66.099999999999994</v>
+        <v>60</v>
       </c>
       <c r="M157" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N157" s="3" t="s">
-        <v>142</v>
+      <c r="N157" s="3">
+        <v>202511</v>
       </c>
       <c r="O157" s="3"/>
       <c r="P157" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q157" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="158" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
-        <v>76670379</v>
+        <v>76667531</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>258</v>
+        <v>15</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>42</v>
@@ -10414,48 +10410,48 @@
         <v>17</v>
       </c>
       <c r="F158" s="3">
-        <v>20607117382</v>
+        <v>20516059428</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H158" s="3">
-        <v>20607117382</v>
+        <v>20516059428</v>
       </c>
       <c r="I158" s="4">
         <v>46051</v>
       </c>
       <c r="J158" s="7">
         <f t="shared" si="2"/>
-        <v>50.847457627118644</v>
+        <v>88.567796610169495</v>
       </c>
       <c r="K158" s="7">
         <f t="shared" si="3"/>
-        <v>9.1525423728813546</v>
+        <v>15.942203389830508</v>
       </c>
       <c r="L158" s="8">
-        <v>60</v>
+        <v>104.51</v>
       </c>
       <c r="M158" s="3" t="s">
         <v>19</v>
       </c>
       <c r="N158" s="3">
-        <v>202511</v>
+        <v>202510</v>
       </c>
       <c r="O158" s="3"/>
       <c r="P158" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Q158" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="159" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
-        <v>76667531</v>
+        <v>76667910</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>15</v>
+        <v>259</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>42</v>
@@ -10467,48 +10463,48 @@
         <v>17</v>
       </c>
       <c r="F159" s="3">
-        <v>20516059428</v>
+        <v>20539073771</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H159" s="3">
-        <v>20516059428</v>
+        <v>20539073771</v>
       </c>
       <c r="I159" s="4">
         <v>46051</v>
       </c>
       <c r="J159" s="7">
         <f t="shared" si="2"/>
-        <v>88.567796610169495</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K159" s="7">
         <f t="shared" si="3"/>
-        <v>15.942203389830508</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L159" s="8">
-        <v>104.51</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M159" s="3" t="s">
         <v>19</v>
       </c>
       <c r="N159" s="3">
-        <v>202510</v>
+        <v>202511</v>
       </c>
       <c r="O159" s="3"/>
       <c r="P159" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Q159" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="160" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
-        <v>76667910</v>
+        <v>76667432</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>42</v>
@@ -10520,13 +10516,13 @@
         <v>17</v>
       </c>
       <c r="F160" s="3">
-        <v>20539073771</v>
+        <v>20510497482</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H160" s="3">
-        <v>20539073771</v>
+        <v>20510497482</v>
       </c>
       <c r="I160" s="4">
         <v>46051</v>
@@ -10543,22 +10539,24 @@
         <v>66.099999999999994</v>
       </c>
       <c r="M160" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N160" s="3">
         <v>202511</v>
       </c>
-      <c r="O160" s="3"/>
+      <c r="O160" s="3">
+        <v>201309</v>
+      </c>
       <c r="P160" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q160" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="161" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
-        <v>76667432</v>
+        <v>76675592</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>258</v>
@@ -10567,45 +10565,41 @@
         <v>42</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F161" s="3">
-        <v>20510497482</v>
+        <v>20440444394</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H161" s="3">
-        <v>20510497482</v>
+        <v>20440444394</v>
       </c>
       <c r="I161" s="4">
-        <v>46051</v>
+        <v>46052</v>
       </c>
       <c r="J161" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>338.05932203389835</v>
       </c>
       <c r="K161" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>60.850677966101699</v>
       </c>
       <c r="L161" s="8">
-        <v>66.099999999999994</v>
+        <v>398.91</v>
       </c>
       <c r="M161" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N161" s="3">
-        <v>202511</v>
-      </c>
-      <c r="O161" s="3">
-        <v>201309</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="N161" s="3"/>
+      <c r="O161" s="3"/>
       <c r="P161" s="3" t="s">
-        <v>471</v>
+        <v>505</v>
       </c>
       <c r="Q161" s="3" t="s">
         <v>506</v>
@@ -10613,61 +10607,59 @@
     </row>
     <row r="162" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
-        <v>76675592</v>
+        <v>76672178</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F162" s="3">
-        <v>20440444394</v>
+        <v>20614607298</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H162" s="3">
-        <v>20440444394</v>
+        <v>20614607298</v>
       </c>
       <c r="I162" s="4">
         <v>46052</v>
       </c>
       <c r="J162" s="7">
         <f t="shared" si="2"/>
-        <v>338.05932203389835</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K162" s="7">
         <f t="shared" si="3"/>
-        <v>60.850677966101699</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L162" s="8">
-        <v>398.91</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M162" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N162" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="N162" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="O162" s="3"/>
-      <c r="P162" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="Q162" s="3" t="s">
-        <v>508</v>
-      </c>
+      <c r="P162" s="3"/>
+      <c r="Q162" s="3"/>
     </row>
     <row r="163" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
-        <v>76672178</v>
+        <v>76669637</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>42</v>
@@ -10679,44 +10671,48 @@
         <v>17</v>
       </c>
       <c r="F163" s="3">
-        <v>20614607298</v>
+        <v>20603792107</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H163" s="3">
-        <v>20614607298</v>
+        <v>20603792107</v>
       </c>
       <c r="I163" s="4">
         <v>46052</v>
       </c>
       <c r="J163" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>381.35593220338984</v>
       </c>
       <c r="K163" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>68.644067796610173</v>
       </c>
       <c r="L163" s="8">
-        <v>66.099999999999994</v>
+        <v>450</v>
       </c>
       <c r="M163" s="3" t="s">
         <v>19</v>
       </c>
       <c r="N163" s="3" t="s">
-        <v>142</v>
+        <v>472</v>
       </c>
       <c r="O163" s="3"/>
-      <c r="P163" s="3"/>
-      <c r="Q163" s="3"/>
+      <c r="P163" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q163" s="3" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="164" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
-        <v>76669637</v>
+        <v>76666702</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>42</v>
@@ -10728,48 +10724,48 @@
         <v>17</v>
       </c>
       <c r="F164" s="3">
-        <v>20603792107</v>
+        <v>20103320951</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H164" s="3">
-        <v>20603792107</v>
+        <v>20103320951</v>
       </c>
       <c r="I164" s="4">
         <v>46052</v>
       </c>
       <c r="J164" s="7">
         <f t="shared" si="2"/>
-        <v>381.35593220338984</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K164" s="7">
         <f t="shared" si="3"/>
-        <v>68.644067796610173</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L164" s="8">
-        <v>450</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M164" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N164" s="3" t="s">
-        <v>472</v>
+      <c r="N164" s="3">
+        <v>202511</v>
       </c>
       <c r="O164" s="3"/>
       <c r="P164" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Q164" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="165" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
-        <v>76666702</v>
+        <v>76668359</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>42</v>
@@ -10781,23 +10777,23 @@
         <v>17</v>
       </c>
       <c r="F165" s="3">
-        <v>20103320951</v>
+        <v>20558712644</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H165" s="3">
-        <v>20103320951</v>
+        <v>20558712644</v>
       </c>
       <c r="I165" s="4">
         <v>46052</v>
       </c>
       <c r="J165" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J165:J207" si="4">+L165/1.18</f>
         <v>56.016949152542374</v>
       </c>
       <c r="K165" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="K165:K207" si="5">J165*0.18</f>
         <v>10.083050847457628</v>
       </c>
       <c r="L165" s="8">
@@ -10811,18 +10807,18 @@
       </c>
       <c r="O165" s="3"/>
       <c r="P165" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Q165" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="166" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
-        <v>76668359</v>
+        <v>76668383</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>42</v>
@@ -10834,27 +10830,27 @@
         <v>17</v>
       </c>
       <c r="F166" s="3">
-        <v>20558712644</v>
+        <v>20559906116</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H166" s="3">
-        <v>20558712644</v>
+        <v>20559906116</v>
       </c>
       <c r="I166" s="4">
         <v>46052</v>
       </c>
       <c r="J166" s="7">
-        <f t="shared" ref="J166:J208" si="4">+L166/1.18</f>
-        <v>56.016949152542374</v>
+        <f t="shared" si="4"/>
+        <v>94.915254237288138</v>
       </c>
       <c r="K166" s="7">
-        <f t="shared" ref="K166:K208" si="5">J166*0.18</f>
-        <v>10.083050847457628</v>
+        <f t="shared" si="5"/>
+        <v>17.084745762711865</v>
       </c>
       <c r="L166" s="8">
-        <v>66.099999999999994</v>
+        <v>112</v>
       </c>
       <c r="M166" s="3" t="s">
         <v>19</v>
@@ -10864,15 +10860,13 @@
       </c>
       <c r="O166" s="3"/>
       <c r="P166" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="Q166" s="3" t="s">
-        <v>511</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="Q166" s="3"/>
     </row>
     <row r="167" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
-        <v>76668383</v>
+        <v>76672099</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>15</v>
@@ -10887,27 +10881,27 @@
         <v>17</v>
       </c>
       <c r="F167" s="3">
-        <v>20559906116</v>
+        <v>20614200287</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H167" s="3">
-        <v>20559906116</v>
+        <v>20614200287</v>
       </c>
       <c r="I167" s="4">
         <v>46052</v>
       </c>
       <c r="J167" s="7">
         <f t="shared" si="4"/>
-        <v>94.915254237288138</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K167" s="7">
         <f t="shared" si="5"/>
-        <v>17.084745762711865</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L167" s="8">
-        <v>112</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M167" s="3" t="s">
         <v>19</v>
@@ -10917,16 +10911,16 @@
       </c>
       <c r="O167" s="3"/>
       <c r="P167" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Q167" s="3"/>
     </row>
     <row r="168" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
-        <v>76672099</v>
+        <v>76669956</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>42</v>
@@ -10938,27 +10932,27 @@
         <v>17</v>
       </c>
       <c r="F168" s="3">
-        <v>20614200287</v>
+        <v>20605337296</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>334</v>
+        <v>479</v>
       </c>
       <c r="H168" s="3">
-        <v>20614200287</v>
+        <v>20605337296</v>
       </c>
       <c r="I168" s="4">
-        <v>46052</v>
+        <v>46049</v>
       </c>
       <c r="J168" s="7">
         <f t="shared" si="4"/>
-        <v>56.016949152542374</v>
+        <v>113.63559322033899</v>
       </c>
       <c r="K168" s="7">
         <f t="shared" si="5"/>
-        <v>10.083050847457628</v>
+        <v>20.454406779661017</v>
       </c>
       <c r="L168" s="8">
-        <v>66.099999999999994</v>
+        <v>134.09</v>
       </c>
       <c r="M168" s="3" t="s">
         <v>19</v>
@@ -10968,16 +10962,16 @@
       </c>
       <c r="O168" s="3"/>
       <c r="P168" s="3" t="s">
-        <v>477</v>
+        <v>510</v>
       </c>
       <c r="Q168" s="3"/>
     </row>
     <row r="169" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
-        <v>76669956</v>
+        <v>76666651</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>258</v>
+        <v>15</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>42</v>
@@ -10989,27 +10983,27 @@
         <v>17</v>
       </c>
       <c r="F169" s="3">
-        <v>20605337296</v>
+        <v>73216094</v>
       </c>
       <c r="G169" s="3" t="s">
         <v>480</v>
       </c>
       <c r="H169" s="3">
-        <v>20605337296</v>
+        <v>10732160944</v>
       </c>
       <c r="I169" s="4">
-        <v>46049</v>
+        <v>46045</v>
       </c>
       <c r="J169" s="7">
         <f t="shared" si="4"/>
-        <v>113.63559322033899</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K169" s="7">
         <f t="shared" si="5"/>
-        <v>20.454406779661017</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L169" s="8">
-        <v>134.09</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M169" s="3" t="s">
         <v>19</v>
@@ -11019,13 +11013,13 @@
       </c>
       <c r="O169" s="3"/>
       <c r="P169" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="Q169" s="3"/>
     </row>
     <row r="170" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
-        <v>76666651</v>
+        <v>76667219</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>15</v>
@@ -11040,27 +11034,27 @@
         <v>17</v>
       </c>
       <c r="F170" s="3">
-        <v>73216094</v>
+        <v>20490456547</v>
       </c>
       <c r="G170" s="3" t="s">
         <v>481</v>
       </c>
       <c r="H170" s="3">
-        <v>10732160944</v>
+        <v>20490456547</v>
       </c>
       <c r="I170" s="4">
-        <v>46045</v>
+        <v>46036</v>
       </c>
       <c r="J170" s="7">
         <f t="shared" si="4"/>
-        <v>56.016949152542374</v>
+        <v>88.483050847457633</v>
       </c>
       <c r="K170" s="7">
         <f t="shared" si="5"/>
-        <v>10.083050847457628</v>
+        <v>15.926949152542374</v>
       </c>
       <c r="L170" s="8">
-        <v>66.099999999999994</v>
+        <v>104.41</v>
       </c>
       <c r="M170" s="3" t="s">
         <v>19</v>
@@ -11070,13 +11064,13 @@
       </c>
       <c r="O170" s="3"/>
       <c r="P170" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Q170" s="3"/>
     </row>
     <row r="171" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
-        <v>76667219</v>
+        <v>76666259</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>15</v>
@@ -11091,46 +11085,46 @@
         <v>17</v>
       </c>
       <c r="F171" s="3">
-        <v>20490456547</v>
+        <v>6938061</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>482</v>
+        <v>513</v>
       </c>
       <c r="H171" s="3">
-        <v>20490456547</v>
+        <v>10069380617</v>
       </c>
       <c r="I171" s="4">
-        <v>46036</v>
+        <v>46055</v>
       </c>
       <c r="J171" s="7">
         <f t="shared" si="4"/>
-        <v>88.483050847457633</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K171" s="7">
         <f t="shared" si="5"/>
-        <v>15.926949152542374</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L171" s="8">
-        <v>104.41</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M171" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N171" s="3">
-        <v>202511</v>
+      <c r="N171" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="O171" s="3"/>
       <c r="P171" s="3" t="s">
-        <v>514</v>
+        <v>534</v>
       </c>
       <c r="Q171" s="3"/>
     </row>
     <row r="172" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
-        <v>76666259</v>
+        <v>76668928</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>42</v>
@@ -11142,19 +11136,19 @@
         <v>17</v>
       </c>
       <c r="F172" s="3">
-        <v>6938061</v>
+        <v>20601337496</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H172" s="3">
-        <v>10069380617</v>
+        <v>20601337496</v>
       </c>
       <c r="I172" s="4">
         <v>46055</v>
       </c>
       <c r="J172" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="J172:J205" si="6">+L172/1.18</f>
         <v>56.016949152542374</v>
       </c>
       <c r="K172" s="7">
@@ -11167,18 +11161,16 @@
       <c r="M172" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N172" s="3" t="s">
-        <v>142</v>
+      <c r="N172" s="3">
+        <v>202511</v>
       </c>
       <c r="O172" s="3"/>
-      <c r="P172" s="3" t="s">
-        <v>536</v>
-      </c>
+      <c r="P172" s="3"/>
       <c r="Q172" s="3"/>
     </row>
     <row r="173" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
-        <v>76668928</v>
+        <v>76668562</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>258</v>
@@ -11193,19 +11185,19 @@
         <v>17</v>
       </c>
       <c r="F173" s="3">
-        <v>20601337496</v>
+        <v>20600064381</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H173" s="3">
-        <v>20601337496</v>
+        <v>20600064381</v>
       </c>
       <c r="I173" s="4">
         <v>46055</v>
       </c>
       <c r="J173" s="7">
-        <f t="shared" ref="J173:J206" si="6">+L173/1.18</f>
+        <f t="shared" si="6"/>
         <v>56.016949152542374</v>
       </c>
       <c r="K173" s="7">
@@ -11218,8 +11210,8 @@
       <c r="M173" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N173" s="3">
-        <v>202511</v>
+      <c r="N173" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="O173" s="3"/>
       <c r="P173" s="3"/>
@@ -11227,10 +11219,10 @@
     </row>
     <row r="174" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
-        <v>76668562</v>
+        <v>76669110</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>42</v>
@@ -11242,16 +11234,16 @@
         <v>17</v>
       </c>
       <c r="F174" s="3">
-        <v>20600064381</v>
+        <v>20601857821</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H174" s="3">
-        <v>20600064381</v>
+        <v>20601857821</v>
       </c>
       <c r="I174" s="4">
-        <v>46055</v>
+        <v>46056</v>
       </c>
       <c r="J174" s="7">
         <f t="shared" si="6"/>
@@ -11271,15 +11263,17 @@
         <v>142</v>
       </c>
       <c r="O174" s="3"/>
-      <c r="P174" s="3"/>
+      <c r="P174" s="3" t="s">
+        <v>535</v>
+      </c>
       <c r="Q174" s="3"/>
     </row>
     <row r="175" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
-        <v>76669110</v>
+        <v>76670329</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>42</v>
@@ -11291,46 +11285,46 @@
         <v>17</v>
       </c>
       <c r="F175" s="3">
-        <v>20601857821</v>
+        <v>20606771445</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H175" s="3">
-        <v>20601857821</v>
+        <v>20606771445</v>
       </c>
       <c r="I175" s="4">
-        <v>46056</v>
+        <v>46055</v>
       </c>
       <c r="J175" s="7">
         <f t="shared" si="6"/>
-        <v>56.016949152542374</v>
+        <v>93.220338983050851</v>
       </c>
       <c r="K175" s="7">
         <f t="shared" si="5"/>
-        <v>10.083050847457628</v>
+        <v>16.779661016949152</v>
       </c>
       <c r="L175" s="8">
-        <v>66.099999999999994</v>
+        <v>110</v>
       </c>
       <c r="M175" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N175" s="3" t="s">
-        <v>142</v>
+      <c r="N175" s="3">
+        <v>202510</v>
       </c>
       <c r="O175" s="3"/>
       <c r="P175" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="Q175" s="3"/>
     </row>
     <row r="176" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
-        <v>76670329</v>
+        <v>76670567</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>42</v>
@@ -11342,46 +11336,46 @@
         <v>17</v>
       </c>
       <c r="F176" s="3">
-        <v>20606771445</v>
+        <v>20608087649</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H176" s="3">
-        <v>20606771445</v>
+        <v>20608087649</v>
       </c>
       <c r="I176" s="4">
         <v>46055</v>
       </c>
       <c r="J176" s="7">
         <f t="shared" si="6"/>
-        <v>93.220338983050851</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K176" s="7">
         <f t="shared" si="5"/>
-        <v>16.779661016949152</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L176" s="8">
-        <v>110</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M176" s="3" t="s">
         <v>19</v>
       </c>
       <c r="N176" s="3">
-        <v>202510</v>
+        <v>202511</v>
       </c>
       <c r="O176" s="3"/>
       <c r="P176" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="Q176" s="3"/>
     </row>
     <row r="177" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
-        <v>76670567</v>
+        <v>76671796</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>42</v>
@@ -11393,16 +11387,16 @@
         <v>17</v>
       </c>
       <c r="F177" s="3">
-        <v>20608087649</v>
+        <v>20612856771</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H177" s="3">
-        <v>20608087649</v>
+        <v>20612856771</v>
       </c>
       <c r="I177" s="4">
-        <v>46055</v>
+        <v>46056</v>
       </c>
       <c r="J177" s="7">
         <f t="shared" si="6"/>
@@ -11423,115 +11417,115 @@
       </c>
       <c r="O177" s="3"/>
       <c r="P177" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Q177" s="3"/>
     </row>
     <row r="178" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
-        <v>76671796</v>
+        <v>76675592</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F178" s="3">
-        <v>20612856771</v>
+        <v>20440444394</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>521</v>
+        <v>328</v>
       </c>
       <c r="H178" s="3">
-        <v>20612856771</v>
+        <v>20440444394</v>
       </c>
       <c r="I178" s="4">
         <v>46056</v>
       </c>
       <c r="J178" s="7">
         <f t="shared" si="6"/>
-        <v>56.016949152542374</v>
+        <v>1017.8728813559322</v>
       </c>
       <c r="K178" s="7">
         <f t="shared" si="5"/>
-        <v>10.083050847457628</v>
+        <v>183.2171186440678</v>
       </c>
       <c r="L178" s="8">
-        <v>66.099999999999994</v>
+        <v>1201.0899999999999</v>
       </c>
       <c r="M178" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N178" s="3">
-        <v>202511</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="N178" s="3"/>
       <c r="O178" s="3"/>
       <c r="P178" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="Q178" s="3"/>
+        <v>505</v>
+      </c>
+      <c r="Q178" s="3" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="179" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
-        <v>76675592</v>
+        <v>76671342</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>258</v>
+        <v>61</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F179" s="3">
-        <v>20440444394</v>
+        <v>20611054166</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>328</v>
+        <v>520</v>
       </c>
       <c r="H179" s="3">
-        <v>20440444394</v>
+        <v>20611054166</v>
       </c>
       <c r="I179" s="4">
         <v>46056</v>
       </c>
       <c r="J179" s="7">
         <f t="shared" si="6"/>
-        <v>1017.8728813559322</v>
+        <v>156.66101694915255</v>
       </c>
       <c r="K179" s="7">
         <f t="shared" si="5"/>
-        <v>183.2171186440678</v>
+        <v>28.19898305084746</v>
       </c>
       <c r="L179" s="8">
-        <v>1201.0899999999999</v>
+        <v>184.86</v>
       </c>
       <c r="M179" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N179" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="N179" s="3">
+        <v>202511</v>
+      </c>
       <c r="O179" s="3"/>
       <c r="P179" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="Q179" s="3" t="s">
-        <v>508</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="Q179" s="3"/>
     </row>
     <row r="180" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
-        <v>76671342</v>
+        <v>76668515</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>61</v>
@@ -11546,27 +11540,27 @@
         <v>17</v>
       </c>
       <c r="F180" s="3">
-        <v>20611054166</v>
+        <v>20570718771</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H180" s="3">
-        <v>20611054166</v>
+        <v>20570718771</v>
       </c>
       <c r="I180" s="4">
         <v>46056</v>
       </c>
       <c r="J180" s="7">
         <f t="shared" si="6"/>
-        <v>156.66101694915255</v>
+        <v>68.220338983050851</v>
       </c>
       <c r="K180" s="7">
         <f t="shared" si="5"/>
-        <v>28.19898305084746</v>
+        <v>12.279661016949152</v>
       </c>
       <c r="L180" s="8">
-        <v>184.86</v>
+        <v>80.5</v>
       </c>
       <c r="M180" s="3" t="s">
         <v>19</v>
@@ -11576,13 +11570,13 @@
       </c>
       <c r="O180" s="3"/>
       <c r="P180" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="Q180" s="3"/>
     </row>
     <row r="181" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
-        <v>76668515</v>
+        <v>76670908</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>61</v>
@@ -11597,27 +11591,27 @@
         <v>17</v>
       </c>
       <c r="F181" s="3">
-        <v>20570718771</v>
+        <v>20609456095</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H181" s="3">
-        <v>20570718771</v>
+        <v>20609456095</v>
       </c>
       <c r="I181" s="4">
         <v>46056</v>
       </c>
       <c r="J181" s="7">
         <f t="shared" si="6"/>
-        <v>68.220338983050851</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K181" s="7">
         <f t="shared" si="5"/>
-        <v>12.279661016949152</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L181" s="8">
-        <v>80.5</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M181" s="3" t="s">
         <v>19</v>
@@ -11627,16 +11621,16 @@
       </c>
       <c r="O181" s="3"/>
       <c r="P181" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="Q181" s="3"/>
     </row>
     <row r="182" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
-        <v>76670908</v>
+        <v>76667436</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>61</v>
+        <v>259</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>42</v>
@@ -11648,13 +11642,13 @@
         <v>17</v>
       </c>
       <c r="F182" s="3">
-        <v>20609456095</v>
+        <v>20510725027</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H182" s="3">
-        <v>20609456095</v>
+        <v>20510725027</v>
       </c>
       <c r="I182" s="4">
         <v>46056</v>
@@ -11674,20 +11668,18 @@
         <v>19</v>
       </c>
       <c r="N182" s="3">
-        <v>202511</v>
+        <v>202510</v>
       </c>
       <c r="O182" s="3"/>
-      <c r="P182" s="3" t="s">
-        <v>543</v>
-      </c>
+      <c r="P182" s="3"/>
       <c r="Q182" s="3"/>
     </row>
     <row r="183" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
-        <v>76667436</v>
+        <v>76668087</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>42</v>
@@ -11699,44 +11691,48 @@
         <v>17</v>
       </c>
       <c r="F183" s="3">
-        <v>20510725027</v>
+        <v>20547995431</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H183" s="3">
-        <v>20510725027</v>
+        <v>20547995431</v>
       </c>
       <c r="I183" s="4">
         <v>46056</v>
       </c>
       <c r="J183" s="7">
         <f t="shared" si="6"/>
-        <v>56.016949152542374</v>
+        <v>61.889830508474581</v>
       </c>
       <c r="K183" s="7">
         <f t="shared" si="5"/>
-        <v>10.083050847457628</v>
+        <v>11.140169491525425</v>
       </c>
       <c r="L183" s="8">
-        <v>66.099999999999994</v>
+        <v>73.03</v>
       </c>
       <c r="M183" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N183" s="3">
-        <v>202510</v>
-      </c>
-      <c r="O183" s="3"/>
-      <c r="P183" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="N183" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O183" s="3">
+        <v>202511</v>
+      </c>
+      <c r="P183" s="3" t="s">
+        <v>542</v>
+      </c>
       <c r="Q183" s="3"/>
     </row>
     <row r="184" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
-        <v>76668087</v>
+        <v>76666635</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>258</v>
+        <v>61</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>42</v>
@@ -11748,45 +11744,43 @@
         <v>17</v>
       </c>
       <c r="F184" s="3">
-        <v>20547995431</v>
+        <v>70445081</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H184" s="3">
-        <v>20547995431</v>
+        <v>10704450813</v>
       </c>
       <c r="I184" s="4">
         <v>46056</v>
       </c>
       <c r="J184" s="7">
         <f t="shared" si="6"/>
-        <v>61.889830508474581</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K184" s="7">
         <f t="shared" si="5"/>
-        <v>11.140169491525425</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L184" s="8">
-        <v>73.03</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M184" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N184" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O184" s="3">
-        <v>202511</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="O184" s="3"/>
       <c r="P184" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="Q184" s="3"/>
     </row>
     <row r="185" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
-        <v>76666635</v>
+        <v>76670240</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>61</v>
@@ -11801,13 +11795,13 @@
         <v>17</v>
       </c>
       <c r="F185" s="3">
-        <v>70445081</v>
+        <v>20606398094</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H185" s="3">
-        <v>10704450813</v>
+        <v>20606398094</v>
       </c>
       <c r="I185" s="4">
         <v>46056</v>
@@ -11826,21 +11820,21 @@
       <c r="M185" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N185" s="3" t="s">
-        <v>142</v>
+      <c r="N185" s="3">
+        <v>202511</v>
       </c>
       <c r="O185" s="3"/>
       <c r="P185" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Q185" s="3"/>
     </row>
     <row r="186" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
-        <v>76670240</v>
+        <v>76670664</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>61</v>
+        <v>258</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>42</v>
@@ -11852,16 +11846,16 @@
         <v>17</v>
       </c>
       <c r="F186" s="3">
-        <v>20606398094</v>
+        <v>20608474961</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H186" s="3">
-        <v>20606398094</v>
+        <v>20608474961</v>
       </c>
       <c r="I186" s="4">
-        <v>46056</v>
+        <v>46055</v>
       </c>
       <c r="J186" s="7">
         <f t="shared" si="6"/>
@@ -11882,13 +11876,13 @@
       </c>
       <c r="O186" s="3"/>
       <c r="P186" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="Q186" s="3"/>
     </row>
     <row r="187" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
-        <v>76670664</v>
+        <v>76669658</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>258</v>
@@ -11903,16 +11897,16 @@
         <v>17</v>
       </c>
       <c r="F187" s="3">
-        <v>20608474961</v>
+        <v>20603894538</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H187" s="3">
-        <v>20608474961</v>
+        <v>20603894538</v>
       </c>
       <c r="I187" s="4">
-        <v>46055</v>
+        <v>46056</v>
       </c>
       <c r="J187" s="7">
         <f t="shared" si="6"/>
@@ -11933,16 +11927,16 @@
       </c>
       <c r="O187" s="3"/>
       <c r="P187" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Q187" s="3"/>
     </row>
     <row r="188" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
-        <v>76669658</v>
+        <v>76669869</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>258</v>
+        <v>15</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>42</v>
@@ -11954,46 +11948,48 @@
         <v>17</v>
       </c>
       <c r="F188" s="3">
-        <v>20603894538</v>
+        <v>20604947678</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H188" s="3">
-        <v>20603894538</v>
+        <v>20604947678</v>
       </c>
       <c r="I188" s="4">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="J188" s="7">
         <f t="shared" si="6"/>
-        <v>56.016949152542374</v>
+        <v>55.084745762711869</v>
       </c>
       <c r="K188" s="7">
         <f t="shared" si="5"/>
-        <v>10.083050847457628</v>
+        <v>9.9152542372881367</v>
       </c>
       <c r="L188" s="8">
-        <v>66.099999999999994</v>
+        <v>65</v>
       </c>
       <c r="M188" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N188" s="3">
+        <v>18</v>
+      </c>
+      <c r="N188" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O188" s="3">
         <v>202511</v>
       </c>
-      <c r="O188" s="3"/>
       <c r="P188" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="Q188" s="3"/>
     </row>
     <row r="189" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
-        <v>76669869</v>
+        <v>76666630</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>42</v>
@@ -12005,45 +12001,45 @@
         <v>17</v>
       </c>
       <c r="F189" s="3">
-        <v>20604947678</v>
+        <v>70254742</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H189" s="3">
-        <v>20604947678</v>
+        <v>10702547429</v>
       </c>
       <c r="I189" s="4">
-        <v>46057</v>
+        <v>46055</v>
       </c>
       <c r="J189" s="7">
         <f t="shared" si="6"/>
-        <v>55.084745762711869</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K189" s="7">
         <f t="shared" si="5"/>
-        <v>9.9152542372881367</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L189" s="8">
-        <v>65</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M189" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N189" s="3" t="s">
-        <v>31</v>
+      <c r="N189" s="3">
+        <v>202510</v>
       </c>
       <c r="O189" s="3">
         <v>202511</v>
       </c>
       <c r="P189" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="Q189" s="3"/>
     </row>
     <row r="190" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
-        <v>76666630</v>
+        <v>76670924</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>258</v>
@@ -12058,16 +12054,16 @@
         <v>17</v>
       </c>
       <c r="F190" s="3">
-        <v>70254742</v>
+        <v>20609512092</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H190" s="3">
-        <v>10702547429</v>
+        <v>20609512092</v>
       </c>
       <c r="I190" s="4">
-        <v>46055</v>
+        <v>46057</v>
       </c>
       <c r="J190" s="7">
         <f t="shared" si="6"/>
@@ -12081,22 +12077,20 @@
         <v>66.099999999999994</v>
       </c>
       <c r="M190" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N190" s="3">
-        <v>202510</v>
-      </c>
-      <c r="O190" s="3">
-        <v>202511</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="N190" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="O190" s="3"/>
       <c r="P190" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="Q190" s="3"/>
     </row>
     <row r="191" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
-        <v>76670924</v>
+        <v>76668873</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>258</v>
@@ -12111,46 +12105,46 @@
         <v>17</v>
       </c>
       <c r="F191" s="3">
-        <v>20609512092</v>
+        <v>20601174384</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H191" s="3">
-        <v>20609512092</v>
+        <v>20601174384</v>
       </c>
       <c r="I191" s="4">
         <v>46057</v>
       </c>
       <c r="J191" s="7">
         <f t="shared" si="6"/>
-        <v>56.016949152542374</v>
+        <v>101.69491525423729</v>
       </c>
       <c r="K191" s="7">
         <f t="shared" si="5"/>
-        <v>10.083050847457628</v>
+        <v>18.305084745762709</v>
       </c>
       <c r="L191" s="8">
-        <v>66.099999999999994</v>
+        <v>120</v>
       </c>
       <c r="M191" s="3" t="s">
         <v>19</v>
       </c>
       <c r="N191" s="3" t="s">
-        <v>142</v>
+        <v>254</v>
       </c>
       <c r="O191" s="3"/>
       <c r="P191" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="Q191" s="3"/>
     </row>
     <row r="192" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
-        <v>76668873</v>
+        <v>76668395</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>258</v>
+        <v>61</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>42</v>
@@ -12162,89 +12156,63 @@
         <v>17</v>
       </c>
       <c r="F192" s="3">
-        <v>20601174384</v>
+        <v>20562618938</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H192" s="3">
-        <v>20601174384</v>
+        <v>20562618938</v>
       </c>
       <c r="I192" s="4">
         <v>46057</v>
       </c>
       <c r="J192" s="7">
         <f t="shared" si="6"/>
-        <v>101.69491525423729</v>
+        <v>79.669491525423737</v>
       </c>
       <c r="K192" s="7">
         <f t="shared" si="5"/>
-        <v>18.305084745762709</v>
+        <v>14.340508474576271</v>
       </c>
       <c r="L192" s="8">
-        <v>120</v>
+        <v>94.01</v>
       </c>
       <c r="M192" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N192" s="3" t="s">
-        <v>254</v>
+      <c r="N192" s="3">
+        <v>202511</v>
       </c>
       <c r="O192" s="3"/>
       <c r="P192" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="Q192" s="3"/>
     </row>
     <row r="193" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="3">
-        <v>76668395</v>
-      </c>
-      <c r="B193" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E193" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F193" s="3">
-        <v>20562618938</v>
-      </c>
-      <c r="G193" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="H193" s="3">
-        <v>20562618938</v>
-      </c>
-      <c r="I193" s="4">
-        <v>46057</v>
-      </c>
+      <c r="A193" s="3"/>
+      <c r="B193" s="3"/>
+      <c r="C193" s="3"/>
+      <c r="D193" s="3"/>
+      <c r="E193" s="3"/>
+      <c r="F193" s="3"/>
+      <c r="G193" s="3"/>
+      <c r="H193" s="3"/>
+      <c r="I193" s="4"/>
       <c r="J193" s="7">
         <f t="shared" si="6"/>
-        <v>79.669491525423737</v>
+        <v>0</v>
       </c>
       <c r="K193" s="7">
         <f t="shared" si="5"/>
-        <v>14.340508474576271</v>
-      </c>
-      <c r="L193" s="8">
-        <v>94.01</v>
-      </c>
-      <c r="M193" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N193" s="3">
-        <v>202511</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L193" s="8"/>
+      <c r="M193" s="3"/>
+      <c r="N193" s="3"/>
       <c r="O193" s="3"/>
-      <c r="P193" s="3" t="s">
-        <v>553</v>
-      </c>
+      <c r="P193" s="3"/>
       <c r="Q193" s="3"/>
     </row>
     <row r="194" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -12558,7 +12526,7 @@
       <c r="H206" s="3"/>
       <c r="I206" s="4"/>
       <c r="J206" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K206" s="7">
@@ -12598,42 +12566,17 @@
       <c r="Q207" s="3"/>
     </row>
     <row r="208" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="3"/>
-      <c r="B208" s="3"/>
-      <c r="C208" s="3"/>
-      <c r="D208" s="3"/>
-      <c r="E208" s="3"/>
-      <c r="F208" s="3"/>
-      <c r="G208" s="3"/>
-      <c r="H208" s="3"/>
-      <c r="I208" s="4"/>
-      <c r="J208" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K208" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L208" s="8"/>
-      <c r="M208" s="3"/>
-      <c r="N208" s="3"/>
-      <c r="O208" s="3"/>
-      <c r="P208" s="3"/>
-      <c r="Q208" s="3"/>
-    </row>
-    <row r="209" spans="10:12" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J209" s="11">
-        <f>SUBTOTAL(9,J2:J208)</f>
-        <v>18535.118644067803</v>
-      </c>
-      <c r="K209" s="11">
-        <f>SUBTOTAL(9,K2:K208)</f>
-        <v>3336.3213559322062</v>
-      </c>
-      <c r="L209" s="11">
-        <f>SUM(L2:L208)</f>
-        <v>21871.439999999984</v>
+      <c r="J208" s="11">
+        <f>SUBTOTAL(9,J2:J207)</f>
+        <v>18466.830508474581</v>
+      </c>
+      <c r="K208" s="11">
+        <f>SUBTOTAL(9,K2:K207)</f>
+        <v>3324.0294915254267</v>
+      </c>
+      <c r="L208" s="11">
+        <f>SUM(L2:L207)</f>
+        <v>21790.859999999986</v>
       </c>
     </row>
   </sheetData>
